--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa23068.4549.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa107972.29767.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A8C0AE-C491-45CD-A4F9-A9C780295482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F9C89B-5BBF-4E19-BE6E-ABE0A16C5AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17790" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1440">
   <si>
     <t>[BackSpace]</t>
   </si>
@@ -1805,9 +1805,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ppb起動(s[H]ell)</t>
-  </si>
-  <si>
     <t>サブディレクトリ以下のファイルサイズ(filesize[I]nfo)</t>
   </si>
   <si>
@@ -1999,9 +1996,6 @@
     <t>(PPtray)メモ</t>
   </si>
   <si>
-    <t>(PPtray)PPcアクティブ化</t>
-  </si>
-  <si>
     <t>(PPtray)ランチャ(Claunch)</t>
   </si>
   <si>
@@ -2471,13 +2465,6 @@
     <t>タイムスタンプを別ファイルにコピー</t>
     <rPh sb="8" eb="9">
       <t>ベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPB起動</t>
-    <rPh sb="3" eb="5">
-      <t>キドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5414,13 +5401,6 @@
   </si>
   <si>
     <t>https://github.com/hymkor/PathToClip</t>
-  </si>
-  <si>
-    <t>このIDのPPC履歴</t>
-    <rPh sb="8" eb="10">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>エントリ表示の並べ替え(上方向）</t>
@@ -5993,6 +5973,23 @@
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(PPtray)PPcアクティブ化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このIDのPPc履歴</t>
+    <rPh sb="8" eb="10">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPbで実行(s[H]ell)</t>
+  </si>
+  <si>
+    <t>PPbで実行</t>
   </si>
 </sst>
 </file>
@@ -6482,76 +6479,76 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -6559,65 +6556,65 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6625,63 +6622,63 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6689,67 +6686,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6760,58 +6757,58 @@
         <v>521</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6820,56 +6817,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6880,58 +6877,58 @@
         <v>520</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6942,60 +6939,60 @@
         <v>510</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7006,56 +7003,56 @@
         <v>514</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7066,56 +7063,56 @@
         <v>515</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7126,56 +7123,56 @@
         <v>507</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7186,58 +7183,58 @@
         <v>506</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7248,64 +7245,64 @@
         <v>490</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1366</v>
+        <v>1437</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7316,64 +7313,64 @@
         <v>491</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7384,62 +7381,62 @@
         <v>492</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7450,64 +7447,64 @@
         <v>493</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7515,63 +7512,63 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7582,60 +7579,60 @@
         <v>508</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7643,65 +7640,65 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7709,63 +7706,63 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7773,69 +7770,69 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7846,68 +7843,68 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7915,67 +7912,67 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -7983,65 +7980,67 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="R24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>1436</v>
+      </c>
       <c r="S24" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8052,58 +8051,58 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8114,64 +8113,64 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>522</v>
+        <v>1438</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8182,64 +8181,64 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8250,60 +8249,60 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8314,60 +8313,60 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8378,34 +8377,34 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8414,28 +8413,28 @@
         <v>505</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8443,67 +8442,67 @@
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8514,60 +8513,60 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8575,63 +8574,63 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8639,65 +8638,65 @@
         <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>557</v>
+        <v>1439</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8705,10 +8704,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8717,53 +8716,53 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8774,60 +8773,60 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8835,63 +8834,63 @@
         <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8899,65 +8898,65 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -8968,58 +8967,58 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9027,67 +9026,67 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9098,64 +9097,64 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9163,65 +9162,65 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9229,63 +9228,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9296,62 +9295,62 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9362,60 +9361,60 @@
         <v>500</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9426,58 +9425,58 @@
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9488,56 +9487,56 @@
         <v>502</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9548,60 +9547,60 @@
         <v>503</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9612,58 +9611,58 @@
         <v>504</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9671,65 +9670,65 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9737,63 +9736,63 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9801,63 +9800,63 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9865,63 +9864,63 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>623</v>
+        <v>1439</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9929,63 +9928,63 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -9996,60 +9995,60 @@
         <v>511</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10060,60 +10059,60 @@
         <v>512</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10124,16 +10123,16 @@
         <v>509</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10144,7 +10143,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10155,7 +10154,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10166,11 +10165,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10181,7 +10180,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10192,11 +10191,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10207,7 +10206,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10218,7 +10217,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10229,7 +10228,7 @@
         <v>487</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10240,7 +10239,7 @@
         <v>488</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10249,7 +10248,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10258,7 +10257,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10269,7 +10268,7 @@
         <v>519</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10278,7 +10277,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10289,7 +10288,7 @@
         <v>497</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10300,7 +10299,7 @@
         <v>513</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10311,7 +10310,7 @@
         <v>494</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10322,7 +10321,7 @@
         <v>495</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10333,7 +10332,7 @@
         <v>498</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -10344,7 +10343,7 @@
         <v>517</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10352,10 +10351,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10364,7 +10363,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10372,10 +10371,10 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10386,7 +10385,7 @@
         <v>518</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10394,10 +10393,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10405,32 +10404,32 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10439,7 +10438,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10450,7 +10449,7 @@
         <v>499</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10458,10 +10457,10 @@
         <v>473</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10470,7 +10469,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10481,7 +10480,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10492,7 +10491,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10500,10 +10499,10 @@
         <v>496</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -10528,959 +10527,959 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>1398</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -11589,46 +11588,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa107972.29767.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa19496.35740.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F9C89B-5BBF-4E19-BE6E-ABE0A16C5AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312E6E5-E23E-4D6C-872B-8B72342208B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17790" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1441">
   <si>
     <t>[BackSpace]</t>
   </si>
@@ -2893,9 +2893,6 @@
   </si>
   <si>
     <t>popcalc</t>
-  </si>
-  <si>
-    <t>potplayer</t>
   </si>
   <si>
     <t>rapidee</t>
@@ -3643,10 +3640,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.gigafree.net/media/MediaPlayer/potplayer.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.rapidee.com/ja/about</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5426,10 +5419,6 @@
     <rPh sb="13" eb="15">
       <t>ホウコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コマンドプロンプト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5990,6 +5979,25 @@
   </si>
   <si>
     <t>PPbで実行</t>
+  </si>
+  <si>
+    <t>videoLAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.videolan.org/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPbで実行</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンソール(コマンドプロンプト)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6485,7 +6493,7 @@
         <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>654</v>
@@ -6494,7 +6502,7 @@
         <v>655</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>654</v>
@@ -6503,7 +6511,7 @@
         <v>655</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>654</v>
@@ -6559,16 +6567,16 @@
         <v>526</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
@@ -6577,44 +6585,44 @@
         <v>619</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6625,60 +6633,60 @@
         <v>578</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6686,10 +6694,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
@@ -6698,7 +6706,7 @@
         <v>562</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
@@ -6707,7 +6715,7 @@
         <v>565</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
@@ -6716,14 +6724,14 @@
         <v>564</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
@@ -6732,21 +6740,21 @@
         <v>586</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6757,7 +6765,7 @@
         <v>521</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
@@ -6766,49 +6774,49 @@
         <v>622</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6817,56 +6825,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6877,7 +6885,7 @@
         <v>520</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
@@ -6886,49 +6894,49 @@
         <v>563</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6939,7 +6947,7 @@
         <v>510</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
@@ -6948,7 +6956,7 @@
         <v>602</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
@@ -6957,42 +6965,42 @@
         <v>591</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7003,56 +7011,56 @@
         <v>514</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7063,56 +7071,56 @@
         <v>515</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7123,56 +7131,56 @@
         <v>507</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7183,21 +7191,21 @@
         <v>506</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
@@ -7206,35 +7214,35 @@
         <v>658</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7245,25 +7253,25 @@
         <v>490</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
@@ -7272,37 +7280,37 @@
         <v>640</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7313,7 +7321,7 @@
         <v>491</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
@@ -7322,7 +7330,7 @@
         <v>560</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
@@ -7331,7 +7339,7 @@
         <v>551</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
@@ -7340,37 +7348,37 @@
         <v>641</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7381,25 +7389,25 @@
         <v>492</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
@@ -7408,35 +7416,35 @@
         <v>642</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7447,7 +7455,7 @@
         <v>493</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
@@ -7456,7 +7464,7 @@
         <v>561</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
@@ -7465,7 +7473,7 @@
         <v>552</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
@@ -7474,37 +7482,37 @@
         <v>643</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7512,10 +7520,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
@@ -7524,7 +7532,7 @@
         <v>636</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
@@ -7533,42 +7541,42 @@
         <v>648</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7579,7 +7587,7 @@
         <v>508</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
@@ -7588,7 +7596,7 @@
         <v>637</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
@@ -7597,42 +7605,42 @@
         <v>649</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7640,10 +7648,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
@@ -7652,7 +7660,7 @@
         <v>620</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
@@ -7661,14 +7669,14 @@
         <v>592</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
@@ -7677,28 +7685,28 @@
         <v>582</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7706,10 +7714,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
@@ -7718,7 +7726,7 @@
         <v>531</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
@@ -7727,42 +7735,42 @@
         <v>532</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7773,7 +7781,7 @@
         <v>659</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
@@ -7782,7 +7790,7 @@
         <v>528</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
@@ -7791,7 +7799,7 @@
         <v>533</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
@@ -7800,7 +7808,7 @@
         <v>611</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
@@ -7809,30 +7817,30 @@
         <v>614</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7843,7 +7851,7 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
@@ -7852,7 +7860,7 @@
         <v>554</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
@@ -7861,16 +7869,16 @@
         <v>534</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
@@ -7879,7 +7887,7 @@
         <v>623</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
@@ -7888,7 +7896,7 @@
         <v>553</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
@@ -7897,14 +7905,14 @@
         <v>625</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7915,7 +7923,7 @@
         <v>650</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
@@ -7924,7 +7932,7 @@
         <v>651</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
@@ -7933,7 +7941,7 @@
         <v>601</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
@@ -7942,7 +7950,7 @@
         <v>543</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
@@ -7951,28 +7959,28 @@
         <v>555</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -7983,7 +7991,7 @@
         <v>645</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
@@ -7992,7 +8000,7 @@
         <v>646</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
@@ -8001,7 +8009,7 @@
         <v>609</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
@@ -8010,37 +8018,37 @@
         <v>544</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8051,7 +8059,7 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
@@ -8060,49 +8068,49 @@
         <v>610</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8113,16 +8121,16 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
@@ -8131,7 +8139,7 @@
         <v>597</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
@@ -8140,7 +8148,7 @@
         <v>545</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
@@ -8149,28 +8157,28 @@
         <v>624</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8181,7 +8189,7 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
@@ -8190,7 +8198,7 @@
         <v>522</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
@@ -8199,7 +8207,7 @@
         <v>535</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
@@ -8208,7 +8216,7 @@
         <v>546</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
@@ -8217,28 +8225,28 @@
         <v>585</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8249,16 +8257,16 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
@@ -8267,42 +8275,42 @@
         <v>598</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8313,7 +8321,7 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
@@ -8322,7 +8330,7 @@
         <v>523</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
@@ -8331,42 +8339,42 @@
         <v>599</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8377,7 +8385,7 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
@@ -8386,7 +8394,7 @@
         <v>596</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
@@ -8395,7 +8403,7 @@
         <v>600</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
@@ -8404,7 +8412,7 @@
         <v>594</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8413,28 +8421,28 @@
         <v>505</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8445,7 +8453,7 @@
         <v>660</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
@@ -8454,7 +8462,7 @@
         <v>529</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
@@ -8463,7 +8471,7 @@
         <v>603</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
@@ -8472,7 +8480,7 @@
         <v>612</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
@@ -8481,28 +8489,28 @@
         <v>615</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8513,7 +8521,7 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
@@ -8522,7 +8530,7 @@
         <v>530</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
@@ -8531,42 +8539,42 @@
         <v>527</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8577,7 +8585,7 @@
         <v>653</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
@@ -8586,14 +8594,14 @@
         <v>587</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
@@ -8602,35 +8610,35 @@
         <v>547</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8641,7 +8649,7 @@
         <v>540</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
@@ -8650,7 +8658,7 @@
         <v>616</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
@@ -8659,44 +8667,44 @@
         <v>579</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8704,10 +8712,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8716,23 +8724,23 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
@@ -8741,28 +8749,28 @@
         <v>556</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8773,7 +8781,7 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
@@ -8782,51 +8790,51 @@
         <v>593</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8837,7 +8845,7 @@
         <v>644</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
@@ -8846,35 +8854,35 @@
         <v>647</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
@@ -8883,14 +8891,14 @@
         <v>626</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8901,7 +8909,7 @@
         <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
@@ -8910,7 +8918,7 @@
         <v>566</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
@@ -8919,7 +8927,7 @@
         <v>580</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
@@ -8928,35 +8936,35 @@
         <v>550</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -8967,7 +8975,7 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
@@ -8976,49 +8984,49 @@
         <v>657</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9026,10 +9034,10 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
@@ -9038,7 +9046,7 @@
         <v>618</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
@@ -9047,7 +9055,7 @@
         <v>536</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
@@ -9056,7 +9064,7 @@
         <v>621</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
@@ -9065,28 +9073,28 @@
         <v>557</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9097,7 +9105,7 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
@@ -9106,7 +9114,7 @@
         <v>524</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
@@ -9115,7 +9123,7 @@
         <v>581</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
@@ -9124,7 +9132,7 @@
         <v>548</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
@@ -9133,28 +9141,28 @@
         <v>558</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9165,7 +9173,7 @@
         <v>604</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
@@ -9174,7 +9182,7 @@
         <v>605</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
@@ -9183,14 +9191,14 @@
         <v>537</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
@@ -9199,28 +9207,28 @@
         <v>559</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9228,26 +9236,26 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
@@ -9256,35 +9264,35 @@
         <v>617</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9295,7 +9303,7 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
@@ -9304,7 +9312,7 @@
         <v>607</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
@@ -9313,7 +9321,7 @@
         <v>538</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
@@ -9322,35 +9330,35 @@
         <v>549</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>571</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>572</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>573</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9361,7 +9369,7 @@
         <v>500</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
@@ -9370,7 +9378,7 @@
         <v>639</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
@@ -9379,42 +9387,42 @@
         <v>574</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9425,7 +9433,7 @@
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
@@ -9434,49 +9442,49 @@
         <v>567</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9487,56 +9495,56 @@
         <v>502</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9547,7 +9555,7 @@
         <v>503</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
@@ -9556,7 +9564,7 @@
         <v>622</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
@@ -9565,42 +9573,42 @@
         <v>581</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9611,14 +9619,14 @@
         <v>504</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
@@ -9627,42 +9635,42 @@
         <v>627</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9670,28 +9678,28 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
@@ -9700,35 +9708,35 @@
         <v>634</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9739,7 +9747,7 @@
         <v>606</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
@@ -9748,7 +9756,7 @@
         <v>583</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
@@ -9757,42 +9765,42 @@
         <v>584</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9800,10 +9808,10 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
@@ -9812,7 +9820,7 @@
         <v>568</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
@@ -9821,42 +9829,42 @@
         <v>576</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9864,19 +9872,19 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1365</v>
+        <v>1439</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
@@ -9885,42 +9893,42 @@
         <v>541</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9931,7 +9939,7 @@
         <v>608</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
@@ -9940,7 +9948,7 @@
         <v>577</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
@@ -9949,42 +9957,42 @@
         <v>575</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -9995,7 +10003,7 @@
         <v>511</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
@@ -10004,7 +10012,7 @@
         <v>570</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
@@ -10013,42 +10021,42 @@
         <v>542</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10059,7 +10067,7 @@
         <v>512</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>134</v>
@@ -10068,7 +10076,7 @@
         <v>569</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>189</v>
@@ -10077,42 +10085,42 @@
         <v>613</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>588</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>589</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="AC56" s="1" t="s">
         <v>590</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10123,7 +10131,7 @@
         <v>509</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
@@ -10132,7 +10140,7 @@
         <v>525</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10143,7 +10151,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10154,7 +10162,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10165,11 +10173,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10180,7 +10188,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10191,11 +10199,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10206,7 +10214,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10217,7 +10225,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10228,7 +10236,7 @@
         <v>487</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10239,7 +10247,7 @@
         <v>488</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10248,7 +10256,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10257,7 +10265,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10268,7 +10276,7 @@
         <v>519</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10277,7 +10285,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10288,7 +10296,7 @@
         <v>497</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10299,7 +10307,7 @@
         <v>513</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10310,7 +10318,7 @@
         <v>494</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10321,7 +10329,7 @@
         <v>495</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10332,7 +10340,7 @@
         <v>498</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -10343,7 +10351,7 @@
         <v>517</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10354,7 +10362,7 @@
         <v>638</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10363,7 +10371,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10374,7 +10382,7 @@
         <v>635</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10385,7 +10393,7 @@
         <v>518</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10396,7 +10404,7 @@
         <v>628</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10407,7 +10415,7 @@
         <v>629</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -10418,7 +10426,7 @@
         <v>632</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -10429,7 +10437,7 @@
         <v>633</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10438,7 +10446,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10449,7 +10457,7 @@
         <v>499</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10460,7 +10468,7 @@
         <v>595</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10469,7 +10477,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10480,7 +10488,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10491,7 +10499,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10502,7 +10510,7 @@
         <v>652</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -10527,24 +10535,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -10552,10 +10560,10 @@
         <v>661</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -10563,10 +10571,10 @@
         <v>662</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -10574,10 +10582,10 @@
         <v>663</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -10585,10 +10593,10 @@
         <v>664</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -10596,21 +10604,21 @@
         <v>665</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -10618,10 +10626,10 @@
         <v>666</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -10629,21 +10637,21 @@
         <v>667</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -10651,10 +10659,10 @@
         <v>668</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -10662,10 +10670,10 @@
         <v>669</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -10673,10 +10681,10 @@
         <v>670</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
@@ -10684,10 +10692,10 @@
         <v>671</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -10695,10 +10703,10 @@
         <v>672</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -10706,21 +10714,21 @@
         <v>673</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1394</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -10728,10 +10736,10 @@
         <v>674</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -10739,10 +10747,10 @@
         <v>675</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -10750,10 +10758,10 @@
         <v>676</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -10761,10 +10769,10 @@
         <v>677</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -10772,10 +10780,10 @@
         <v>678</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -10783,10 +10791,10 @@
         <v>679</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -10794,10 +10802,10 @@
         <v>680</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -10805,10 +10813,10 @@
         <v>681</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -10816,10 +10824,10 @@
         <v>682</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -10827,10 +10835,10 @@
         <v>683</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -10838,10 +10846,10 @@
         <v>684</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -10849,10 +10857,10 @@
         <v>685</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -10860,10 +10868,10 @@
         <v>686</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -10871,10 +10879,10 @@
         <v>687</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -10882,21 +10890,21 @@
         <v>688</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -10904,10 +10912,10 @@
         <v>689</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -10915,10 +10923,10 @@
         <v>690</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -10926,10 +10934,10 @@
         <v>691</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -10937,21 +10945,21 @@
         <v>692</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -10959,10 +10967,10 @@
         <v>693</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -10970,10 +10978,10 @@
         <v>694</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -10981,10 +10989,10 @@
         <v>695</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -10992,21 +11000,21 @@
         <v>696</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -11014,21 +11022,21 @@
         <v>697</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -11036,10 +11044,10 @@
         <v>698</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -11047,10 +11055,10 @@
         <v>699</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -11058,10 +11066,10 @@
         <v>700</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -11069,10 +11077,10 @@
         <v>701</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -11080,10 +11088,10 @@
         <v>702</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -11091,21 +11099,21 @@
         <v>703</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>1360</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -11113,10 +11121,10 @@
         <v>704</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -11124,10 +11132,10 @@
         <v>705</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -11135,21 +11143,21 @@
         <v>706</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>1357</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -11157,10 +11165,10 @@
         <v>707</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -11168,10 +11176,10 @@
         <v>708</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -11179,10 +11187,10 @@
         <v>709</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -11190,10 +11198,10 @@
         <v>710</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -11201,43 +11209,43 @@
         <v>711</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>712</v>
+        <v>1429</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>789</v>
+        <v>1430</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>840</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1433</v>
+        <v>789</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1434</v>
+        <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1430</v>
+        <v>712</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>790</v>
+        <v>1400</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -11245,43 +11253,43 @@
         <v>713</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1403</v>
+        <v>1396</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>714</v>
+        <v>1424</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1399</v>
+        <v>1425</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>838</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>1427</v>
+        <v>1382</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1428</v>
+        <v>1384</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1429</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>1385</v>
+        <v>714</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1387</v>
+        <v>796</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1386</v>
+        <v>835</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -11289,10 +11297,10 @@
         <v>715</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -11300,10 +11308,10 @@
         <v>716</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -11311,10 +11319,10 @@
         <v>717</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -11325,29 +11333,29 @@
         <v>798</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>1406</v>
+      <c r="B75" s="1" t="s">
+        <v>1390</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1404</v>
+        <v>841</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -11355,10 +11363,10 @@
         <v>720</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1393</v>
+        <v>791</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -11369,117 +11377,117 @@
         <v>792</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>722</v>
+        <v>1437</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>845</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -11508,39 +11516,39 @@
     <hyperlink ref="C32" r:id="rId21" xr:uid="{B114FCC5-14AF-42F6-92C4-7F0E16122536}"/>
     <hyperlink ref="C30" r:id="rId22" xr:uid="{B21F9EAD-EE98-4F05-83AD-39A1442CF9FE}"/>
     <hyperlink ref="C41" r:id="rId23" xr:uid="{81F37CA5-D504-4FFC-B149-647ED2939258}"/>
-    <hyperlink ref="C73" r:id="rId24" xr:uid="{87BC7322-B642-4523-B67F-507222F52B62}"/>
-    <hyperlink ref="C72" r:id="rId25" xr:uid="{F045B122-9BFA-4F6F-9F9B-FF3CC2A36D1B}"/>
-    <hyperlink ref="C74" r:id="rId26" xr:uid="{10F3C95D-D017-48C0-B393-1F819124D4B2}"/>
-    <hyperlink ref="C65" r:id="rId27" xr:uid="{344B870A-05DF-4171-BBA2-F5676D88A8D3}"/>
+    <hyperlink ref="C72" r:id="rId24" xr:uid="{87BC7322-B642-4523-B67F-507222F52B62}"/>
+    <hyperlink ref="C71" r:id="rId25" xr:uid="{F045B122-9BFA-4F6F-9F9B-FF3CC2A36D1B}"/>
+    <hyperlink ref="C73" r:id="rId26" xr:uid="{10F3C95D-D017-48C0-B393-1F819124D4B2}"/>
+    <hyperlink ref="C64" r:id="rId27" xr:uid="{344B870A-05DF-4171-BBA2-F5676D88A8D3}"/>
     <hyperlink ref="C54" r:id="rId28" xr:uid="{7A8EDE4F-3EF6-4DC6-B2CD-6826D9C6EDA2}"/>
     <hyperlink ref="C52" r:id="rId29" xr:uid="{D1156D6A-B67B-443E-A324-AC5E24D58D88}"/>
     <hyperlink ref="C51" r:id="rId30" xr:uid="{05128F34-C680-408C-8D22-BDBF9B77A1F3}"/>
     <hyperlink ref="C56" r:id="rId31" xr:uid="{7B7104F1-31E6-4DF2-84E4-2E17027BE68F}"/>
     <hyperlink ref="C58" r:id="rId32" xr:uid="{AF15EB3A-1167-4DA5-A83C-34CA3B19D482}"/>
-    <hyperlink ref="C59" r:id="rId33" xr:uid="{35CF107E-9F79-4FF5-A24B-233FFBD63654}"/>
-    <hyperlink ref="C61" r:id="rId34" xr:uid="{CCF22E83-8195-4D83-AC2D-1BF97D19062B}"/>
+    <hyperlink ref="C78" r:id="rId33" xr:uid="{35CF107E-9F79-4FF5-A24B-233FFBD63654}"/>
+    <hyperlink ref="C60" r:id="rId34" xr:uid="{CCF22E83-8195-4D83-AC2D-1BF97D19062B}"/>
     <hyperlink ref="C47" r:id="rId35" xr:uid="{B9F778F9-69DC-4C02-887B-257AD617AD89}"/>
     <hyperlink ref="C45" r:id="rId36" xr:uid="{65157777-77E3-405E-A6C1-3F698F40861B}"/>
     <hyperlink ref="C23" r:id="rId37" xr:uid="{509C60A3-4FF2-4F50-919E-FB79C732884B}"/>
     <hyperlink ref="C28" r:id="rId38" xr:uid="{9F509FDC-02B2-4527-A728-C855C54B46C1}"/>
     <hyperlink ref="C27" r:id="rId39" xr:uid="{E902244A-ADBE-4A39-90A5-EA65FF1791C4}"/>
     <hyperlink ref="C48" r:id="rId40" xr:uid="{AF65258D-2756-4EC1-8710-5CFA92DC6679}"/>
-    <hyperlink ref="C70" r:id="rId41" xr:uid="{2E4379D3-3952-482A-8D8C-76022EF1D561}"/>
-    <hyperlink ref="C67" r:id="rId42" xr:uid="{0AAFE1B3-CAFD-41AA-A776-3B55644FBBD9}"/>
-    <hyperlink ref="C66" r:id="rId43" xr:uid="{DEA28E6C-155E-4B9E-8946-00697704A059}"/>
-    <hyperlink ref="C63" r:id="rId44" xr:uid="{7C852368-6444-46F3-8610-F6F20B85E2E0}"/>
-    <hyperlink ref="C60" r:id="rId45" xr:uid="{C6D42E8E-B559-44E5-86BD-D72D4D1437B3}"/>
-    <hyperlink ref="C71" r:id="rId46" xr:uid="{8B688F93-0C38-4C55-85EE-3E43F56475AD}"/>
-    <hyperlink ref="C76" r:id="rId47" xr:uid="{27BC8034-1A41-4D44-83E9-74BB2175F77D}"/>
-    <hyperlink ref="C77" r:id="rId48" xr:uid="{303A90B0-1FD3-4BF9-80CA-A5B948327D43}"/>
-    <hyperlink ref="C78" r:id="rId49" xr:uid="{A7876584-8188-41B7-9B54-8D32FB1C47FE}"/>
+    <hyperlink ref="C69" r:id="rId41" xr:uid="{2E4379D3-3952-482A-8D8C-76022EF1D561}"/>
+    <hyperlink ref="C66" r:id="rId42" xr:uid="{0AAFE1B3-CAFD-41AA-A776-3B55644FBBD9}"/>
+    <hyperlink ref="C65" r:id="rId43" xr:uid="{DEA28E6C-155E-4B9E-8946-00697704A059}"/>
+    <hyperlink ref="C62" r:id="rId44" xr:uid="{7C852368-6444-46F3-8610-F6F20B85E2E0}"/>
+    <hyperlink ref="C59" r:id="rId45" xr:uid="{C6D42E8E-B559-44E5-86BD-D72D4D1437B3}"/>
+    <hyperlink ref="C70" r:id="rId46" xr:uid="{8B688F93-0C38-4C55-85EE-3E43F56475AD}"/>
+    <hyperlink ref="C75" r:id="rId47" xr:uid="{27BC8034-1A41-4D44-83E9-74BB2175F77D}"/>
+    <hyperlink ref="C76" r:id="rId48" xr:uid="{303A90B0-1FD3-4BF9-80CA-A5B948327D43}"/>
+    <hyperlink ref="C77" r:id="rId49" xr:uid="{A7876584-8188-41B7-9B54-8D32FB1C47FE}"/>
     <hyperlink ref="C81" r:id="rId50" xr:uid="{5DAA545F-6A0B-4A91-8C0F-DFCD98799839}"/>
     <hyperlink ref="C84" r:id="rId51" xr:uid="{0F405C1B-78B2-4E9C-B847-B2F9E8FD8886}"/>
     <hyperlink ref="C85" r:id="rId52" xr:uid="{117D55F0-C09A-4F19-A0E8-C91027451BA5}"/>
     <hyperlink ref="C86" r:id="rId53" xr:uid="{BEB0F265-C2BB-45C7-8027-61EB33DC017F}"/>
     <hyperlink ref="C87" r:id="rId54" xr:uid="{7E56694E-DAE6-458F-8254-69E3CB4EA9F7}"/>
     <hyperlink ref="C83" r:id="rId55" xr:uid="{8C92A812-19F1-49FE-8E72-058B032BA782}"/>
-    <hyperlink ref="C62" r:id="rId56" xr:uid="{73C26C64-39A0-4B41-AE53-3CB1ED198E0D}"/>
+    <hyperlink ref="C61" r:id="rId56" xr:uid="{73C26C64-39A0-4B41-AE53-3CB1ED198E0D}"/>
     <hyperlink ref="C79" r:id="rId57" xr:uid="{38C785CB-4B49-4CE9-9F7A-AFAC20F407B9}"/>
     <hyperlink ref="C82" r:id="rId58" xr:uid="{FCC504D1-E86F-4C45-8083-8E6907E8542F}"/>
     <hyperlink ref="C80" r:id="rId59" xr:uid="{AB809B0B-3E69-4B6B-9527-766A6F4F1C65}"/>
@@ -11558,15 +11566,15 @@
     <hyperlink ref="C55" r:id="rId71" display="https://www.adobe.com/jp/products/photoshop.html" xr:uid="{EC66647F-0CF9-4B78-AB74-D843AED9AF8D}"/>
     <hyperlink ref="C57" r:id="rId72" xr:uid="{ED4BA47F-DB74-45E0-9435-C49FBD96A82C}"/>
     <hyperlink ref="C2" r:id="rId73" xr:uid="{ECF3E151-433F-4F53-82A2-3F17C3DFE826}"/>
-    <hyperlink ref="C69" r:id="rId74" xr:uid="{E46BCDED-F13C-40C0-84B4-135490605C17}"/>
+    <hyperlink ref="C68" r:id="rId74" xr:uid="{E46BCDED-F13C-40C0-84B4-135490605C17}"/>
     <hyperlink ref="C11" r:id="rId75" xr:uid="{8BB09B49-E3A2-49C5-BC57-2C2A965174F9}"/>
     <hyperlink ref="C18" r:id="rId76" display="https://www.digitalvolcano.co.uk/dcdownload_versions.html" xr:uid="{4C95B15E-8A37-4208-8CE1-341D7CADB1A1}"/>
     <hyperlink ref="C46" r:id="rId77" xr:uid="{2402CC55-6F32-4807-8B2D-C2FEB50FBA47}"/>
-    <hyperlink ref="C75" r:id="rId78" xr:uid="{E6D24209-8144-49CD-BA34-B44A6F8E31B5}"/>
+    <hyperlink ref="C74" r:id="rId78" xr:uid="{E6D24209-8144-49CD-BA34-B44A6F8E31B5}"/>
     <hyperlink ref="C39" r:id="rId79" xr:uid="{C4BD4C2D-22F8-420F-8ACC-6A571C34011D}"/>
     <hyperlink ref="C44" r:id="rId80" xr:uid="{54329105-54CE-4A38-A119-79525956293D}"/>
-    <hyperlink ref="C68" r:id="rId81" xr:uid="{A0BA9827-B49E-4EA7-B5BF-C7D68410CE9D}"/>
-    <hyperlink ref="C64" r:id="rId82" xr:uid="{420C3D43-3941-4F12-A058-728726575143}"/>
+    <hyperlink ref="C67" r:id="rId81" xr:uid="{A0BA9827-B49E-4EA7-B5BF-C7D68410CE9D}"/>
+    <hyperlink ref="C63" r:id="rId82" xr:uid="{420C3D43-3941-4F12-A058-728726575143}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId83"/>
@@ -11588,46 +11596,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa19496.35740.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\Documents\GitHub\ppx-customize-example\key検討用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312E6E5-E23E-4D6C-872B-8B72342208B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E088B4-1577-4C00-B15C-7ACBDD9ADD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17790" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1443">
   <si>
     <t>[BackSpace]</t>
   </si>
@@ -3267,10 +3267,6 @@
     <rPh sb="2" eb="4">
       <t>ヘンカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MP3タグエディタ(メイン)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5997,6 +5993,18 @@
   </si>
   <si>
     <t>コンソール(コマンドプロンプト)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>musicbranz picard</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP3タグエディタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://picard.musicbrainz.org/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6158,9 +6166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6198,7 +6206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6304,7 +6312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6446,7 +6454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6493,7 +6501,7 @@
         <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>654</v>
@@ -6502,7 +6510,7 @@
         <v>655</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>654</v>
@@ -6511,7 +6519,7 @@
         <v>655</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>654</v>
@@ -6567,16 +6575,16 @@
         <v>526</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
@@ -6585,44 +6593,44 @@
         <v>619</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6633,60 +6641,60 @@
         <v>578</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6694,10 +6702,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
@@ -6706,7 +6714,7 @@
         <v>562</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
@@ -6715,7 +6723,7 @@
         <v>565</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
@@ -6724,14 +6732,14 @@
         <v>564</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
@@ -6740,21 +6748,21 @@
         <v>586</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6765,7 +6773,7 @@
         <v>521</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
@@ -6774,49 +6782,49 @@
         <v>622</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6825,56 +6833,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6885,7 +6893,7 @@
         <v>520</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
@@ -6894,49 +6902,49 @@
         <v>563</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6947,7 +6955,7 @@
         <v>510</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
@@ -6956,7 +6964,7 @@
         <v>602</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
@@ -6965,42 +6973,42 @@
         <v>591</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7011,56 +7019,56 @@
         <v>514</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7071,56 +7079,56 @@
         <v>515</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7131,56 +7139,56 @@
         <v>507</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7191,21 +7199,21 @@
         <v>506</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
@@ -7214,35 +7222,35 @@
         <v>658</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7253,25 +7261,25 @@
         <v>490</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
@@ -7280,37 +7288,37 @@
         <v>640</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7321,7 +7329,7 @@
         <v>491</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
@@ -7330,7 +7338,7 @@
         <v>560</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
@@ -7339,7 +7347,7 @@
         <v>551</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
@@ -7348,37 +7356,37 @@
         <v>641</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7389,25 +7397,25 @@
         <v>492</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
@@ -7416,35 +7424,35 @@
         <v>642</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7455,7 +7463,7 @@
         <v>493</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
@@ -7464,7 +7472,7 @@
         <v>561</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
@@ -7473,7 +7481,7 @@
         <v>552</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
@@ -7482,37 +7490,37 @@
         <v>643</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7520,10 +7528,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
@@ -7532,7 +7540,7 @@
         <v>636</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
@@ -7541,42 +7549,42 @@
         <v>648</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7587,7 +7595,7 @@
         <v>508</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
@@ -7596,7 +7604,7 @@
         <v>637</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
@@ -7605,42 +7613,42 @@
         <v>649</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7648,10 +7656,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
@@ -7660,7 +7668,7 @@
         <v>620</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
@@ -7669,14 +7677,14 @@
         <v>592</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
@@ -7685,28 +7693,28 @@
         <v>582</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7714,10 +7722,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
@@ -7726,7 +7734,7 @@
         <v>531</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
@@ -7735,42 +7743,42 @@
         <v>532</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7781,7 +7789,7 @@
         <v>659</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
@@ -7790,7 +7798,7 @@
         <v>528</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
@@ -7799,7 +7807,7 @@
         <v>533</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
@@ -7808,7 +7816,7 @@
         <v>611</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
@@ -7817,30 +7825,30 @@
         <v>614</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7851,7 +7859,7 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
@@ -7860,7 +7868,7 @@
         <v>554</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
@@ -7869,16 +7877,16 @@
         <v>534</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
@@ -7887,7 +7895,7 @@
         <v>623</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
@@ -7896,7 +7904,7 @@
         <v>553</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
@@ -7905,14 +7913,14 @@
         <v>625</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7923,7 +7931,7 @@
         <v>650</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
@@ -7932,7 +7940,7 @@
         <v>651</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
@@ -7941,7 +7949,7 @@
         <v>601</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
@@ -7950,7 +7958,7 @@
         <v>543</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
@@ -7959,28 +7967,28 @@
         <v>555</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -7991,7 +7999,7 @@
         <v>645</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
@@ -8000,7 +8008,7 @@
         <v>646</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
@@ -8009,7 +8017,7 @@
         <v>609</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
@@ -8018,37 +8026,37 @@
         <v>544</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8059,7 +8067,7 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
@@ -8068,49 +8076,49 @@
         <v>610</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8121,16 +8129,16 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
@@ -8139,7 +8147,7 @@
         <v>597</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
@@ -8148,7 +8156,7 @@
         <v>545</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
@@ -8157,28 +8165,28 @@
         <v>624</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8189,7 +8197,7 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
@@ -8198,7 +8206,7 @@
         <v>522</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
@@ -8207,7 +8215,7 @@
         <v>535</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
@@ -8216,7 +8224,7 @@
         <v>546</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
@@ -8225,28 +8233,28 @@
         <v>585</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8257,16 +8265,16 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
@@ -8275,42 +8283,42 @@
         <v>598</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8321,7 +8329,7 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
@@ -8330,7 +8338,7 @@
         <v>523</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
@@ -8339,42 +8347,42 @@
         <v>599</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8385,7 +8393,7 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
@@ -8394,7 +8402,7 @@
         <v>596</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
@@ -8403,7 +8411,7 @@
         <v>600</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
@@ -8412,7 +8420,7 @@
         <v>594</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8421,28 +8429,28 @@
         <v>505</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8453,7 +8461,7 @@
         <v>660</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
@@ -8462,7 +8470,7 @@
         <v>529</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
@@ -8471,7 +8479,7 @@
         <v>603</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
@@ -8480,7 +8488,7 @@
         <v>612</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
@@ -8489,28 +8497,28 @@
         <v>615</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8521,7 +8529,7 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
@@ -8530,7 +8538,7 @@
         <v>530</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
@@ -8539,42 +8547,42 @@
         <v>527</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8585,7 +8593,7 @@
         <v>653</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
@@ -8594,14 +8602,14 @@
         <v>587</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
@@ -8610,35 +8618,35 @@
         <v>547</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8649,7 +8657,7 @@
         <v>540</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
@@ -8658,7 +8666,7 @@
         <v>616</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
@@ -8667,44 +8675,44 @@
         <v>579</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8712,10 +8720,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8724,23 +8732,23 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
@@ -8749,28 +8757,28 @@
         <v>556</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8781,7 +8789,7 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
@@ -8790,51 +8798,51 @@
         <v>593</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8845,7 +8853,7 @@
         <v>644</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
@@ -8854,35 +8862,35 @@
         <v>647</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
@@ -8891,14 +8899,14 @@
         <v>626</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8909,7 +8917,7 @@
         <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
@@ -8918,7 +8926,7 @@
         <v>566</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
@@ -8927,7 +8935,7 @@
         <v>580</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
@@ -8936,35 +8944,35 @@
         <v>550</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -8975,7 +8983,7 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
@@ -8984,49 +8992,49 @@
         <v>657</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9034,10 +9042,10 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
@@ -9046,7 +9054,7 @@
         <v>618</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
@@ -9055,7 +9063,7 @@
         <v>536</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
@@ -9064,7 +9072,7 @@
         <v>621</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
@@ -9073,28 +9081,28 @@
         <v>557</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9105,7 +9113,7 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
@@ -9114,7 +9122,7 @@
         <v>524</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
@@ -9123,7 +9131,7 @@
         <v>581</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
@@ -9132,7 +9140,7 @@
         <v>548</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
@@ -9141,28 +9149,28 @@
         <v>558</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9173,7 +9181,7 @@
         <v>604</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
@@ -9182,7 +9190,7 @@
         <v>605</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
@@ -9191,14 +9199,14 @@
         <v>537</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
@@ -9207,28 +9215,28 @@
         <v>559</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9236,26 +9244,26 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
@@ -9264,35 +9272,35 @@
         <v>617</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9303,7 +9311,7 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
@@ -9312,7 +9320,7 @@
         <v>607</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
@@ -9321,7 +9329,7 @@
         <v>538</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
@@ -9330,35 +9338,35 @@
         <v>549</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>571</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>572</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>573</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9369,7 +9377,7 @@
         <v>500</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
@@ -9378,7 +9386,7 @@
         <v>639</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
@@ -9387,42 +9395,42 @@
         <v>574</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9433,7 +9441,7 @@
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
@@ -9442,49 +9450,49 @@
         <v>567</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9495,56 +9503,56 @@
         <v>502</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9555,7 +9563,7 @@
         <v>503</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
@@ -9564,7 +9572,7 @@
         <v>622</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
@@ -9573,42 +9581,42 @@
         <v>581</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9619,14 +9627,14 @@
         <v>504</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
@@ -9635,42 +9643,42 @@
         <v>627</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9678,28 +9686,28 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
@@ -9708,35 +9716,35 @@
         <v>634</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9747,7 +9755,7 @@
         <v>606</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
@@ -9756,7 +9764,7 @@
         <v>583</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
@@ -9765,42 +9773,42 @@
         <v>584</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9808,10 +9816,10 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
@@ -9820,7 +9828,7 @@
         <v>568</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
@@ -9829,42 +9837,42 @@
         <v>576</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9872,19 +9880,19 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
@@ -9893,42 +9901,42 @@
         <v>541</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9939,7 +9947,7 @@
         <v>608</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
@@ -9948,7 +9956,7 @@
         <v>577</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
@@ -9957,42 +9965,42 @@
         <v>575</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10003,7 +10011,7 @@
         <v>511</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
@@ -10012,7 +10020,7 @@
         <v>570</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
@@ -10021,42 +10029,42 @@
         <v>542</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10067,7 +10075,7 @@
         <v>512</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>134</v>
@@ -10076,7 +10084,7 @@
         <v>569</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>189</v>
@@ -10085,42 +10093,42 @@
         <v>613</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>588</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>589</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="AC56" s="1" t="s">
         <v>590</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10131,7 +10139,7 @@
         <v>509</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
@@ -10140,7 +10148,7 @@
         <v>525</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10151,7 +10159,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10162,7 +10170,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10173,11 +10181,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10188,7 +10196,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10199,11 +10207,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10214,7 +10222,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10225,7 +10233,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10236,7 +10244,7 @@
         <v>487</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10247,7 +10255,7 @@
         <v>488</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10256,7 +10264,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10265,7 +10273,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10276,7 +10284,7 @@
         <v>519</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10285,7 +10293,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10296,7 +10304,7 @@
         <v>497</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10307,7 +10315,7 @@
         <v>513</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10318,7 +10326,7 @@
         <v>494</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10329,7 +10337,7 @@
         <v>495</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10340,7 +10348,7 @@
         <v>498</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -10351,7 +10359,7 @@
         <v>517</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10362,7 +10370,7 @@
         <v>638</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10371,7 +10379,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10382,7 +10390,7 @@
         <v>635</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10393,7 +10401,7 @@
         <v>518</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10404,7 +10412,7 @@
         <v>628</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10415,7 +10423,7 @@
         <v>629</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -10426,7 +10434,7 @@
         <v>632</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -10437,7 +10445,7 @@
         <v>633</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10446,7 +10454,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10457,7 +10465,7 @@
         <v>499</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10468,7 +10476,7 @@
         <v>595</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10477,7 +10485,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10488,7 +10496,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10499,7 +10507,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10510,7 +10518,7 @@
         <v>652</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
   </sheetData>
@@ -10522,7 +10530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB10E0A-3253-4DCD-9B39-542B45E6B4EC}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10541,18 +10549,18 @@
         <v>733</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1374</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -10563,7 +10571,7 @@
         <v>738</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -10574,7 +10582,7 @@
         <v>739</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -10585,7 +10593,7 @@
         <v>740</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -10596,7 +10604,7 @@
         <v>741</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -10607,18 +10615,18 @@
         <v>742</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1405</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -10640,18 +10648,18 @@
         <v>759</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1385</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>1386</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -10662,7 +10670,7 @@
         <v>743</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -10670,7 +10678,7 @@
         <v>669</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>736</v>
@@ -10681,7 +10689,7 @@
         <v>670</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>735</v>
@@ -10706,7 +10714,7 @@
         <v>744</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -10714,21 +10722,21 @@
         <v>673</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -10736,10 +10744,10 @@
         <v>674</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -10750,7 +10758,7 @@
         <v>760</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -10758,10 +10766,10 @@
         <v>676</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -10772,7 +10780,7 @@
         <v>761</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -10780,10 +10788,10 @@
         <v>678</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -10791,10 +10799,10 @@
         <v>679</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -10805,7 +10813,7 @@
         <v>762</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -10813,10 +10821,10 @@
         <v>681</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -10827,7 +10835,7 @@
         <v>756</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -10838,7 +10846,7 @@
         <v>763</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -10846,10 +10854,10 @@
         <v>684</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -10860,7 +10868,7 @@
         <v>764</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -10871,7 +10879,7 @@
         <v>765</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -10882,7 +10890,7 @@
         <v>745</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -10893,18 +10901,18 @@
         <v>767</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>1393</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -10912,10 +10920,10 @@
         <v>689</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -10926,7 +10934,7 @@
         <v>768</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -10934,10 +10942,10 @@
         <v>691</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -10948,18 +10956,18 @@
         <v>769</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>1406</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -10967,10 +10975,10 @@
         <v>693</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -10978,10 +10986,10 @@
         <v>694</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -10989,10 +10997,10 @@
         <v>695</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -11000,106 +11008,106 @@
         <v>696</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>1409</v>
+        <v>1440</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1410</v>
+        <v>1441</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1411</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>697</v>
+        <v>1408</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>746</v>
+        <v>1409</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>829</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>1397</v>
+        <v>697</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1398</v>
+        <v>746</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1399</v>
+        <v>828</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>1428</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="C48" s="5" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>748</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>784</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>783</v>
+        <v>833</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>749</v>
+        <v>780</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>824</v>
+        <v>770</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>823</v>
@@ -11107,153 +11115,153 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>1358</v>
+        <v>703</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1359</v>
+        <v>750</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1360</v>
+        <v>822</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="C55" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="B56" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>825</v>
+        <v>868</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>1355</v>
+        <v>706</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1356</v>
+        <v>752</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1357</v>
+        <v>824</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>827</v>
+        <v>1354</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1355</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>826</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>787</v>
+        <v>707</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>826</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>786</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>785</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>1429</v>
+        <v>711</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1430</v>
+        <v>787</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1431</v>
+        <v>837</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>789</v>
+        <v>1429</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>820</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>712</v>
+        <v>1426</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1400</v>
+        <v>788</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>836</v>
@@ -11261,65 +11269,65 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>1424</v>
+        <v>713</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1425</v>
+        <v>1395</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1426</v>
+        <v>835</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>1382</v>
+        <v>1423</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1384</v>
+        <v>1424</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1383</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>714</v>
+        <v>1381</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>796</v>
+        <v>1383</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>835</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>816</v>
@@ -11327,167 +11335,178 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>1402</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1390</v>
-      </c>
       <c r="C75" s="5" t="s">
-        <v>841</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>791</v>
+        <v>1389</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>1437</v>
+        <v>721</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1438</v>
+        <v>842</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>722</v>
+        <v>1436</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>850</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>776</v>
+        <v>849</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>844</v>
+        <v>775</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>848</v>
+      <c r="C88" s="5" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -11495,7 +11514,7 @@
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" display="https://web.archive.org/web/20130114222225/http://www.ric.hi-ho.ne.jp/many/many/calmemo.html" xr:uid="{68E3BDAE-D6B6-472A-A56D-166BD3E8C012}"/>
     <hyperlink ref="C14" r:id="rId2" xr:uid="{65C715F6-3108-4C0B-9FD9-4593AB4664DE}"/>
-    <hyperlink ref="C50" r:id="rId3" xr:uid="{40FFE454-D681-4848-BC93-D2F3EBD83538}"/>
+    <hyperlink ref="C51" r:id="rId3" xr:uid="{40FFE454-D681-4848-BC93-D2F3EBD83538}"/>
     <hyperlink ref="C36" r:id="rId4" xr:uid="{721C6694-7D60-45AF-BD8E-510FF19D8D78}"/>
     <hyperlink ref="C33" r:id="rId5" xr:uid="{CE716F1A-B82F-4B7F-81B7-6FE77AD82F10}"/>
     <hyperlink ref="C3" r:id="rId6" xr:uid="{1C314206-C552-4381-A4FB-30146843B016}"/>
@@ -11504,7 +11523,7 @@
     <hyperlink ref="C6" r:id="rId9" xr:uid="{8DEB841D-7246-427C-97F3-60A46B921D08}"/>
     <hyperlink ref="C7" r:id="rId10" xr:uid="{B216D457-FEDD-416C-8759-33F4AEE41A2F}"/>
     <hyperlink ref="C8" r:id="rId11" xr:uid="{D149D0DC-E797-4782-A907-F6877DC21F49}"/>
-    <hyperlink ref="C49" r:id="rId12" xr:uid="{17824680-FFF6-4704-B5CF-C58717D2D8E3}"/>
+    <hyperlink ref="C50" r:id="rId12" xr:uid="{17824680-FFF6-4704-B5CF-C58717D2D8E3}"/>
     <hyperlink ref="C40" r:id="rId13" xr:uid="{2A80F6E7-19EC-4143-8C8F-92E3277B406D}"/>
     <hyperlink ref="C19" r:id="rId14" xr:uid="{3EB98344-8E72-45D0-95B4-EFAFFDC883C9}"/>
     <hyperlink ref="C20" r:id="rId15" xr:uid="{C74ED420-9F55-41D7-82C0-8061C7D337D1}"/>
@@ -11516,42 +11535,42 @@
     <hyperlink ref="C32" r:id="rId21" xr:uid="{B114FCC5-14AF-42F6-92C4-7F0E16122536}"/>
     <hyperlink ref="C30" r:id="rId22" xr:uid="{B21F9EAD-EE98-4F05-83AD-39A1442CF9FE}"/>
     <hyperlink ref="C41" r:id="rId23" xr:uid="{81F37CA5-D504-4FFC-B149-647ED2939258}"/>
-    <hyperlink ref="C72" r:id="rId24" xr:uid="{87BC7322-B642-4523-B67F-507222F52B62}"/>
-    <hyperlink ref="C71" r:id="rId25" xr:uid="{F045B122-9BFA-4F6F-9F9B-FF3CC2A36D1B}"/>
-    <hyperlink ref="C73" r:id="rId26" xr:uid="{10F3C95D-D017-48C0-B393-1F819124D4B2}"/>
-    <hyperlink ref="C64" r:id="rId27" xr:uid="{344B870A-05DF-4171-BBA2-F5676D88A8D3}"/>
-    <hyperlink ref="C54" r:id="rId28" xr:uid="{7A8EDE4F-3EF6-4DC6-B2CD-6826D9C6EDA2}"/>
-    <hyperlink ref="C52" r:id="rId29" xr:uid="{D1156D6A-B67B-443E-A324-AC5E24D58D88}"/>
-    <hyperlink ref="C51" r:id="rId30" xr:uid="{05128F34-C680-408C-8D22-BDBF9B77A1F3}"/>
-    <hyperlink ref="C56" r:id="rId31" xr:uid="{7B7104F1-31E6-4DF2-84E4-2E17027BE68F}"/>
-    <hyperlink ref="C58" r:id="rId32" xr:uid="{AF15EB3A-1167-4DA5-A83C-34CA3B19D482}"/>
-    <hyperlink ref="C78" r:id="rId33" xr:uid="{35CF107E-9F79-4FF5-A24B-233FFBD63654}"/>
-    <hyperlink ref="C60" r:id="rId34" xr:uid="{CCF22E83-8195-4D83-AC2D-1BF97D19062B}"/>
-    <hyperlink ref="C47" r:id="rId35" xr:uid="{B9F778F9-69DC-4C02-887B-257AD617AD89}"/>
-    <hyperlink ref="C45" r:id="rId36" xr:uid="{65157777-77E3-405E-A6C1-3F698F40861B}"/>
+    <hyperlink ref="C73" r:id="rId24" xr:uid="{87BC7322-B642-4523-B67F-507222F52B62}"/>
+    <hyperlink ref="C72" r:id="rId25" xr:uid="{F045B122-9BFA-4F6F-9F9B-FF3CC2A36D1B}"/>
+    <hyperlink ref="C74" r:id="rId26" xr:uid="{10F3C95D-D017-48C0-B393-1F819124D4B2}"/>
+    <hyperlink ref="C65" r:id="rId27" xr:uid="{344B870A-05DF-4171-BBA2-F5676D88A8D3}"/>
+    <hyperlink ref="C55" r:id="rId28" xr:uid="{7A8EDE4F-3EF6-4DC6-B2CD-6826D9C6EDA2}"/>
+    <hyperlink ref="C53" r:id="rId29" xr:uid="{D1156D6A-B67B-443E-A324-AC5E24D58D88}"/>
+    <hyperlink ref="C52" r:id="rId30" xr:uid="{05128F34-C680-408C-8D22-BDBF9B77A1F3}"/>
+    <hyperlink ref="C57" r:id="rId31" xr:uid="{7B7104F1-31E6-4DF2-84E4-2E17027BE68F}"/>
+    <hyperlink ref="C59" r:id="rId32" xr:uid="{AF15EB3A-1167-4DA5-A83C-34CA3B19D482}"/>
+    <hyperlink ref="C79" r:id="rId33" xr:uid="{35CF107E-9F79-4FF5-A24B-233FFBD63654}"/>
+    <hyperlink ref="C61" r:id="rId34" xr:uid="{CCF22E83-8195-4D83-AC2D-1BF97D19062B}"/>
+    <hyperlink ref="C48" r:id="rId35" xr:uid="{B9F778F9-69DC-4C02-887B-257AD617AD89}"/>
+    <hyperlink ref="C46" r:id="rId36" xr:uid="{65157777-77E3-405E-A6C1-3F698F40861B}"/>
     <hyperlink ref="C23" r:id="rId37" xr:uid="{509C60A3-4FF2-4F50-919E-FB79C732884B}"/>
     <hyperlink ref="C28" r:id="rId38" xr:uid="{9F509FDC-02B2-4527-A728-C855C54B46C1}"/>
     <hyperlink ref="C27" r:id="rId39" xr:uid="{E902244A-ADBE-4A39-90A5-EA65FF1791C4}"/>
-    <hyperlink ref="C48" r:id="rId40" xr:uid="{AF65258D-2756-4EC1-8710-5CFA92DC6679}"/>
-    <hyperlink ref="C69" r:id="rId41" xr:uid="{2E4379D3-3952-482A-8D8C-76022EF1D561}"/>
-    <hyperlink ref="C66" r:id="rId42" xr:uid="{0AAFE1B3-CAFD-41AA-A776-3B55644FBBD9}"/>
-    <hyperlink ref="C65" r:id="rId43" xr:uid="{DEA28E6C-155E-4B9E-8946-00697704A059}"/>
-    <hyperlink ref="C62" r:id="rId44" xr:uid="{7C852368-6444-46F3-8610-F6F20B85E2E0}"/>
-    <hyperlink ref="C59" r:id="rId45" xr:uid="{C6D42E8E-B559-44E5-86BD-D72D4D1437B3}"/>
-    <hyperlink ref="C70" r:id="rId46" xr:uid="{8B688F93-0C38-4C55-85EE-3E43F56475AD}"/>
-    <hyperlink ref="C75" r:id="rId47" xr:uid="{27BC8034-1A41-4D44-83E9-74BB2175F77D}"/>
-    <hyperlink ref="C76" r:id="rId48" xr:uid="{303A90B0-1FD3-4BF9-80CA-A5B948327D43}"/>
-    <hyperlink ref="C77" r:id="rId49" xr:uid="{A7876584-8188-41B7-9B54-8D32FB1C47FE}"/>
-    <hyperlink ref="C81" r:id="rId50" xr:uid="{5DAA545F-6A0B-4A91-8C0F-DFCD98799839}"/>
-    <hyperlink ref="C84" r:id="rId51" xr:uid="{0F405C1B-78B2-4E9C-B847-B2F9E8FD8886}"/>
-    <hyperlink ref="C85" r:id="rId52" xr:uid="{117D55F0-C09A-4F19-A0E8-C91027451BA5}"/>
-    <hyperlink ref="C86" r:id="rId53" xr:uid="{BEB0F265-C2BB-45C7-8027-61EB33DC017F}"/>
-    <hyperlink ref="C87" r:id="rId54" xr:uid="{7E56694E-DAE6-458F-8254-69E3CB4EA9F7}"/>
-    <hyperlink ref="C83" r:id="rId55" xr:uid="{8C92A812-19F1-49FE-8E72-058B032BA782}"/>
-    <hyperlink ref="C61" r:id="rId56" xr:uid="{73C26C64-39A0-4B41-AE53-3CB1ED198E0D}"/>
-    <hyperlink ref="C79" r:id="rId57" xr:uid="{38C785CB-4B49-4CE9-9F7A-AFAC20F407B9}"/>
-    <hyperlink ref="C82" r:id="rId58" xr:uid="{FCC504D1-E86F-4C45-8083-8E6907E8542F}"/>
-    <hyperlink ref="C80" r:id="rId59" xr:uid="{AB809B0B-3E69-4B6B-9527-766A6F4F1C65}"/>
+    <hyperlink ref="C49" r:id="rId40" xr:uid="{AF65258D-2756-4EC1-8710-5CFA92DC6679}"/>
+    <hyperlink ref="C70" r:id="rId41" xr:uid="{2E4379D3-3952-482A-8D8C-76022EF1D561}"/>
+    <hyperlink ref="C67" r:id="rId42" xr:uid="{0AAFE1B3-CAFD-41AA-A776-3B55644FBBD9}"/>
+    <hyperlink ref="C66" r:id="rId43" xr:uid="{DEA28E6C-155E-4B9E-8946-00697704A059}"/>
+    <hyperlink ref="C63" r:id="rId44" xr:uid="{7C852368-6444-46F3-8610-F6F20B85E2E0}"/>
+    <hyperlink ref="C60" r:id="rId45" xr:uid="{C6D42E8E-B559-44E5-86BD-D72D4D1437B3}"/>
+    <hyperlink ref="C71" r:id="rId46" xr:uid="{8B688F93-0C38-4C55-85EE-3E43F56475AD}"/>
+    <hyperlink ref="C76" r:id="rId47" xr:uid="{27BC8034-1A41-4D44-83E9-74BB2175F77D}"/>
+    <hyperlink ref="C77" r:id="rId48" xr:uid="{303A90B0-1FD3-4BF9-80CA-A5B948327D43}"/>
+    <hyperlink ref="C78" r:id="rId49" xr:uid="{A7876584-8188-41B7-9B54-8D32FB1C47FE}"/>
+    <hyperlink ref="C82" r:id="rId50" xr:uid="{5DAA545F-6A0B-4A91-8C0F-DFCD98799839}"/>
+    <hyperlink ref="C85" r:id="rId51" xr:uid="{0F405C1B-78B2-4E9C-B847-B2F9E8FD8886}"/>
+    <hyperlink ref="C86" r:id="rId52" xr:uid="{117D55F0-C09A-4F19-A0E8-C91027451BA5}"/>
+    <hyperlink ref="C87" r:id="rId53" xr:uid="{BEB0F265-C2BB-45C7-8027-61EB33DC017F}"/>
+    <hyperlink ref="C88" r:id="rId54" xr:uid="{7E56694E-DAE6-458F-8254-69E3CB4EA9F7}"/>
+    <hyperlink ref="C84" r:id="rId55" xr:uid="{8C92A812-19F1-49FE-8E72-058B032BA782}"/>
+    <hyperlink ref="C62" r:id="rId56" xr:uid="{73C26C64-39A0-4B41-AE53-3CB1ED198E0D}"/>
+    <hyperlink ref="C80" r:id="rId57" xr:uid="{38C785CB-4B49-4CE9-9F7A-AFAC20F407B9}"/>
+    <hyperlink ref="C83" r:id="rId58" xr:uid="{FCC504D1-E86F-4C45-8083-8E6907E8542F}"/>
+    <hyperlink ref="C81" r:id="rId59" xr:uid="{AB809B0B-3E69-4B6B-9527-766A6F4F1C65}"/>
     <hyperlink ref="C24" r:id="rId60" xr:uid="{18A54E1E-AE6F-4571-B7CA-F8ABA2C71993}"/>
     <hyperlink ref="C25" r:id="rId61" xr:uid="{B85AE25B-A070-4783-ACC6-C2966B287F35}"/>
     <hyperlink ref="C31" r:id="rId62" xr:uid="{EE6886B0-BC6E-4E7D-A00F-8E106297826F}"/>
@@ -11563,21 +11582,22 @@
     <hyperlink ref="C16" r:id="rId68" location="ppxdockshow" xr:uid="{FD7D728E-C6B4-4F3E-B4DB-18FF9D47DA2C}"/>
     <hyperlink ref="C37" r:id="rId69" location="ppxaux" xr:uid="{EDBEB8EB-37F7-4758-AA9B-C5E01B5E8DD7}"/>
     <hyperlink ref="C35" r:id="rId70" xr:uid="{6ABA96EE-B4B8-4156-A573-C01458B93F3A}"/>
-    <hyperlink ref="C55" r:id="rId71" display="https://www.adobe.com/jp/products/photoshop.html" xr:uid="{EC66647F-0CF9-4B78-AB74-D843AED9AF8D}"/>
-    <hyperlink ref="C57" r:id="rId72" xr:uid="{ED4BA47F-DB74-45E0-9435-C49FBD96A82C}"/>
+    <hyperlink ref="C56" r:id="rId71" display="https://www.adobe.com/jp/products/photoshop.html" xr:uid="{EC66647F-0CF9-4B78-AB74-D843AED9AF8D}"/>
+    <hyperlink ref="C58" r:id="rId72" xr:uid="{ED4BA47F-DB74-45E0-9435-C49FBD96A82C}"/>
     <hyperlink ref="C2" r:id="rId73" xr:uid="{ECF3E151-433F-4F53-82A2-3F17C3DFE826}"/>
-    <hyperlink ref="C68" r:id="rId74" xr:uid="{E46BCDED-F13C-40C0-84B4-135490605C17}"/>
+    <hyperlink ref="C69" r:id="rId74" xr:uid="{E46BCDED-F13C-40C0-84B4-135490605C17}"/>
     <hyperlink ref="C11" r:id="rId75" xr:uid="{8BB09B49-E3A2-49C5-BC57-2C2A965174F9}"/>
     <hyperlink ref="C18" r:id="rId76" display="https://www.digitalvolcano.co.uk/dcdownload_versions.html" xr:uid="{4C95B15E-8A37-4208-8CE1-341D7CADB1A1}"/>
-    <hyperlink ref="C46" r:id="rId77" xr:uid="{2402CC55-6F32-4807-8B2D-C2FEB50FBA47}"/>
-    <hyperlink ref="C74" r:id="rId78" xr:uid="{E6D24209-8144-49CD-BA34-B44A6F8E31B5}"/>
+    <hyperlink ref="C47" r:id="rId77" xr:uid="{2402CC55-6F32-4807-8B2D-C2FEB50FBA47}"/>
+    <hyperlink ref="C75" r:id="rId78" xr:uid="{E6D24209-8144-49CD-BA34-B44A6F8E31B5}"/>
     <hyperlink ref="C39" r:id="rId79" xr:uid="{C4BD4C2D-22F8-420F-8ACC-6A571C34011D}"/>
-    <hyperlink ref="C44" r:id="rId80" xr:uid="{54329105-54CE-4A38-A119-79525956293D}"/>
-    <hyperlink ref="C67" r:id="rId81" xr:uid="{A0BA9827-B49E-4EA7-B5BF-C7D68410CE9D}"/>
-    <hyperlink ref="C63" r:id="rId82" xr:uid="{420C3D43-3941-4F12-A058-728726575143}"/>
+    <hyperlink ref="C45" r:id="rId80" xr:uid="{54329105-54CE-4A38-A119-79525956293D}"/>
+    <hyperlink ref="C68" r:id="rId81" xr:uid="{A0BA9827-B49E-4EA7-B5BF-C7D68410CE9D}"/>
+    <hyperlink ref="C64" r:id="rId82" xr:uid="{420C3D43-3941-4F12-A058-728726575143}"/>
+    <hyperlink ref="C44" r:id="rId83" xr:uid="{5A3AD4B4-4B28-4584-970E-1B0CC9253DBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId84"/>
 </worksheet>
 </file>
 
@@ -11596,46 +11616,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>733</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\Documents\GitHub\ppx-customize-example\key検討用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa26320.26642.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E088B4-1577-4C00-B15C-7ACBDD9ADD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BA7146-B9F3-431F-8FED-7C3F9B0EFA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17790" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -3829,10 +3829,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PPc[X]でPPc/PPv連動ビュー実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>簡易画像エディタ・サムネイル画像生成</t>
     <rPh sb="0" eb="4">
       <t>カンイガゾウ</t>
@@ -6005,6 +6001,13 @@
   </si>
   <si>
     <t>https://picard.musicbrainz.org/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIEL風PPc/PPv連動ビュー実行</t>
+    <rPh sb="4" eb="5">
+      <t>フウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6464,7 +6467,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA87CFEE-E1C7-4DFD-A885-7767689DA043}">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6501,7 +6506,7 @@
         <v>655</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>654</v>
@@ -6510,7 +6515,7 @@
         <v>655</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>654</v>
@@ -6519,7 +6524,7 @@
         <v>655</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>654</v>
@@ -6575,16 +6580,16 @@
         <v>526</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
@@ -6593,44 +6598,44 @@
         <v>619</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6641,60 +6646,60 @@
         <v>578</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6702,10 +6707,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
@@ -6714,7 +6719,7 @@
         <v>562</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
@@ -6723,7 +6728,7 @@
         <v>565</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
@@ -6732,14 +6737,14 @@
         <v>564</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
@@ -6748,21 +6753,21 @@
         <v>586</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6773,7 +6778,7 @@
         <v>521</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
@@ -6782,49 +6787,49 @@
         <v>622</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6833,56 +6838,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6893,7 +6898,7 @@
         <v>520</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
@@ -6902,49 +6907,49 @@
         <v>563</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6955,7 +6960,7 @@
         <v>510</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
@@ -6964,7 +6969,7 @@
         <v>602</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
@@ -6973,42 +6978,42 @@
         <v>591</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7019,56 +7024,56 @@
         <v>514</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7079,56 +7084,56 @@
         <v>515</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7139,56 +7144,56 @@
         <v>507</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7199,21 +7204,21 @@
         <v>506</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
@@ -7222,35 +7227,35 @@
         <v>658</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7261,25 +7266,25 @@
         <v>490</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
@@ -7288,37 +7293,37 @@
         <v>640</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7329,7 +7334,7 @@
         <v>491</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
@@ -7338,7 +7343,7 @@
         <v>560</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
@@ -7347,7 +7352,7 @@
         <v>551</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
@@ -7356,37 +7361,37 @@
         <v>641</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7397,25 +7402,25 @@
         <v>492</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
@@ -7424,35 +7429,35 @@
         <v>642</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7463,7 +7468,7 @@
         <v>493</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
@@ -7472,7 +7477,7 @@
         <v>561</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
@@ -7481,7 +7486,7 @@
         <v>552</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
@@ -7490,37 +7495,37 @@
         <v>643</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7528,10 +7533,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
@@ -7540,7 +7545,7 @@
         <v>636</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
@@ -7549,42 +7554,42 @@
         <v>648</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7595,7 +7600,7 @@
         <v>508</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
@@ -7604,7 +7609,7 @@
         <v>637</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
@@ -7613,42 +7618,42 @@
         <v>649</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7656,10 +7661,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
@@ -7668,7 +7673,7 @@
         <v>620</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
@@ -7677,14 +7682,14 @@
         <v>592</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
@@ -7693,28 +7698,28 @@
         <v>582</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7722,10 +7727,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
@@ -7734,7 +7739,7 @@
         <v>531</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
@@ -7743,42 +7748,42 @@
         <v>532</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7789,7 +7794,7 @@
         <v>659</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
@@ -7798,7 +7803,7 @@
         <v>528</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
@@ -7807,7 +7812,7 @@
         <v>533</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
@@ -7816,7 +7821,7 @@
         <v>611</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
@@ -7825,30 +7830,30 @@
         <v>614</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7859,7 +7864,7 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
@@ -7868,7 +7873,7 @@
         <v>554</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
@@ -7877,16 +7882,16 @@
         <v>534</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
@@ -7895,7 +7900,7 @@
         <v>623</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
@@ -7904,7 +7909,7 @@
         <v>553</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
@@ -7913,14 +7918,14 @@
         <v>625</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7931,7 +7936,7 @@
         <v>650</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
@@ -7940,7 +7945,7 @@
         <v>651</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
@@ -7949,7 +7954,7 @@
         <v>601</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
@@ -7958,7 +7963,7 @@
         <v>543</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
@@ -7967,28 +7972,28 @@
         <v>555</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -7999,7 +8004,7 @@
         <v>645</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
@@ -8008,7 +8013,7 @@
         <v>646</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
@@ -8017,7 +8022,7 @@
         <v>609</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
@@ -8026,37 +8031,37 @@
         <v>544</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8067,7 +8072,7 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
@@ -8076,49 +8081,49 @@
         <v>610</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8129,16 +8134,16 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
@@ -8147,7 +8152,7 @@
         <v>597</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
@@ -8156,7 +8161,7 @@
         <v>545</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
@@ -8165,28 +8170,28 @@
         <v>624</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8197,7 +8202,7 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
@@ -8206,7 +8211,7 @@
         <v>522</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
@@ -8215,7 +8220,7 @@
         <v>535</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
@@ -8224,7 +8229,7 @@
         <v>546</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
@@ -8233,28 +8238,28 @@
         <v>585</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8265,16 +8270,16 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
@@ -8283,42 +8288,42 @@
         <v>598</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8329,7 +8334,7 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
@@ -8338,7 +8343,7 @@
         <v>523</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
@@ -8347,42 +8352,42 @@
         <v>599</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8393,7 +8398,7 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
@@ -8402,7 +8407,7 @@
         <v>596</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
@@ -8411,7 +8416,7 @@
         <v>600</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
@@ -8420,7 +8425,7 @@
         <v>594</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8429,28 +8434,28 @@
         <v>505</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8461,7 +8466,7 @@
         <v>660</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
@@ -8470,7 +8475,7 @@
         <v>529</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
@@ -8479,7 +8484,7 @@
         <v>603</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
@@ -8488,7 +8493,7 @@
         <v>612</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
@@ -8497,28 +8502,28 @@
         <v>615</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8529,7 +8534,7 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
@@ -8538,7 +8543,7 @@
         <v>530</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
@@ -8547,42 +8552,42 @@
         <v>527</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8593,7 +8598,7 @@
         <v>653</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
@@ -8602,14 +8607,14 @@
         <v>587</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
@@ -8618,35 +8623,35 @@
         <v>547</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8657,7 +8662,7 @@
         <v>540</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
@@ -8666,7 +8671,7 @@
         <v>616</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
@@ -8675,44 +8680,44 @@
         <v>579</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8720,10 +8725,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8732,23 +8737,23 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
@@ -8757,28 +8762,28 @@
         <v>556</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8789,7 +8794,7 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
@@ -8798,51 +8803,51 @@
         <v>593</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8853,7 +8858,7 @@
         <v>644</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
@@ -8862,35 +8867,35 @@
         <v>647</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
@@ -8899,14 +8904,14 @@
         <v>626</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8917,7 +8922,7 @@
         <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
@@ -8926,7 +8931,7 @@
         <v>566</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
@@ -8935,7 +8940,7 @@
         <v>580</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
@@ -8944,35 +8949,35 @@
         <v>550</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -8983,7 +8988,7 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
@@ -8992,49 +8997,49 @@
         <v>657</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9042,10 +9047,10 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
@@ -9054,7 +9059,7 @@
         <v>618</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
@@ -9063,7 +9068,7 @@
         <v>536</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
@@ -9072,7 +9077,7 @@
         <v>621</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
@@ -9081,28 +9086,28 @@
         <v>557</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9113,7 +9118,7 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
@@ -9122,7 +9127,7 @@
         <v>524</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
@@ -9131,7 +9136,7 @@
         <v>581</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
@@ -9140,7 +9145,7 @@
         <v>548</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
@@ -9149,28 +9154,28 @@
         <v>558</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9181,7 +9186,7 @@
         <v>604</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
@@ -9190,7 +9195,7 @@
         <v>605</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
@@ -9199,14 +9204,14 @@
         <v>537</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
@@ -9215,28 +9220,28 @@
         <v>559</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9244,26 +9249,26 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>865</v>
+        <v>1442</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
@@ -9272,35 +9277,35 @@
         <v>617</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9311,7 +9316,7 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
@@ -9320,7 +9325,7 @@
         <v>607</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
@@ -9329,7 +9334,7 @@
         <v>538</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
@@ -9338,35 +9343,35 @@
         <v>549</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>571</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>572</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>573</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9377,7 +9382,7 @@
         <v>500</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
@@ -9386,7 +9391,7 @@
         <v>639</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
@@ -9395,42 +9400,42 @@
         <v>574</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9441,7 +9446,7 @@
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
@@ -9450,49 +9455,49 @@
         <v>567</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9503,56 +9508,56 @@
         <v>502</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9563,7 +9568,7 @@
         <v>503</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
@@ -9572,7 +9577,7 @@
         <v>622</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
@@ -9581,42 +9586,42 @@
         <v>581</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9627,14 +9632,14 @@
         <v>504</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
@@ -9643,42 +9648,42 @@
         <v>627</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9686,28 +9691,28 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
@@ -9716,35 +9721,35 @@
         <v>634</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9755,7 +9760,7 @@
         <v>606</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
@@ -9764,7 +9769,7 @@
         <v>583</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
@@ -9773,42 +9778,42 @@
         <v>584</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9816,10 +9821,10 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
@@ -9828,7 +9833,7 @@
         <v>568</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
@@ -9837,42 +9842,42 @@
         <v>576</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9880,19 +9885,19 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
@@ -9901,42 +9906,42 @@
         <v>541</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9947,7 +9952,7 @@
         <v>608</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
@@ -9956,7 +9961,7 @@
         <v>577</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
@@ -9965,42 +9970,42 @@
         <v>575</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10011,7 +10016,7 @@
         <v>511</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
@@ -10020,7 +10025,7 @@
         <v>570</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
@@ -10029,42 +10034,42 @@
         <v>542</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10075,7 +10080,7 @@
         <v>512</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>134</v>
@@ -10084,7 +10089,7 @@
         <v>569</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>189</v>
@@ -10093,42 +10098,42 @@
         <v>613</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>588</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>589</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="AC56" s="1" t="s">
         <v>590</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10139,7 +10144,7 @@
         <v>509</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
@@ -10148,7 +10153,7 @@
         <v>525</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10159,7 +10164,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10170,7 +10175,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10181,11 +10186,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10196,7 +10201,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10207,11 +10212,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10222,7 +10227,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10233,7 +10238,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10244,7 +10249,7 @@
         <v>487</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10255,7 +10260,7 @@
         <v>488</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10264,7 +10269,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10273,7 +10278,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10284,7 +10289,7 @@
         <v>519</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10293,7 +10298,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10304,7 +10309,7 @@
         <v>497</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10315,7 +10320,7 @@
         <v>513</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10326,7 +10331,7 @@
         <v>494</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10337,7 +10342,7 @@
         <v>495</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10348,7 +10353,7 @@
         <v>498</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -10359,7 +10364,7 @@
         <v>517</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10370,7 +10375,7 @@
         <v>638</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10379,7 +10384,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10390,7 +10395,7 @@
         <v>635</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10401,7 +10406,7 @@
         <v>518</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10412,7 +10417,7 @@
         <v>628</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10423,7 +10428,7 @@
         <v>629</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -10434,7 +10439,7 @@
         <v>632</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -10445,7 +10450,7 @@
         <v>633</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10454,7 +10459,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10465,7 +10470,7 @@
         <v>499</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10476,7 +10481,7 @@
         <v>595</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10485,7 +10490,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10496,7 +10501,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10507,7 +10512,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10518,7 +10523,7 @@
         <v>652</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
   </sheetData>
@@ -10554,13 +10559,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1373</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1374</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -10620,10 +10625,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1403</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1404</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>778</v>
@@ -10653,13 +10658,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>1385</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -10722,7 +10727,7 @@
         <v>673</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>801</v>
@@ -10730,13 +10735,13 @@
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -10854,7 +10859,7 @@
         <v>684</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>809</v>
@@ -10906,13 +10911,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>1392</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -10920,7 +10925,7 @@
         <v>689</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>864</v>
@@ -10961,13 +10966,13 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>1405</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -11016,24 +11021,24 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>1441</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>1409</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -11049,13 +11054,13 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>1397</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -11066,7 +11071,7 @@
         <v>747</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -11126,13 +11131,13 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>1358</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -11151,10 +11156,10 @@
         <v>705</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -11170,13 +11175,13 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>1355</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -11236,18 +11241,18 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>1429</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1430</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>788</v>
@@ -11261,7 +11266,7 @@
         <v>712</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>836</v>
@@ -11272,7 +11277,7 @@
         <v>713</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>835</v>
@@ -11280,24 +11285,24 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>1424</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>1381</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -11357,13 +11362,13 @@
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>1402</v>
-      </c>
       <c r="C75" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -11371,7 +11376,7 @@
         <v>719</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>840</v>
@@ -11401,13 +11406,13 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>781</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -11616,7 +11621,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>733</v>
@@ -11627,35 +11632,35 @@
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa26320.26642.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa28788.8972.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BA7146-B9F3-431F-8FED-7C3F9B0EFA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3D4D6A-C2E8-4C52-9EEE-02E83E15FA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17790" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -2008,12 +2008,6 @@
     <t>(PPtray)アプリケーションランチャ</t>
   </si>
   <si>
-    <t>更新日付毎にマスク切替(古い日付へ)</t>
-  </si>
-  <si>
-    <t>更新日付毎にマスク切替(新しい日付へ)</t>
-  </si>
-  <si>
     <t>拡張子判別実行/書庫ビュー(Arc)/ショートカット先へ(lnk)/ディレクトリサイズ(Dir)</t>
     <rPh sb="0" eb="3">
       <t>カクチョウシ</t>
@@ -2466,10 +2460,6 @@
     <rPh sb="8" eb="9">
       <t>ベツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チッププレビュー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6008,6 +5998,24 @@
     <rPh sb="4" eb="5">
       <t>フウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル↑＋チッププレビュー表示</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル↓＋チッププレビュー表示</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チッププレビュー表示</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6467,9 +6475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA87CFEE-E1C7-4DFD-A885-7767689DA043}">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6500,76 +6506,76 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -6580,62 +6586,62 @@
         <v>526</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6643,63 +6649,63 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6707,67 +6713,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6778,58 +6784,58 @@
         <v>521</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6838,56 +6844,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6898,58 +6904,58 @@
         <v>520</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6960,60 +6966,60 @@
         <v>510</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7024,56 +7030,56 @@
         <v>514</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7084,56 +7090,56 @@
         <v>515</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7144,56 +7150,56 @@
         <v>507</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7204,58 +7210,58 @@
         <v>506</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7266,64 +7272,64 @@
         <v>490</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7334,16 +7340,16 @@
         <v>491</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>560</v>
+        <v>1440</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
@@ -7352,46 +7358,46 @@
         <v>551</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7402,62 +7408,62 @@
         <v>492</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7468,16 +7474,16 @@
         <v>493</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>561</v>
+        <v>1441</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
@@ -7486,46 +7492,46 @@
         <v>552</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7533,63 +7539,63 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7600,60 +7606,60 @@
         <v>508</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7661,65 +7667,65 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7727,10 +7733,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
@@ -7739,7 +7745,7 @@
         <v>531</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
@@ -7748,42 +7754,42 @@
         <v>532</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7791,10 +7797,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
@@ -7803,7 +7809,7 @@
         <v>528</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
@@ -7812,48 +7818,48 @@
         <v>533</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7864,7 +7870,7 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
@@ -7873,7 +7879,7 @@
         <v>554</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
@@ -7882,25 +7888,25 @@
         <v>534</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
@@ -7909,23 +7915,23 @@
         <v>553</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7933,28 +7939,28 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
@@ -7963,7 +7969,7 @@
         <v>543</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
@@ -7972,28 +7978,28 @@
         <v>555</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -8001,28 +8007,28 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
@@ -8031,37 +8037,37 @@
         <v>544</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8072,58 +8078,58 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8134,25 +8140,25 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
@@ -8161,37 +8167,37 @@
         <v>545</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8202,7 +8208,7 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
@@ -8211,7 +8217,7 @@
         <v>522</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
@@ -8220,7 +8226,7 @@
         <v>535</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
@@ -8229,37 +8235,37 @@
         <v>546</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8270,60 +8276,60 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8334,7 +8340,7 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
@@ -8343,51 +8349,51 @@
         <v>523</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8398,34 +8404,34 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8434,28 +8440,28 @@
         <v>505</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8463,10 +8469,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
@@ -8475,55 +8481,55 @@
         <v>529</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8534,7 +8540,7 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
@@ -8543,7 +8549,7 @@
         <v>530</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
@@ -8552,42 +8558,42 @@
         <v>527</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8595,26 +8601,26 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
@@ -8623,35 +8629,35 @@
         <v>547</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8662,62 +8668,62 @@
         <v>540</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8725,10 +8731,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8737,23 +8743,23 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
@@ -8762,28 +8768,28 @@
         <v>556</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8794,60 +8800,60 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8855,63 +8861,63 @@
         <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8922,25 +8928,25 @@
         <v>539</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
@@ -8949,35 +8955,35 @@
         <v>550</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -8988,58 +8994,58 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9047,19 +9053,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>618</v>
+        <v>1442</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
@@ -9068,16 +9074,16 @@
         <v>536</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
@@ -9086,28 +9092,28 @@
         <v>557</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9118,7 +9124,7 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
@@ -9127,16 +9133,16 @@
         <v>524</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
@@ -9145,7 +9151,7 @@
         <v>548</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
@@ -9154,28 +9160,28 @@
         <v>558</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9183,19 +9189,19 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
@@ -9204,14 +9210,14 @@
         <v>537</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
@@ -9220,28 +9226,28 @@
         <v>559</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9249,63 +9255,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9316,16 +9322,16 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
@@ -9334,7 +9340,7 @@
         <v>538</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
@@ -9343,35 +9349,35 @@
         <v>549</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9382,60 +9388,60 @@
         <v>500</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9446,58 +9452,58 @@
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9508,56 +9514,56 @@
         <v>502</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9568,60 +9574,60 @@
         <v>503</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9632,58 +9638,58 @@
         <v>504</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9691,65 +9697,65 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9757,63 +9763,63 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9821,63 +9827,63 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9885,19 +9891,19 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
@@ -9906,42 +9912,42 @@
         <v>541</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9949,63 +9955,63 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10016,16 +10022,16 @@
         <v>511</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
@@ -10034,42 +10040,42 @@
         <v>542</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10080,60 +10086,60 @@
         <v>512</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10144,7 +10150,7 @@
         <v>509</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
@@ -10153,7 +10159,7 @@
         <v>525</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10164,7 +10170,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10175,7 +10181,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10186,11 +10192,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10201,7 +10207,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10212,11 +10218,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10227,7 +10233,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10238,7 +10244,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10249,7 +10255,7 @@
         <v>487</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10260,7 +10266,7 @@
         <v>488</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10269,7 +10275,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10278,7 +10284,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10289,7 +10295,7 @@
         <v>519</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10298,7 +10304,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10309,7 +10315,7 @@
         <v>497</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10320,7 +10326,7 @@
         <v>513</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10331,7 +10337,7 @@
         <v>494</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10342,7 +10348,7 @@
         <v>495</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10353,7 +10359,7 @@
         <v>498</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -10364,7 +10370,7 @@
         <v>517</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10372,10 +10378,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10384,7 +10390,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10392,10 +10398,10 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10406,7 +10412,7 @@
         <v>518</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10414,10 +10420,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10425,32 +10431,32 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10459,7 +10465,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10470,7 +10476,7 @@
         <v>499</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10478,10 +10484,10 @@
         <v>473</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10490,7 +10496,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10501,7 +10507,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10512,7 +10518,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10520,10 +10526,10 @@
         <v>496</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -10548,970 +10554,970 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1389</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>768</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -11621,46 +11627,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa28788.8972.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa19848.37669.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3D4D6A-C2E8-4C52-9EEE-02E83E15FA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3043DD10-3BD5-43DE-A4EC-7504BC8EC697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17790" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="18000" windowHeight="12855" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
   <sheets>
     <sheet name="キー割り当て" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1446">
   <si>
     <t>[BackSpace]</t>
   </si>
@@ -6016,6 +6016,21 @@
   </si>
   <si>
     <t>チッププレビュー表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cleanflash</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/darktohka/clean-flash-builds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今でもインストールできるFlash</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6121,7 +6136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6156,6 +6171,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11614,7 +11635,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022A9556-99E6-4A68-AB00-A91AB9AD041A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11669,12 +11690,24 @@
         <v>1411</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>1444</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://github.com/leafOfTree/WindowTabs" xr:uid="{F8524216-C42E-48ED-AA1B-37306944ACBD}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{072CDE9B-251B-45A4-9C77-2C621E01C0B0}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{BB7A3258-0F04-4372-8BD9-15A0E3DA8E9F}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{9CA7D13B-7178-497D-A79E-13A2F117A79E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa19848.37669.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa23084.10560.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3043DD10-3BD5-43DE-A4EC-7504BC8EC697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCDA47-4AA5-4331-96CC-D52084724CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="18000" windowHeight="12855" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
   <sheets>
     <sheet name="キー割り当て" sheetId="1" r:id="rId1"/>
@@ -1682,13 +1682,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PPxヘルプファイルを表示</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイルをゴミ箱へ</t>
     <rPh sb="7" eb="8">
       <t>バコ</t>
@@ -6030,6 +6023,13 @@
     <t>今でもインストールできるFlash</t>
     <rPh sb="0" eb="1">
       <t>イマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ディレクトリ・ファイルマーク</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6527,76 +6527,76 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -6604,65 +6604,65 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6670,63 +6670,63 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6734,67 +6734,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6802,61 +6802,61 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6865,56 +6865,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6922,61 +6922,61 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6984,63 +6984,63 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7048,59 +7048,59 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7108,59 +7108,59 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7168,59 +7168,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>507</v>
+        <v>1445</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7231,58 +7231,58 @@
         <v>506</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7293,64 +7293,64 @@
         <v>490</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7361,64 +7361,64 @@
         <v>491</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7429,62 +7429,62 @@
         <v>492</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7495,64 +7495,64 @@
         <v>493</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7560,63 +7560,63 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7624,63 +7624,63 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7688,65 +7688,65 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7754,63 +7754,63 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7818,69 +7818,69 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7891,68 +7891,68 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7960,67 +7960,67 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -8028,67 +8028,67 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8099,58 +8099,58 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8161,64 +8161,64 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8229,64 +8229,64 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8297,60 +8297,60 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8361,60 +8361,60 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8425,34 +8425,34 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8461,28 +8461,28 @@
         <v>505</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8490,67 +8490,67 @@
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8561,60 +8561,60 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8622,63 +8622,63 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8686,65 +8686,65 @@
         <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8752,10 +8752,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8764,53 +8764,53 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8821,60 +8821,60 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8882,63 +8882,63 @@
         <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8946,65 +8946,65 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -9015,58 +9015,58 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9074,67 +9074,67 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9145,64 +9145,64 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9210,65 +9210,65 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9276,63 +9276,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9343,62 +9343,62 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9409,60 +9409,60 @@
         <v>500</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9473,58 +9473,58 @@
         <v>501</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9535,56 +9535,56 @@
         <v>502</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9595,60 +9595,60 @@
         <v>503</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9659,58 +9659,58 @@
         <v>504</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9718,65 +9718,65 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9784,63 +9784,63 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9848,63 +9848,63 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9912,63 +9912,63 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9976,63 +9976,63 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10040,63 +10040,63 @@
         <v>63</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10104,63 +10104,63 @@
         <v>64</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10168,19 +10168,19 @@
         <v>16</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10191,7 +10191,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10202,7 +10202,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10213,11 +10213,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10228,7 +10228,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10239,11 +10239,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10254,7 +10254,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10265,7 +10265,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10276,7 +10276,7 @@
         <v>487</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10287,7 +10287,7 @@
         <v>488</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10313,10 +10313,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10336,7 +10336,7 @@
         <v>497</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10344,10 +10344,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10358,7 +10358,7 @@
         <v>494</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10369,7 +10369,7 @@
         <v>495</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10380,18 +10380,18 @@
         <v>498</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10399,10 +10399,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10419,10 +10419,10 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10430,10 +10430,10 @@
         <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10441,10 +10441,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10452,32 +10452,32 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10497,7 +10497,7 @@
         <v>499</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10505,10 +10505,10 @@
         <v>473</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10528,7 +10528,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10539,7 +10539,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10547,10 +10547,10 @@
         <v>496</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -10575,970 +10575,970 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1368</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1369</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1400</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>1381</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1387</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>1388</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>1401</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>1437</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>1405</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>1393</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>1354</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>1351</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>1425</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>1420</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>1377</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>1398</v>
-      </c>
       <c r="C75" s="5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>1432</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -11648,57 +11648,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1443</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>1444</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa23084.10560.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa13340.11202.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCDA47-4AA5-4331-96CC-D52084724CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47B888-2AC7-45BD-8351-B02DECFE0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -1528,20 +1528,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hドライブを表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Iドライブを表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[←]</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6032,6 +6018,25 @@
       <t>ゼン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後に変更したファイルエントリにジャンプして、本日変更したファイルをハイライト</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後にアクセスしたファイルエントリにジャンプ</t>
   </si>
 </sst>
 </file>
@@ -6527,76 +6532,76 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -6604,65 +6609,65 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6670,63 +6675,63 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6734,67 +6739,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6802,61 +6807,61 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6865,56 +6870,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6922,61 +6927,61 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6984,63 +6989,63 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7048,59 +7053,59 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7108,59 +7113,59 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7168,59 +7173,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7228,129 +7233,129 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7358,67 +7363,67 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7426,65 +7431,65 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7492,67 +7497,67 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7560,63 +7565,63 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7624,63 +7629,63 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7688,65 +7693,65 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7754,63 +7759,63 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7818,69 +7823,69 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7891,68 +7896,68 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7960,67 +7965,67 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -8028,67 +8033,67 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8099,58 +8104,58 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8161,64 +8166,64 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8229,64 +8234,64 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8297,60 +8302,60 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8361,60 +8366,60 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8425,64 +8430,64 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8490,67 +8495,67 @@
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8561,60 +8566,60 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8622,63 +8627,63 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8686,65 +8691,65 @@
         <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8752,10 +8757,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8764,53 +8769,53 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8821,60 +8826,60 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8882,63 +8887,63 @@
         <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8946,65 +8951,65 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -9015,58 +9020,58 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9074,67 +9079,67 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9145,64 +9150,64 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9210,65 +9215,65 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9276,63 +9281,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9343,62 +9348,62 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9406,63 +9411,63 @@
         <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9470,61 +9475,61 @@
         <v>54</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9532,59 +9537,59 @@
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9592,63 +9597,63 @@
         <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9656,61 +9661,61 @@
         <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9718,65 +9723,65 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9784,63 +9789,63 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9848,63 +9853,63 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9912,63 +9917,63 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9976,63 +9981,63 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10040,63 +10045,63 @@
         <v>63</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10104,63 +10109,63 @@
         <v>64</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10168,19 +10173,19 @@
         <v>16</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10191,7 +10196,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10202,7 +10207,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10213,11 +10218,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10228,7 +10233,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10239,11 +10244,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10254,7 +10259,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10265,7 +10270,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10273,10 +10278,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>487</v>
+        <v>1444</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10284,10 +10289,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>488</v>
+        <v>1445</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10296,7 +10301,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10305,7 +10310,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10313,10 +10318,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10325,7 +10330,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10333,10 +10338,10 @@
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10344,10 +10349,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10355,10 +10360,10 @@
         <v>479</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10366,10 +10371,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10377,21 +10382,21 @@
         <v>71</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10399,10 +10404,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10411,7 +10416,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10419,10 +10424,10 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10430,10 +10435,10 @@
         <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10441,10 +10446,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10452,32 +10457,32 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>628</v>
-      </c>
       <c r="C83" s="7" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>629</v>
-      </c>
       <c r="C84" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10486,7 +10491,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10494,10 +10499,10 @@
         <v>78</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10505,10 +10510,10 @@
         <v>473</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10517,7 +10522,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10528,7 +10533,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10539,18 +10544,18 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
   </sheetData>
@@ -10575,970 +10580,970 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>729</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1367</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>1379</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>801</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>1386</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>1435</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>1403</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>1391</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>1352</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>1349</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>1423</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>1418</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>1378</v>
-      </c>
       <c r="C69" s="5" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -11648,57 +11653,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1442</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1444</v>
-      </c>
       <c r="C5" s="13" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa13340.11202.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa18604.3786.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC47B888-2AC7-45BD-8351-B02DECFE0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54525BBC-8CEA-4D59-93CC-97441D9CE2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -5499,10 +5499,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索(部分一致・拡張子一体)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現在開いている窓・タブ全てから検索</t>
     <rPh sb="0" eb="2">
       <t>ゲンザイ</t>
@@ -6037,6 +6033,13 @@
   </si>
   <si>
     <t>最後にアクセスしたファイルエントリにジャンプ</t>
+  </si>
+  <si>
+    <t>検索(部分一致・拡張子一体)/コメント検索</t>
+    <rPh sb="19" eb="21">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6618,7 +6621,7 @@
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>953</v>
@@ -7173,7 +7176,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>872</v>
@@ -7331,7 +7334,7 @@
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>1120</v>
@@ -7372,7 +7375,7 @@
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>965</v>
@@ -7506,7 +7509,7 @@
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>967</v>
@@ -7693,7 +7696,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>880</v>
@@ -8069,7 +8072,7 @@
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>1175</v>
@@ -8172,7 +8175,7 @@
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>977</v>
@@ -8725,7 +8728,7 @@
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>1225</v>
@@ -8757,7 +8760,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>896</v>
@@ -9088,7 +9091,7 @@
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>991</v>
@@ -9290,7 +9293,7 @@
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>994</v>
@@ -9732,7 +9735,7 @@
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1372</v>
+        <v>1445</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>1001</v>
@@ -9741,7 +9744,7 @@
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>1057</v>
@@ -9917,7 +9920,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>914</v>
@@ -9926,7 +9929,7 @@
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>1004</v>
@@ -10278,7 +10281,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>926</v>
@@ -10289,7 +10292,7 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>927</v>
@@ -10657,10 +10660,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1396</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1397</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>772</v>
@@ -10690,13 +10693,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>1378</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -10759,7 +10762,7 @@
         <v>667</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>795</v>
@@ -10767,13 +10770,13 @@
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -10943,13 +10946,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1384</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>1385</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -10998,13 +11001,13 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>1398</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -11053,24 +11056,24 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>1434</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>1402</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -11086,13 +11089,13 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>1390</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -11103,7 +11106,7 @@
         <v>741</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
@@ -11273,18 +11276,18 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>1422</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>782</v>
@@ -11298,7 +11301,7 @@
         <v>706</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>830</v>
@@ -11309,7 +11312,7 @@
         <v>707</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>829</v>
@@ -11317,24 +11320,24 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>1417</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>1374</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -11394,13 +11397,13 @@
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>1394</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>1395</v>
-      </c>
       <c r="C75" s="5" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -11408,7 +11411,7 @@
         <v>713</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>834</v>
@@ -11438,13 +11441,13 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>775</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -11653,7 +11656,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>727</v>
@@ -11664,46 +11667,46 @@
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1440</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>1441</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa18604.3786.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54525BBC-8CEA-4D59-93CC-97441D9CE2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B5255-D535-43C7-AF0D-1334F3472C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
+    <workbookView xWindow="-240" yWindow="0" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
   <sheets>
     <sheet name="キー割り当て" sheetId="1" r:id="rId1"/>
@@ -2386,13 +2386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ListFileから複製</t>
-    <rPh sb="10" eb="12">
-      <t>フクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理対象を限定してコピー</t>
     <rPh sb="5" eb="7">
       <t>ゲンテイ</t>
@@ -2408,16 +2401,6 @@
   </si>
   <si>
     <t>Pathstoreにパスを送る/まとめて開く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パス連動表示</t>
-    <rPh sb="2" eb="4">
-      <t>レンドウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6039,6 +6022,17 @@
     <rPh sb="19" eb="21">
       <t>ケンサク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードリンク作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連動パス・表示パス同期</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6535,76 +6529,76 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -6615,62 +6609,62 @@
         <v>523</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6681,60 +6675,60 @@
         <v>573</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6742,10 +6736,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
@@ -6754,7 +6748,7 @@
         <v>557</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
@@ -6763,7 +6757,7 @@
         <v>560</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
@@ -6772,14 +6766,14 @@
         <v>559</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
@@ -6788,21 +6782,21 @@
         <v>581</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6813,58 +6807,58 @@
         <v>518</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6873,56 +6867,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6933,7 +6927,7 @@
         <v>517</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
@@ -6942,49 +6936,49 @@
         <v>558</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6995,7 +6989,7 @@
         <v>507</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
@@ -7004,7 +6998,7 @@
         <v>597</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
@@ -7013,42 +7007,42 @@
         <v>586</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7059,56 +7053,56 @@
         <v>511</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7119,56 +7113,56 @@
         <v>512</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7176,59 +7170,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7239,58 +7233,58 @@
         <v>504</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7301,64 +7295,64 @@
         <v>488</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7369,16 +7363,16 @@
         <v>489</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
@@ -7387,46 +7381,46 @@
         <v>548</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7437,62 +7431,62 @@
         <v>490</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7503,16 +7497,16 @@
         <v>491</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
@@ -7521,46 +7515,46 @@
         <v>549</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7568,63 +7562,63 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7635,60 +7629,60 @@
         <v>505</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7696,19 +7690,19 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
@@ -7717,14 +7711,14 @@
         <v>587</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
@@ -7733,28 +7727,28 @@
         <v>577</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7762,10 +7756,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
@@ -7774,7 +7768,7 @@
         <v>528</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
@@ -7783,42 +7777,42 @@
         <v>529</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7826,10 +7820,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
@@ -7838,7 +7832,7 @@
         <v>525</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
@@ -7847,7 +7841,7 @@
         <v>530</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
@@ -7856,39 +7850,39 @@
         <v>606</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7899,7 +7893,7 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
@@ -7908,7 +7902,7 @@
         <v>551</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
@@ -7917,25 +7911,25 @@
         <v>531</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
@@ -7944,23 +7938,23 @@
         <v>550</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7968,19 +7962,19 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
@@ -7989,7 +7983,7 @@
         <v>596</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
@@ -7998,7 +7992,7 @@
         <v>540</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
@@ -8007,28 +8001,28 @@
         <v>552</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -8036,19 +8030,19 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
@@ -8057,7 +8051,7 @@
         <v>604</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
@@ -8066,37 +8060,37 @@
         <v>541</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8107,7 +8101,7 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
@@ -8116,49 +8110,49 @@
         <v>605</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8169,16 +8163,16 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
@@ -8187,7 +8181,7 @@
         <v>592</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
@@ -8196,37 +8190,37 @@
         <v>542</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8237,7 +8231,7 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
@@ -8246,7 +8240,7 @@
         <v>519</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
@@ -8255,7 +8249,7 @@
         <v>532</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
@@ -8264,7 +8258,7 @@
         <v>543</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
@@ -8273,28 +8267,28 @@
         <v>580</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8305,16 +8299,16 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
@@ -8323,42 +8317,42 @@
         <v>593</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8369,7 +8363,7 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
@@ -8378,7 +8372,7 @@
         <v>520</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
@@ -8387,42 +8381,42 @@
         <v>594</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8433,7 +8427,7 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
@@ -8442,7 +8436,7 @@
         <v>591</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
@@ -8451,7 +8445,7 @@
         <v>595</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
@@ -8460,7 +8454,7 @@
         <v>589</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8469,28 +8463,28 @@
         <v>503</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8498,10 +8492,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
@@ -8510,7 +8504,7 @@
         <v>526</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
@@ -8519,7 +8513,7 @@
         <v>598</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
@@ -8528,37 +8522,37 @@
         <v>607</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8569,7 +8563,7 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
@@ -8578,7 +8572,7 @@
         <v>527</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
@@ -8587,42 +8581,42 @@
         <v>524</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8630,10 +8624,10 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
@@ -8642,14 +8636,14 @@
         <v>582</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
@@ -8658,35 +8652,35 @@
         <v>544</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8697,16 +8691,16 @@
         <v>537</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
@@ -8715,44 +8709,44 @@
         <v>574</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8760,10 +8754,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8772,23 +8766,23 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
@@ -8797,28 +8791,28 @@
         <v>553</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8829,7 +8823,7 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
@@ -8838,51 +8832,51 @@
         <v>588</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8890,63 +8884,63 @@
         <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8957,7 +8951,7 @@
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
@@ -8966,7 +8960,7 @@
         <v>561</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
@@ -8975,7 +8969,7 @@
         <v>575</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
@@ -8984,35 +8978,35 @@
         <v>547</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -9023,58 +9017,58 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9082,19 +9076,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
@@ -9103,16 +9097,16 @@
         <v>533</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
@@ -9121,28 +9115,28 @@
         <v>554</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9153,7 +9147,7 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
@@ -9162,7 +9156,7 @@
         <v>521</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
@@ -9171,7 +9165,7 @@
         <v>576</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
@@ -9180,7 +9174,7 @@
         <v>545</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
@@ -9189,28 +9183,28 @@
         <v>555</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9221,7 +9215,7 @@
         <v>599</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
@@ -9230,7 +9224,7 @@
         <v>600</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
@@ -9239,14 +9233,14 @@
         <v>534</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
@@ -9255,28 +9249,28 @@
         <v>556</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9284,63 +9278,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="J43" s="1"/>
+      <c r="J43" s="1" t="s">
+        <v>1445</v>
+      </c>
       <c r="K43" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>612</v>
-      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9351,7 +9345,7 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
@@ -9360,7 +9354,7 @@
         <v>602</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
@@ -9369,7 +9363,7 @@
         <v>535</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
@@ -9378,35 +9372,35 @@
         <v>546</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>566</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>567</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>568</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9417,16 +9411,16 @@
         <v>498</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
@@ -9435,42 +9429,42 @@
         <v>569</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9481,7 +9475,7 @@
         <v>499</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
@@ -9490,49 +9484,49 @@
         <v>562</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9543,56 +9537,56 @@
         <v>500</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9603,16 +9597,16 @@
         <v>501</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
@@ -9621,42 +9615,42 @@
         <v>576</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9667,58 +9661,58 @@
         <v>502</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9726,65 +9720,65 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9795,7 +9789,7 @@
         <v>601</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
@@ -9804,7 +9798,7 @@
         <v>578</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
@@ -9813,42 +9807,42 @@
         <v>579</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9856,10 +9850,10 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
@@ -9868,7 +9862,7 @@
         <v>563</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
@@ -9877,42 +9871,42 @@
         <v>571</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9920,19 +9914,19 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
@@ -9941,42 +9935,42 @@
         <v>538</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9987,7 +9981,7 @@
         <v>603</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
@@ -9996,7 +9990,7 @@
         <v>572</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
@@ -10005,42 +9999,42 @@
         <v>570</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10051,7 +10045,7 @@
         <v>508</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
@@ -10060,7 +10054,7 @@
         <v>565</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
@@ -10069,42 +10063,42 @@
         <v>539</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10115,60 +10109,60 @@
         <v>509</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>917</v>
-      </c>
-      <c r="E56" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>1063</v>
+      <c r="K56" s="7" t="s">
+        <v>1061</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>583</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>584</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="AC56" s="1" t="s">
         <v>585</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10179,7 +10173,7 @@
         <v>506</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
@@ -10188,7 +10182,7 @@
         <v>522</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10199,7 +10193,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10210,7 +10204,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10221,11 +10215,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10236,7 +10230,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10247,11 +10241,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10262,7 +10256,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10273,7 +10267,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10281,10 +10275,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10292,10 +10286,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10304,7 +10298,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10313,7 +10307,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10324,7 +10318,7 @@
         <v>516</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10333,7 +10327,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10344,7 +10338,7 @@
         <v>495</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10355,7 +10349,7 @@
         <v>510</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10366,7 +10360,7 @@
         <v>492</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10377,7 +10371,7 @@
         <v>493</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10388,7 +10382,7 @@
         <v>496</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -10399,7 +10393,7 @@
         <v>514</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10407,10 +10401,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10419,7 +10413,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10427,10 +10421,10 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10441,7 +10435,7 @@
         <v>515</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10449,10 +10443,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10460,32 +10454,32 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>626</v>
-      </c>
       <c r="C83" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>627</v>
-      </c>
       <c r="C84" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10494,7 +10488,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10505,7 +10499,7 @@
         <v>497</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10516,7 +10510,7 @@
         <v>590</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10525,7 +10519,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10536,7 +10530,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10547,7 +10541,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10555,10 +10549,10 @@
         <v>494</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -10583,970 +10577,970 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>727</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1365</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>1376</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>799</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>1383</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>1432</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>1400</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>1388</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1390</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>1350</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>1347</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>1420</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>1415</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>1375</v>
-      </c>
       <c r="C69" s="5" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -11656,57 +11650,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1441</v>
-      </c>
       <c r="C5" s="13" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa16368.33582.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35B5255-D535-43C7-AF0D-1334F3472C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B6BD51-C331-4147-8776-D703E186387E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-240" yWindow="0" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -1718,13 +1718,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エントリ先頭へジャンプ</t>
-    <rPh sb="4" eb="6">
-      <t>セントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>窓のスクロール（前1ページ）</t>
     <rPh sb="8" eb="9">
       <t>マエ</t>
@@ -6033,6 +6026,10 @@
   </si>
   <si>
     <t>連動パス・表示パス同期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPxIDを検索してジャンプ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6498,7 +6495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA87CFEE-E1C7-4DFD-A885-7767689DA043}">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6529,76 +6528,76 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -6606,65 +6605,65 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6672,63 +6671,63 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6736,67 +6735,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6804,61 +6803,61 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6867,56 +6866,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6924,61 +6923,61 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6989,60 +6988,60 @@
         <v>507</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7050,59 +7049,59 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7110,59 +7109,59 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7170,59 +7169,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7233,58 +7232,58 @@
         <v>504</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7295,64 +7294,64 @@
         <v>488</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7363,64 +7362,64 @@
         <v>489</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7431,62 +7430,62 @@
         <v>490</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7497,64 +7496,64 @@
         <v>491</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7562,63 +7561,63 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7629,60 +7628,60 @@
         <v>505</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7690,65 +7689,65 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7756,63 +7755,63 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7820,69 +7819,69 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7893,68 +7892,68 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7962,67 +7961,67 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -8030,67 +8029,67 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8101,58 +8100,58 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8163,64 +8162,64 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8231,64 +8230,64 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8299,60 +8298,60 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8363,60 +8362,60 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8427,34 +8426,34 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8463,28 +8462,28 @@
         <v>503</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8492,67 +8491,67 @@
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8563,60 +8562,60 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8624,63 +8623,63 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8688,65 +8687,65 @@
         <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8754,10 +8753,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8766,53 +8765,53 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8823,60 +8822,60 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8884,63 +8883,63 @@
         <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8948,65 +8947,65 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -9017,58 +9016,58 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9076,67 +9075,67 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9147,64 +9146,64 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9212,65 +9211,65 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9278,63 +9277,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9345,62 +9344,62 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9411,60 +9410,60 @@
         <v>498</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9475,58 +9474,58 @@
         <v>499</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9537,56 +9536,56 @@
         <v>500</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9597,60 +9596,60 @@
         <v>501</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9661,58 +9660,58 @@
         <v>502</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9720,65 +9719,65 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9786,63 +9785,63 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9850,63 +9849,63 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9914,63 +9913,63 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9978,63 +9977,63 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10045,60 +10044,60 @@
         <v>508</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10109,60 +10108,60 @@
         <v>509</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10173,16 +10172,16 @@
         <v>506</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10193,7 +10192,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10204,7 +10203,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10215,11 +10214,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10230,7 +10229,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10241,11 +10240,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10256,7 +10255,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10267,7 +10266,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10275,10 +10274,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10286,10 +10285,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10298,7 +10297,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10307,7 +10306,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10315,10 +10314,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10327,7 +10326,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10338,7 +10337,7 @@
         <v>495</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10346,10 +10345,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>510</v>
+        <v>1445</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10360,7 +10359,7 @@
         <v>492</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10371,7 +10370,7 @@
         <v>493</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10382,18 +10381,18 @@
         <v>496</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>514</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10401,10 +10400,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10413,7 +10412,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10421,10 +10420,10 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10432,10 +10431,10 @@
         <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10443,10 +10442,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10454,32 +10453,32 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10488,7 +10487,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10499,7 +10498,7 @@
         <v>497</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10507,10 +10506,10 @@
         <v>473</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10519,7 +10518,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10530,7 +10529,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10541,7 +10540,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10549,10 +10548,10 @@
         <v>494</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -10577,970 +10576,970 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1364</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1393</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1394</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>1375</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>1382</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>1395</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>1431</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>1399</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>1387</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>1349</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>1346</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>1419</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>1414</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>1371</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>1392</v>
-      </c>
       <c r="C75" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>1426</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -11650,57 +11649,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1437</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>1438</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa16368.33582.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa19056.12677.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B6BD51-C331-4147-8776-D703E186387E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1D3D49-846F-450E-9239-D54D35A74FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-240" yWindow="0" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -6029,7 +6029,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PPxIDを検索してジャンプ</t>
+    <t>PPxIDを検索して窓選択</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6495,9 +6495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA87CFEE-E1C7-4DFD-A885-7767689DA043}">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa19056.12677.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa12024.23905.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1D3D49-846F-450E-9239-D54D35A74FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B5C14C-FC7B-4909-8635-223B8854BCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-240" yWindow="0" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -2445,63 +2445,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル名を短く表示(MC_celSの一時設定1に保存)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名を長く表示(MC_celSの一時設定1に保存)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[{]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>[}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名を短く表示(MC_celSの一時設定2に保存)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名を長く表示(MC_celSの一時設定2に保存)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6030,6 +5978,64 @@
   </si>
   <si>
     <t>PPxIDを検索して窓選択</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名を短く表示(MC_celSの一時設定に保存)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名を長く表示(MC_celSの一時設定に保存)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名を短く表示(MC_celSの保持設定に保存)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名を長く表示(MC_celSの保持設定に保存)</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6526,76 +6532,76 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -6606,16 +6612,16 @@
         <v>522</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
@@ -6624,44 +6630,44 @@
         <v>611</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6672,60 +6678,60 @@
         <v>572</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6733,10 +6739,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
@@ -6745,7 +6751,7 @@
         <v>556</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
@@ -6754,7 +6760,7 @@
         <v>559</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
@@ -6763,14 +6769,14 @@
         <v>558</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
@@ -6779,21 +6785,21 @@
         <v>580</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6804,7 +6810,7 @@
         <v>517</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
@@ -6813,49 +6819,49 @@
         <v>613</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6864,56 +6870,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6924,7 +6930,7 @@
         <v>516</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
@@ -6933,49 +6939,49 @@
         <v>557</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6986,7 +6992,7 @@
         <v>507</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
@@ -6995,7 +7001,7 @@
         <v>596</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
@@ -7004,42 +7010,42 @@
         <v>585</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7050,56 +7056,56 @@
         <v>510</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7110,56 +7116,56 @@
         <v>511</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7167,59 +7173,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7230,58 +7236,58 @@
         <v>504</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7292,64 +7298,64 @@
         <v>488</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7360,16 +7366,16 @@
         <v>489</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
@@ -7378,46 +7384,46 @@
         <v>547</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7428,62 +7434,62 @@
         <v>490</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7494,16 +7500,16 @@
         <v>491</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
@@ -7512,46 +7518,46 @@
         <v>548</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7559,63 +7565,63 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7626,60 +7632,60 @@
         <v>505</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7687,10 +7693,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
@@ -7699,7 +7705,7 @@
         <v>612</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
@@ -7708,14 +7714,14 @@
         <v>586</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
@@ -7724,28 +7730,28 @@
         <v>576</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7753,10 +7759,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
@@ -7765,7 +7771,7 @@
         <v>527</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
@@ -7774,42 +7780,42 @@
         <v>528</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7817,10 +7823,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
@@ -7829,7 +7835,7 @@
         <v>524</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
@@ -7838,7 +7844,7 @@
         <v>529</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
@@ -7847,7 +7853,7 @@
         <v>605</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
@@ -7856,30 +7862,30 @@
         <v>607</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7890,7 +7896,7 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
@@ -7899,7 +7905,7 @@
         <v>550</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
@@ -7908,16 +7914,16 @@
         <v>530</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
@@ -7926,7 +7932,7 @@
         <v>614</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
@@ -7935,7 +7941,7 @@
         <v>549</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
@@ -7944,14 +7950,14 @@
         <v>616</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7959,19 +7965,19 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
@@ -7980,7 +7986,7 @@
         <v>595</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
@@ -7989,7 +7995,7 @@
         <v>539</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
@@ -7998,28 +8004,28 @@
         <v>551</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -8027,19 +8033,19 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
@@ -8048,7 +8054,7 @@
         <v>603</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
@@ -8057,37 +8063,37 @@
         <v>540</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8098,7 +8104,7 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
@@ -8107,49 +8113,49 @@
         <v>604</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8160,16 +8166,16 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
@@ -8178,7 +8184,7 @@
         <v>591</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
@@ -8187,7 +8193,7 @@
         <v>541</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
@@ -8196,28 +8202,28 @@
         <v>615</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8228,7 +8234,7 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
@@ -8237,7 +8243,7 @@
         <v>518</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
@@ -8246,7 +8252,7 @@
         <v>531</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
@@ -8255,7 +8261,7 @@
         <v>542</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
@@ -8264,28 +8270,28 @@
         <v>579</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8296,16 +8302,16 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
@@ -8314,42 +8320,42 @@
         <v>592</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8360,7 +8366,7 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
@@ -8369,7 +8375,7 @@
         <v>519</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
@@ -8378,42 +8384,42 @@
         <v>593</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8424,7 +8430,7 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
@@ -8433,7 +8439,7 @@
         <v>590</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
@@ -8442,7 +8448,7 @@
         <v>594</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
@@ -8451,7 +8457,7 @@
         <v>588</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8460,28 +8466,28 @@
         <v>503</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8489,10 +8495,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
@@ -8501,7 +8507,7 @@
         <v>525</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
@@ -8510,7 +8516,7 @@
         <v>597</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
@@ -8519,7 +8525,7 @@
         <v>606</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
@@ -8528,28 +8534,28 @@
         <v>608</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8560,7 +8566,7 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
@@ -8569,7 +8575,7 @@
         <v>526</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
@@ -8578,42 +8584,42 @@
         <v>523</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8621,10 +8627,10 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
@@ -8633,14 +8639,14 @@
         <v>581</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
@@ -8649,35 +8655,35 @@
         <v>543</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8688,7 +8694,7 @@
         <v>536</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
@@ -8697,7 +8703,7 @@
         <v>609</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
@@ -8706,44 +8712,44 @@
         <v>573</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8751,10 +8757,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8763,23 +8769,23 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
@@ -8788,28 +8794,28 @@
         <v>552</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8820,7 +8826,7 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
@@ -8829,51 +8835,51 @@
         <v>587</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8881,47 +8887,47 @@
         <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
@@ -8930,14 +8936,14 @@
         <v>617</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8948,7 +8954,7 @@
         <v>535</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
@@ -8957,7 +8963,7 @@
         <v>560</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
@@ -8966,7 +8972,7 @@
         <v>574</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
@@ -8975,35 +8981,35 @@
         <v>546</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -9014,58 +9020,58 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9073,19 +9079,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
@@ -9094,7 +9100,7 @@
         <v>532</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
@@ -9103,7 +9109,7 @@
         <v>610</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
@@ -9112,28 +9118,28 @@
         <v>553</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9144,7 +9150,7 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
@@ -9153,7 +9159,7 @@
         <v>520</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
@@ -9162,7 +9168,7 @@
         <v>575</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
@@ -9171,7 +9177,7 @@
         <v>544</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
@@ -9180,28 +9186,28 @@
         <v>554</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9212,7 +9218,7 @@
         <v>598</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
@@ -9221,7 +9227,7 @@
         <v>599</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
@@ -9230,14 +9236,14 @@
         <v>533</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
@@ -9246,28 +9252,28 @@
         <v>555</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9275,63 +9281,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9342,7 +9348,7 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
@@ -9351,7 +9357,7 @@
         <v>601</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
@@ -9360,7 +9366,7 @@
         <v>534</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
@@ -9369,35 +9375,35 @@
         <v>545</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>565</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>566</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>567</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9408,16 +9414,16 @@
         <v>498</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
@@ -9426,42 +9432,42 @@
         <v>568</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9472,7 +9478,7 @@
         <v>499</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
@@ -9481,49 +9487,49 @@
         <v>561</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9534,56 +9540,56 @@
         <v>500</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9594,7 +9600,7 @@
         <v>501</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
@@ -9603,7 +9609,7 @@
         <v>613</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
@@ -9612,42 +9618,42 @@
         <v>575</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9658,14 +9664,14 @@
         <v>502</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
@@ -9674,42 +9680,42 @@
         <v>618</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9717,65 +9723,65 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9786,7 +9792,7 @@
         <v>600</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
@@ -9795,7 +9801,7 @@
         <v>577</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
@@ -9804,42 +9810,42 @@
         <v>578</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9847,10 +9853,10 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
@@ -9859,7 +9865,7 @@
         <v>562</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
@@ -9868,42 +9874,42 @@
         <v>570</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9911,19 +9917,19 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
@@ -9932,42 +9938,42 @@
         <v>537</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9978,7 +9984,7 @@
         <v>602</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
@@ -9987,7 +9993,7 @@
         <v>571</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
@@ -9996,42 +10002,42 @@
         <v>569</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10042,7 +10048,7 @@
         <v>508</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
@@ -10051,7 +10057,7 @@
         <v>564</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
@@ -10060,42 +10066,42 @@
         <v>538</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10106,16 +10112,16 @@
         <v>509</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>189</v>
@@ -10124,42 +10130,42 @@
         <v>563</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>582</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>583</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="AC56" s="1" t="s">
         <v>584</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10170,7 +10176,7 @@
         <v>506</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
@@ -10179,7 +10185,7 @@
         <v>521</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10190,7 +10196,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10201,7 +10207,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10212,11 +10218,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10227,7 +10233,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10238,11 +10244,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10253,7 +10259,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10264,7 +10270,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10272,10 +10278,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10283,10 +10289,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10295,7 +10301,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10304,7 +10310,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10315,7 +10321,7 @@
         <v>515</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10324,7 +10330,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10335,7 +10341,7 @@
         <v>495</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10343,10 +10349,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10357,7 +10363,7 @@
         <v>492</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10368,7 +10374,7 @@
         <v>493</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10379,7 +10385,7 @@
         <v>496</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -10390,7 +10396,7 @@
         <v>513</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10398,10 +10404,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10410,7 +10416,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10418,10 +10424,10 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10432,7 +10438,7 @@
         <v>514</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10440,10 +10446,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>619</v>
+        <v>1442</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10451,32 +10457,32 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>620</v>
+        <v>1443</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>623</v>
+        <v>1444</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>624</v>
+        <v>1445</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10485,7 +10491,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10496,7 +10502,7 @@
         <v>497</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10507,7 +10513,7 @@
         <v>589</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10516,7 +10522,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10527,7 +10533,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10538,7 +10544,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10546,10 +10552,10 @@
         <v>494</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>
@@ -10574,970 +10580,970 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>1379</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -11647,57 +11653,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa12024.23905.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\~EXTMP00\ppx_cust\key検討用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B5C14C-FC7B-4909-8635-223B8854BCA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8D4AB5-9DEE-4745-9970-8167371814FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="0" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
   <sheets>
     <sheet name="キー割り当て" sheetId="1" r:id="rId1"/>
@@ -1711,13 +1711,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エントリ複写</t>
-    <rPh sb="4" eb="6">
-      <t>フクシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>窓のスクロール（前1ページ）</t>
     <rPh sb="8" eb="9">
       <t>マエ</t>
@@ -2025,19 +2018,6 @@
   </si>
   <si>
     <t>CPU INFO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エントリ複写（複写対象をフィルタ）</t>
-    <rPh sb="4" eb="6">
-      <t>フクシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フクシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タイショウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6036,6 +6016,17 @@
     <rPh sb="19" eb="21">
       <t>ホジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エントリ複製</t>
+    <rPh sb="4" eb="6">
+      <t>フクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ複製(複製ファイルをフィルタ)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6532,76 +6523,76 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -6609,65 +6600,65 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6675,63 +6666,63 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6739,67 +6730,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6807,61 +6798,61 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6870,56 +6861,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6927,61 +6918,61 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6992,60 +6983,60 @@
         <v>507</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7053,59 +7044,59 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7113,59 +7104,59 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7173,59 +7164,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7236,58 +7227,58 @@
         <v>504</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7298,64 +7289,64 @@
         <v>488</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7366,64 +7357,64 @@
         <v>489</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7434,62 +7425,62 @@
         <v>490</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7500,64 +7491,64 @@
         <v>491</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7565,63 +7556,63 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7632,60 +7623,60 @@
         <v>505</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7693,65 +7684,65 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7759,63 +7750,63 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7823,69 +7814,69 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7896,68 +7887,68 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7965,67 +7956,67 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -8033,67 +8024,67 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8104,58 +8095,58 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8166,64 +8157,64 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8234,64 +8225,64 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8302,60 +8293,60 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8366,60 +8357,60 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8430,34 +8421,34 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8466,28 +8457,28 @@
         <v>503</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8495,67 +8486,67 @@
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8566,60 +8557,60 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8627,63 +8618,63 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8691,65 +8682,65 @@
         <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8757,10 +8748,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8769,53 +8760,53 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8826,60 +8817,60 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8887,63 +8878,63 @@
         <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8951,65 +8942,65 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -9020,58 +9011,58 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9079,67 +9070,67 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9150,64 +9141,64 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9215,65 +9206,65 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9281,63 +9272,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9348,62 +9339,62 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9414,60 +9405,60 @@
         <v>498</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9478,58 +9469,58 @@
         <v>499</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9540,56 +9531,56 @@
         <v>500</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9600,60 +9591,60 @@
         <v>501</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9664,58 +9655,58 @@
         <v>502</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9723,65 +9714,65 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9789,63 +9780,63 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9853,63 +9844,63 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9917,63 +9908,63 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9981,63 +9972,63 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10048,60 +10039,60 @@
         <v>508</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10109,63 +10100,63 @@
         <v>64</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>509</v>
+        <v>1444</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>563</v>
+        <v>1445</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10176,16 +10167,16 @@
         <v>506</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10196,7 +10187,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10207,7 +10198,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10218,11 +10209,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10233,7 +10224,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10244,11 +10235,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10259,7 +10250,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10270,7 +10261,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10278,10 +10269,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10289,10 +10280,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10301,7 +10292,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10310,7 +10301,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10318,10 +10309,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10330,7 +10321,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10341,7 +10332,7 @@
         <v>495</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10349,10 +10340,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10363,7 +10354,7 @@
         <v>492</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10374,7 +10365,7 @@
         <v>493</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10385,18 +10376,18 @@
         <v>496</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="C76" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10404,10 +10395,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10416,7 +10407,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10424,10 +10415,10 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10435,10 +10426,10 @@
         <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10446,10 +10437,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10457,32 +10448,32 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10491,7 +10482,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10502,7 +10493,7 @@
         <v>497</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10510,10 +10501,10 @@
         <v>473</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10522,7 +10513,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10533,7 +10524,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10544,7 +10535,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10552,10 +10543,10 @@
         <v>494</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -10580,970 +10571,970 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>720</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1358</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>1369</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>1376</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>1425</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>1393</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>1381</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>1343</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>1340</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>1413</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>1408</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>1368</v>
-      </c>
       <c r="C69" s="5" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -11653,57 +11644,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1432</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1434</v>
-      </c>
       <c r="C5" s="13" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\~EXTMP00\ppx_cust\key検討用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa32056.37742.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8D4AB5-9DEE-4745-9970-8167371814FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB574DCF-9ADE-4F1F-836F-242EA484FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -1882,19 +1882,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コマンドプロンプトを管理者権限で起動</t>
-    <rPh sb="10" eb="13">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PPc新規窓を管理者権限で起動</t>
     <rPh sb="3" eb="5">
       <t>シンキ</t>
@@ -5857,10 +5844,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コンソール(コマンドプロンプト)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>musicbranz picard</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6027,6 +6010,26 @@
   </si>
   <si>
     <t>ディレクトリ複製(複製ファイルをフィルタ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターミナル起動</t>
+    <rPh sb="5" eb="7">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターミナルを管理者権限で起動</t>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6523,76 +6526,76 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -6603,62 +6606,62 @@
         <v>521</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6666,63 +6669,63 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6730,67 +6733,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6801,58 +6804,58 @@
         <v>516</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6861,56 +6864,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6921,58 +6924,58 @@
         <v>515</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6983,60 +6986,60 @@
         <v>507</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7047,56 +7050,56 @@
         <v>509</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7107,56 +7110,56 @@
         <v>510</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7164,59 +7167,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7227,58 +7230,58 @@
         <v>504</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7289,64 +7292,64 @@
         <v>488</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7357,64 +7360,64 @@
         <v>489</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7425,62 +7428,62 @@
         <v>490</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7491,64 +7494,64 @@
         <v>491</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7556,63 +7559,63 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7623,60 +7626,60 @@
         <v>505</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7684,65 +7687,65 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7750,10 +7753,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
@@ -7762,7 +7765,7 @@
         <v>526</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
@@ -7771,42 +7774,42 @@
         <v>527</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7814,10 +7817,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
@@ -7826,7 +7829,7 @@
         <v>523</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
@@ -7835,48 +7838,48 @@
         <v>528</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7887,16 +7890,16 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
@@ -7905,50 +7908,50 @@
         <v>529</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7956,67 +7959,67 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -8024,67 +8027,67 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8095,58 +8098,58 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8157,64 +8160,64 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8225,7 +8228,7 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
@@ -8234,7 +8237,7 @@
         <v>517</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
@@ -8243,46 +8246,46 @@
         <v>530</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8293,60 +8296,60 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8357,7 +8360,7 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
@@ -8366,51 +8369,51 @@
         <v>518</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8421,34 +8424,34 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8457,28 +8460,28 @@
         <v>503</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8486,10 +8489,10 @@
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
@@ -8498,55 +8501,55 @@
         <v>524</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8557,7 +8560,7 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
@@ -8566,7 +8569,7 @@
         <v>525</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
@@ -8575,42 +8578,42 @@
         <v>522</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8618,63 +8621,63 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8685,62 +8688,62 @@
         <v>535</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8748,10 +8751,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8760,53 +8763,53 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8817,60 +8820,60 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8878,63 +8881,63 @@
         <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8945,62 +8948,62 @@
         <v>534</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -9011,58 +9014,58 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9070,19 +9073,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
@@ -9091,46 +9094,46 @@
         <v>531</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9141,7 +9144,7 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
@@ -9150,55 +9153,55 @@
         <v>519</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9206,19 +9209,19 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
@@ -9227,44 +9230,44 @@
         <v>532</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9272,63 +9275,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9339,16 +9342,16 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
@@ -9357,44 +9360,44 @@
         <v>533</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9405,60 +9408,60 @@
         <v>498</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9469,58 +9472,58 @@
         <v>499</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9531,56 +9534,56 @@
         <v>500</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9591,60 +9594,60 @@
         <v>501</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9655,58 +9658,58 @@
         <v>502</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9714,65 +9717,65 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9780,63 +9783,63 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9844,63 +9847,63 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9908,63 +9911,63 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1422</v>
+        <v>1444</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>536</v>
+        <v>1445</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9972,63 +9975,63 @@
         <v>62</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10039,60 +10042,60 @@
         <v>508</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10100,63 +10103,63 @@
         <v>64</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10167,7 +10170,7 @@
         <v>506</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
@@ -10176,7 +10179,7 @@
         <v>520</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10187,7 +10190,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10198,7 +10201,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10209,11 +10212,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10224,7 +10227,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10235,11 +10238,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10250,7 +10253,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10261,7 +10264,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10269,10 +10272,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10280,10 +10283,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10292,7 +10295,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10301,7 +10304,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10312,7 +10315,7 @@
         <v>514</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10321,7 +10324,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10332,7 +10335,7 @@
         <v>495</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10340,10 +10343,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10354,7 +10357,7 @@
         <v>492</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10365,7 +10368,7 @@
         <v>493</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10376,7 +10379,7 @@
         <v>496</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -10387,7 +10390,7 @@
         <v>512</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10395,10 +10398,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10407,7 +10410,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10415,10 +10418,10 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10429,7 +10432,7 @@
         <v>513</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10437,10 +10440,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10448,32 +10451,32 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10482,7 +10485,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10493,7 +10496,7 @@
         <v>497</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10501,10 +10504,10 @@
         <v>473</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10513,7 +10516,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10524,7 +10527,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10535,7 +10538,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10543,10 +10546,10 @@
         <v>494</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -10571,970 +10574,970 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1357</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1387</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>1368</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>1375</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>1388</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>1423</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1391</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>1392</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="5" t="s">
         <v>1380</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>1342</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>1339</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="5" t="s">
         <v>1412</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="5" t="s">
         <v>1407</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>1364</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>1385</v>
-      </c>
       <c r="C75" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>1419</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -11644,57 +11647,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1430</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1432</v>
-      </c>
       <c r="C5" s="13" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa32056.37742.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa9912.28734.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB574DCF-9ADE-4F1F-836F-242EA484FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EB1358-026D-48AD-8452-5E8716D928E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -5837,13 +5837,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PPbで実行</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>musicbranz picard</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6013,13 +6006,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ターミナル起動</t>
-    <rPh sb="5" eb="7">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ターミナルを管理者権限で起動</t>
     <rPh sb="6" eb="9">
       <t>カンリシャ</t>
@@ -6030,6 +6016,14 @@
     <rPh sb="12" eb="14">
       <t>キドウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPbで実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターミナル起動</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7167,7 +7161,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>862</v>
@@ -7366,7 +7360,7 @@
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>955</v>
@@ -7500,7 +7494,7 @@
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>957</v>
@@ -9082,7 +9076,7 @@
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>981</v>
@@ -9284,7 +9278,7 @@
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>984</v>
@@ -9293,7 +9287,7 @@
         <v>176</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>1040</v>
@@ -9726,7 +9720,7 @@
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>991</v>
@@ -9911,7 +9905,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1420</v>
+        <v>1445</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>904</v>
@@ -9929,7 +9923,7 @@
         <v>186</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="K53" s="9" t="s">
         <v>1050</v>
@@ -10103,7 +10097,7 @@
         <v>64</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>907</v>
@@ -10112,7 +10106,7 @@
         <v>134</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="G56" s="12" t="s">
         <v>997</v>
@@ -10121,7 +10115,7 @@
         <v>189</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>1053</v>
@@ -10272,7 +10266,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>916</v>
@@ -10283,7 +10277,7 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>917</v>
@@ -10343,7 +10337,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>923</v>
@@ -10440,7 +10434,7 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>932</v>
@@ -10451,7 +10445,7 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>933</v>
@@ -10462,7 +10456,7 @@
         <v>616</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>934</v>
@@ -10473,7 +10467,7 @@
         <v>617</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>935</v>
@@ -11047,13 +11041,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>1422</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -11691,13 +11685,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>1428</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>1429</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa9912.28734.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\~EXTMP00\ppx_cust\key検討用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EB1358-026D-48AD-8452-5E8716D928E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E3DDA5-4AAE-479D-99E9-C5306CEEC552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1443">
   <si>
     <t>[BackSpace]</t>
   </si>
@@ -2620,12 +2620,6 @@
     <t>autohotkey</t>
   </si>
   <si>
-    <t>aviutl</t>
-  </si>
-  <si>
-    <t>awkgui</t>
-  </si>
-  <si>
     <t>browserie</t>
   </si>
   <si>
@@ -2872,23 +2866,6 @@
     <t>Windows自動化</t>
     <rPh sb="7" eb="10">
       <t>ジドウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動画編集</t>
-    <rPh sb="0" eb="2">
-      <t>ドウガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AWKスクリプト編集</t>
-    <rPh sb="8" eb="10">
-      <t>ヘンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3146,15 +3123,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.videohelp.com/software/AviUtl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.autohotkey.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://hpcgi2.nifty.com/mozu/kz_download.cgi?Forawk111.zip(サイト消失)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6024,6 +5993,21 @@
   </si>
   <si>
     <t>ターミナル起動</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/chansey97/mintty-standalone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mintty-standalone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターミナルエミュレータminttyの最小セット</t>
+    <rPh sb="18" eb="20">
+      <t>サイショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6526,7 +6510,7 @@
         <v>639</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>638</v>
@@ -6535,7 +6519,7 @@
         <v>639</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>638</v>
@@ -6544,7 +6528,7 @@
         <v>639</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>638</v>
@@ -6600,16 +6584,16 @@
         <v>521</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
@@ -6618,44 +6602,44 @@
         <v>608</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6666,60 +6650,60 @@
         <v>569</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6727,10 +6711,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
@@ -6739,7 +6723,7 @@
         <v>554</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
@@ -6748,7 +6732,7 @@
         <v>557</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
@@ -6757,14 +6741,14 @@
         <v>556</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
@@ -6773,21 +6757,21 @@
         <v>577</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6798,7 +6782,7 @@
         <v>516</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
@@ -6807,49 +6791,49 @@
         <v>610</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6858,56 +6842,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6918,7 +6902,7 @@
         <v>515</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
@@ -6927,49 +6911,49 @@
         <v>555</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6980,7 +6964,7 @@
         <v>507</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
@@ -6989,7 +6973,7 @@
         <v>593</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
@@ -6998,42 +6982,42 @@
         <v>582</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7044,56 +7028,56 @@
         <v>509</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7104,56 +7088,56 @@
         <v>510</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7161,59 +7145,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7224,21 +7208,21 @@
         <v>504</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
@@ -7247,35 +7231,35 @@
         <v>642</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7286,25 +7270,25 @@
         <v>488</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
@@ -7313,37 +7297,37 @@
         <v>624</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7354,16 +7338,16 @@
         <v>489</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
@@ -7372,7 +7356,7 @@
         <v>545</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
@@ -7381,37 +7365,37 @@
         <v>625</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7422,25 +7406,25 @@
         <v>490</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
@@ -7449,35 +7433,35 @@
         <v>626</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7488,16 +7472,16 @@
         <v>491</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
@@ -7506,7 +7490,7 @@
         <v>546</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
@@ -7515,37 +7499,37 @@
         <v>627</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7553,10 +7537,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
@@ -7565,7 +7549,7 @@
         <v>620</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
@@ -7574,42 +7558,42 @@
         <v>632</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7620,7 +7604,7 @@
         <v>505</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
@@ -7629,7 +7613,7 @@
         <v>621</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
@@ -7638,42 +7622,42 @@
         <v>633</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7681,10 +7665,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
@@ -7693,7 +7677,7 @@
         <v>609</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
@@ -7702,14 +7686,14 @@
         <v>583</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
@@ -7718,28 +7702,28 @@
         <v>573</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7747,10 +7731,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
@@ -7759,7 +7743,7 @@
         <v>526</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
@@ -7768,42 +7752,42 @@
         <v>527</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7814,7 +7798,7 @@
         <v>643</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
@@ -7823,7 +7807,7 @@
         <v>523</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
@@ -7832,7 +7816,7 @@
         <v>528</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
@@ -7841,7 +7825,7 @@
         <v>602</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
@@ -7850,30 +7834,30 @@
         <v>604</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7884,7 +7868,7 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
@@ -7893,7 +7877,7 @@
         <v>548</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
@@ -7902,16 +7886,16 @@
         <v>529</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
@@ -7920,7 +7904,7 @@
         <v>611</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
@@ -7929,7 +7913,7 @@
         <v>547</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
@@ -7938,14 +7922,14 @@
         <v>613</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7956,7 +7940,7 @@
         <v>634</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
@@ -7965,7 +7949,7 @@
         <v>635</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
@@ -7974,7 +7958,7 @@
         <v>592</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
@@ -7983,7 +7967,7 @@
         <v>537</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
@@ -7992,28 +7976,28 @@
         <v>549</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -8024,7 +8008,7 @@
         <v>629</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
@@ -8033,7 +8017,7 @@
         <v>630</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
@@ -8042,7 +8026,7 @@
         <v>600</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
@@ -8051,37 +8035,37 @@
         <v>538</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8092,7 +8076,7 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
@@ -8101,49 +8085,49 @@
         <v>601</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8154,16 +8138,16 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
@@ -8172,7 +8156,7 @@
         <v>588</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
@@ -8181,7 +8165,7 @@
         <v>539</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
@@ -8190,28 +8174,28 @@
         <v>612</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8222,7 +8206,7 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
@@ -8231,7 +8215,7 @@
         <v>517</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
@@ -8240,7 +8224,7 @@
         <v>530</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
@@ -8249,7 +8233,7 @@
         <v>540</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
@@ -8258,28 +8242,28 @@
         <v>576</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8290,16 +8274,16 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
@@ -8308,42 +8292,42 @@
         <v>589</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8354,7 +8338,7 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
@@ -8363,7 +8347,7 @@
         <v>518</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
@@ -8372,42 +8356,42 @@
         <v>590</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8418,7 +8402,7 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
@@ -8427,7 +8411,7 @@
         <v>587</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
@@ -8436,7 +8420,7 @@
         <v>591</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
@@ -8445,7 +8429,7 @@
         <v>585</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8454,28 +8438,28 @@
         <v>503</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8486,7 +8470,7 @@
         <v>644</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
@@ -8495,7 +8479,7 @@
         <v>524</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
@@ -8504,7 +8488,7 @@
         <v>594</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
@@ -8513,7 +8497,7 @@
         <v>603</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
@@ -8522,28 +8506,28 @@
         <v>605</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8554,7 +8538,7 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
@@ -8563,7 +8547,7 @@
         <v>525</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
@@ -8572,42 +8556,42 @@
         <v>522</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8618,7 +8602,7 @@
         <v>637</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
@@ -8627,14 +8611,14 @@
         <v>578</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
@@ -8643,35 +8627,35 @@
         <v>541</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8682,7 +8666,7 @@
         <v>535</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
@@ -8691,7 +8675,7 @@
         <v>606</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
@@ -8700,44 +8684,44 @@
         <v>570</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8745,10 +8729,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8757,23 +8741,23 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
@@ -8782,28 +8766,28 @@
         <v>550</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8814,7 +8798,7 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
@@ -8823,51 +8807,51 @@
         <v>584</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8878,7 +8862,7 @@
         <v>628</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
@@ -8887,35 +8871,35 @@
         <v>631</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
@@ -8924,14 +8908,14 @@
         <v>614</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8942,7 +8926,7 @@
         <v>534</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
@@ -8951,7 +8935,7 @@
         <v>558</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
@@ -8960,7 +8944,7 @@
         <v>571</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
@@ -8969,35 +8953,35 @@
         <v>544</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -9008,7 +8992,7 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
@@ -9017,49 +9001,49 @@
         <v>641</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9067,19 +9051,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
@@ -9088,7 +9072,7 @@
         <v>531</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
@@ -9097,7 +9081,7 @@
         <v>607</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
@@ -9106,28 +9090,28 @@
         <v>551</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9138,7 +9122,7 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
@@ -9147,7 +9131,7 @@
         <v>519</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
@@ -9156,7 +9140,7 @@
         <v>572</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
@@ -9165,7 +9149,7 @@
         <v>542</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
@@ -9174,28 +9158,28 @@
         <v>552</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9206,7 +9190,7 @@
         <v>595</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
@@ -9215,7 +9199,7 @@
         <v>596</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
@@ -9224,14 +9208,14 @@
         <v>532</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
@@ -9240,28 +9224,28 @@
         <v>553</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9269,63 +9253,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9336,7 +9320,7 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
@@ -9345,7 +9329,7 @@
         <v>598</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
@@ -9354,7 +9338,7 @@
         <v>533</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
@@ -9363,35 +9347,35 @@
         <v>543</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>562</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>563</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>564</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9402,7 +9386,7 @@
         <v>498</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
@@ -9411,7 +9395,7 @@
         <v>623</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
@@ -9420,42 +9404,42 @@
         <v>565</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9466,7 +9450,7 @@
         <v>499</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
@@ -9475,49 +9459,49 @@
         <v>559</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9528,56 +9512,56 @@
         <v>500</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9588,7 +9572,7 @@
         <v>501</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
@@ -9597,7 +9581,7 @@
         <v>610</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
@@ -9606,42 +9590,42 @@
         <v>572</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9652,14 +9636,14 @@
         <v>502</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
@@ -9668,42 +9652,42 @@
         <v>615</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9711,28 +9695,28 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
@@ -9741,35 +9725,35 @@
         <v>618</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9780,7 +9764,7 @@
         <v>597</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
@@ -9789,7 +9773,7 @@
         <v>574</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
@@ -9798,42 +9782,42 @@
         <v>575</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9841,10 +9825,10 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
@@ -9853,7 +9837,7 @@
         <v>560</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
@@ -9862,42 +9846,42 @@
         <v>567</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9905,63 +9889,63 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9972,7 +9956,7 @@
         <v>599</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
@@ -9981,7 +9965,7 @@
         <v>568</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
@@ -9990,42 +9974,42 @@
         <v>566</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10036,7 +10020,7 @@
         <v>508</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
@@ -10045,7 +10029,7 @@
         <v>561</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
@@ -10054,42 +10038,42 @@
         <v>536</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10097,63 +10081,63 @@
         <v>64</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>579</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>580</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="AC56" s="1" t="s">
         <v>581</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10164,7 +10148,7 @@
         <v>506</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
@@ -10173,7 +10157,7 @@
         <v>520</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10184,7 +10168,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10195,7 +10179,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10206,11 +10190,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10221,7 +10205,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10232,11 +10216,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10247,7 +10231,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10258,7 +10242,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10266,10 +10250,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10277,10 +10261,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10289,7 +10273,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10298,7 +10282,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10309,7 +10293,7 @@
         <v>514</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10318,7 +10302,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10329,7 +10313,7 @@
         <v>495</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10337,10 +10321,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10351,7 +10335,7 @@
         <v>492</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10362,7 +10346,7 @@
         <v>493</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10373,7 +10357,7 @@
         <v>496</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -10384,7 +10368,7 @@
         <v>512</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10395,7 +10379,7 @@
         <v>622</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10404,7 +10388,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10415,7 +10399,7 @@
         <v>619</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10426,7 +10410,7 @@
         <v>513</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10434,10 +10418,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10445,10 +10429,10 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -10456,10 +10440,10 @@
         <v>616</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -10467,10 +10451,10 @@
         <v>617</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10479,7 +10463,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10490,7 +10474,7 @@
         <v>497</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10501,7 +10485,7 @@
         <v>586</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10510,7 +10494,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10521,7 +10505,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10532,7 +10516,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10543,7 +10527,7 @@
         <v>636</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -10555,7 +10539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB10E0A-3253-4DCD-9B39-542B45E6B4EC}">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10568,24 +10552,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>717</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -10593,10 +10577,10 @@
         <v>645</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -10604,10 +10588,10 @@
         <v>646</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -10615,76 +10599,76 @@
         <v>647</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>649</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>761</v>
+        <v>746</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>1385</v>
+        <v>649</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1386</v>
+        <v>739</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>650</v>
+        <v>1360</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>716</v>
+        <v>1361</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>1368</v>
+      <c r="B11" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -10692,21 +10676,21 @@
         <v>652</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>727</v>
+        <v>798</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>843</v>
+      <c r="B13" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -10714,54 +10698,54 @@
         <v>654</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>804</v>
+        <v>724</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>655</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1364</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>656</v>
+        <v>1363</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>845</v>
+        <v>1366</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>1369</v>
-      </c>
       <c r="B18" s="1" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>1376</v>
+        <v>740</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -10769,10 +10753,10 @@
         <v>658</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -10780,10 +10764,10 @@
         <v>659</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -10791,10 +10775,10 @@
         <v>660</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -10802,10 +10786,10 @@
         <v>661</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>745</v>
+        <v>830</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>795</v>
+        <v>829</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -10813,10 +10797,10 @@
         <v>662</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>794</v>
+        <v>742</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -10824,10 +10808,10 @@
         <v>663</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>836</v>
+        <v>796</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>835</v>
+        <v>786</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -10835,10 +10819,10 @@
         <v>664</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>837</v>
+        <v>810</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -10846,10 +10830,10 @@
         <v>665</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -10857,10 +10841,10 @@
         <v>666</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>740</v>
+        <v>844</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>816</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -10868,10 +10852,10 @@
         <v>667</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -10879,21 +10863,21 @@
         <v>668</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>850</v>
+        <v>745</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>748</v>
+      <c r="B30" s="4" t="s">
+        <v>725</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -10901,54 +10885,54 @@
         <v>670</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>729</v>
+        <v>1367</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1368</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>796</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>756</v>
+        <v>842</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>1373</v>
+        <v>672</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1374</v>
+        <v>748</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>849</v>
+      <c r="B35" s="4" t="s">
+        <v>841</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -10956,673 +10940,661 @@
         <v>674</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>847</v>
+        <v>1383</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1381</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>846</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>676</v>
+        <v>1441</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>753</v>
+        <v>1442</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>839</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>1389</v>
+        <v>675</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1387</v>
+        <v>777</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1388</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>798</v>
+        <v>836</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>763</v>
+        <v>835</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>680</v>
+        <v>1414</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>841</v>
+        <v>1415</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>840</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>1420</v>
+        <v>1384</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1421</v>
+        <v>1385</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1422</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>1390</v>
+        <v>679</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1391</v>
+        <v>726</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>1392</v>
+        <v>806</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>681</v>
+        <v>1372</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>730</v>
+        <v>1373</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>812</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>1378</v>
+        <v>680</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1379</v>
+        <v>727</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>732</v>
+      <c r="B49" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>817</v>
+        <v>760</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>764</v>
+        <v>729</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>754</v>
+        <v>801</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>687</v>
+        <v>1334</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>734</v>
+        <v>1335</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>806</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>1340</v>
+        <v>686</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1341</v>
+        <v>731</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>689</v>
-      </c>
       <c r="B56" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>1336</v>
+        <v>732</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>690</v>
+        <v>1331</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>736</v>
+        <v>1332</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>808</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1338</v>
+        <v>689</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>804</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>1339</v>
+        <v>803</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>810</v>
+        <v>690</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>832</v>
+        <v>815</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>695</v>
+        <v>1404</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>771</v>
+        <v>1405</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>821</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>1410</v>
+        <v>1402</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1411</v>
+        <v>766</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>1412</v>
+        <v>797</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>1408</v>
+        <v>694</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>772</v>
+        <v>1375</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>697</v>
+        <v>1399</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1377</v>
+        <v>1400</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>819</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>1405</v>
+        <v>1357</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1406</v>
+        <v>1359</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1407</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>1363</v>
+        <v>696</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1365</v>
+        <v>773</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>1364</v>
+        <v>812</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>823</v>
+        <v>794</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A75" s="1" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>1384</v>
+      <c r="B75" s="1" t="s">
+        <v>1365</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1382</v>
+        <v>818</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1371</v>
+        <v>768</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>705</v>
+        <v>1412</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>826</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>1418</v>
+        <v>704</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1419</v>
+        <v>827</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>833</v>
+        <v>754</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>759</v>
+        <v>821</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>778</v>
+        <v>738</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" display="https://web.archive.org/web/20130114222225/http://www.ric.hi-ho.ne.jp/many/many/calmemo.html" xr:uid="{68E3BDAE-D6B6-472A-A56D-166BD3E8C012}"/>
-    <hyperlink ref="C14" r:id="rId2" xr:uid="{65C715F6-3108-4C0B-9FD9-4593AB4664DE}"/>
-    <hyperlink ref="C51" r:id="rId3" xr:uid="{40FFE454-D681-4848-BC93-D2F3EBD83538}"/>
-    <hyperlink ref="C36" r:id="rId4" xr:uid="{721C6694-7D60-45AF-BD8E-510FF19D8D78}"/>
-    <hyperlink ref="C33" r:id="rId5" xr:uid="{CE716F1A-B82F-4B7F-81B7-6FE77AD82F10}"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://web.archive.org/web/20130114222225/http://www.ric.hi-ho.ne.jp/many/many/calmemo.html" xr:uid="{68E3BDAE-D6B6-472A-A56D-166BD3E8C012}"/>
+    <hyperlink ref="C12" r:id="rId2" xr:uid="{65C715F6-3108-4C0B-9FD9-4593AB4664DE}"/>
+    <hyperlink ref="C50" r:id="rId3" xr:uid="{40FFE454-D681-4848-BC93-D2F3EBD83538}"/>
+    <hyperlink ref="C34" r:id="rId4" xr:uid="{721C6694-7D60-45AF-BD8E-510FF19D8D78}"/>
+    <hyperlink ref="C31" r:id="rId5" xr:uid="{CE716F1A-B82F-4B7F-81B7-6FE77AD82F10}"/>
     <hyperlink ref="C3" r:id="rId6" xr:uid="{1C314206-C552-4381-A4FB-30146843B016}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{B7B69533-E776-45B8-93C5-D2657B35A667}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{E5A94E77-4CA6-4A88-86DB-3CA3ED63918E}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{8DEB841D-7246-427C-97F3-60A46B921D08}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{B216D457-FEDD-416C-8759-33F4AEE41A2F}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{D149D0DC-E797-4782-A907-F6877DC21F49}"/>
-    <hyperlink ref="C50" r:id="rId12" xr:uid="{17824680-FFF6-4704-B5CF-C58717D2D8E3}"/>
-    <hyperlink ref="C40" r:id="rId13" xr:uid="{2A80F6E7-19EC-4143-8C8F-92E3277B406D}"/>
-    <hyperlink ref="C19" r:id="rId14" xr:uid="{3EB98344-8E72-45D0-95B4-EFAFFDC883C9}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{C74ED420-9F55-41D7-82C0-8061C7D337D1}"/>
-    <hyperlink ref="C10" r:id="rId16" xr:uid="{C1C3E948-8242-4483-9E44-746E47E8C750}"/>
-    <hyperlink ref="C21" r:id="rId17" xr:uid="{7AD216EC-7611-4EA2-8A6A-6C7993302AFB}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{52BE21B7-361B-48E0-81F3-644146ACFF3F}"/>
-    <hyperlink ref="C29" r:id="rId19" xr:uid="{CF46B7B9-B75D-46C9-83F7-BAAD575A5AA4}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{4F20E7EC-A98A-46A7-B6BF-A558F7064423}"/>
-    <hyperlink ref="C32" r:id="rId21" xr:uid="{B114FCC5-14AF-42F6-92C4-7F0E16122536}"/>
-    <hyperlink ref="C30" r:id="rId22" xr:uid="{B21F9EAD-EE98-4F05-83AD-39A1442CF9FE}"/>
-    <hyperlink ref="C41" r:id="rId23" xr:uid="{81F37CA5-D504-4FFC-B149-647ED2939258}"/>
-    <hyperlink ref="C73" r:id="rId24" xr:uid="{87BC7322-B642-4523-B67F-507222F52B62}"/>
-    <hyperlink ref="C72" r:id="rId25" xr:uid="{F045B122-9BFA-4F6F-9F9B-FF3CC2A36D1B}"/>
-    <hyperlink ref="C74" r:id="rId26" xr:uid="{10F3C95D-D017-48C0-B393-1F819124D4B2}"/>
-    <hyperlink ref="C65" r:id="rId27" xr:uid="{344B870A-05DF-4171-BBA2-F5676D88A8D3}"/>
-    <hyperlink ref="C55" r:id="rId28" xr:uid="{7A8EDE4F-3EF6-4DC6-B2CD-6826D9C6EDA2}"/>
-    <hyperlink ref="C53" r:id="rId29" xr:uid="{D1156D6A-B67B-443E-A324-AC5E24D58D88}"/>
-    <hyperlink ref="C52" r:id="rId30" xr:uid="{05128F34-C680-408C-8D22-BDBF9B77A1F3}"/>
-    <hyperlink ref="C57" r:id="rId31" xr:uid="{7B7104F1-31E6-4DF2-84E4-2E17027BE68F}"/>
-    <hyperlink ref="C59" r:id="rId32" xr:uid="{AF15EB3A-1167-4DA5-A83C-34CA3B19D482}"/>
-    <hyperlink ref="C79" r:id="rId33" xr:uid="{35CF107E-9F79-4FF5-A24B-233FFBD63654}"/>
-    <hyperlink ref="C61" r:id="rId34" xr:uid="{CCF22E83-8195-4D83-AC2D-1BF97D19062B}"/>
-    <hyperlink ref="C48" r:id="rId35" xr:uid="{B9F778F9-69DC-4C02-887B-257AD617AD89}"/>
-    <hyperlink ref="C46" r:id="rId36" xr:uid="{65157777-77E3-405E-A6C1-3F698F40861B}"/>
-    <hyperlink ref="C23" r:id="rId37" xr:uid="{509C60A3-4FF2-4F50-919E-FB79C732884B}"/>
-    <hyperlink ref="C28" r:id="rId38" xr:uid="{9F509FDC-02B2-4527-A728-C855C54B46C1}"/>
-    <hyperlink ref="C27" r:id="rId39" xr:uid="{E902244A-ADBE-4A39-90A5-EA65FF1791C4}"/>
-    <hyperlink ref="C49" r:id="rId40" xr:uid="{AF65258D-2756-4EC1-8710-5CFA92DC6679}"/>
-    <hyperlink ref="C70" r:id="rId41" xr:uid="{2E4379D3-3952-482A-8D8C-76022EF1D561}"/>
-    <hyperlink ref="C67" r:id="rId42" xr:uid="{0AAFE1B3-CAFD-41AA-A776-3B55644FBBD9}"/>
-    <hyperlink ref="C66" r:id="rId43" xr:uid="{DEA28E6C-155E-4B9E-8946-00697704A059}"/>
-    <hyperlink ref="C63" r:id="rId44" xr:uid="{7C852368-6444-46F3-8610-F6F20B85E2E0}"/>
-    <hyperlink ref="C60" r:id="rId45" xr:uid="{C6D42E8E-B559-44E5-86BD-D72D4D1437B3}"/>
-    <hyperlink ref="C71" r:id="rId46" xr:uid="{8B688F93-0C38-4C55-85EE-3E43F56475AD}"/>
-    <hyperlink ref="C76" r:id="rId47" xr:uid="{27BC8034-1A41-4D44-83E9-74BB2175F77D}"/>
-    <hyperlink ref="C77" r:id="rId48" xr:uid="{303A90B0-1FD3-4BF9-80CA-A5B948327D43}"/>
-    <hyperlink ref="C78" r:id="rId49" xr:uid="{A7876584-8188-41B7-9B54-8D32FB1C47FE}"/>
-    <hyperlink ref="C82" r:id="rId50" xr:uid="{5DAA545F-6A0B-4A91-8C0F-DFCD98799839}"/>
-    <hyperlink ref="C85" r:id="rId51" xr:uid="{0F405C1B-78B2-4E9C-B847-B2F9E8FD8886}"/>
-    <hyperlink ref="C86" r:id="rId52" xr:uid="{117D55F0-C09A-4F19-A0E8-C91027451BA5}"/>
-    <hyperlink ref="C87" r:id="rId53" xr:uid="{BEB0F265-C2BB-45C7-8027-61EB33DC017F}"/>
-    <hyperlink ref="C88" r:id="rId54" xr:uid="{7E56694E-DAE6-458F-8254-69E3CB4EA9F7}"/>
-    <hyperlink ref="C84" r:id="rId55" xr:uid="{8C92A812-19F1-49FE-8E72-058B032BA782}"/>
-    <hyperlink ref="C62" r:id="rId56" xr:uid="{73C26C64-39A0-4B41-AE53-3CB1ED198E0D}"/>
-    <hyperlink ref="C80" r:id="rId57" xr:uid="{38C785CB-4B49-4CE9-9F7A-AFAC20F407B9}"/>
-    <hyperlink ref="C83" r:id="rId58" xr:uid="{FCC504D1-E86F-4C45-8083-8E6907E8542F}"/>
-    <hyperlink ref="C81" r:id="rId59" xr:uid="{AB809B0B-3E69-4B6B-9527-766A6F4F1C65}"/>
-    <hyperlink ref="C24" r:id="rId60" xr:uid="{18A54E1E-AE6F-4571-B7CA-F8ABA2C71993}"/>
-    <hyperlink ref="C25" r:id="rId61" xr:uid="{B85AE25B-A070-4783-ACC6-C2966B287F35}"/>
-    <hyperlink ref="C31" r:id="rId62" xr:uid="{EE6886B0-BC6E-4E7D-A00F-8E106297826F}"/>
-    <hyperlink ref="C38" r:id="rId63" xr:uid="{D3A2E833-E203-4177-B5F8-445DB632BCF7}"/>
-    <hyperlink ref="C43" r:id="rId64" xr:uid="{B7D3DEA2-E0A3-405B-8742-A83F9FD16ABE}"/>
-    <hyperlink ref="C42" r:id="rId65" xr:uid="{3A19474C-1D03-473E-BFCF-71A071F31867}"/>
-    <hyperlink ref="C12" r:id="rId66" location="ct" xr:uid="{644FCC7C-8F77-43B2-931D-5867CF03E9C6}"/>
-    <hyperlink ref="C17" r:id="rId67" xr:uid="{A56F47EB-316E-4553-BDEC-29D70A52C2DA}"/>
-    <hyperlink ref="C16" r:id="rId68" location="ppxdockshow" xr:uid="{FD7D728E-C6B4-4F3E-B4DB-18FF9D47DA2C}"/>
-    <hyperlink ref="C37" r:id="rId69" location="ppxaux" xr:uid="{EDBEB8EB-37F7-4758-AA9B-C5E01B5E8DD7}"/>
-    <hyperlink ref="C35" r:id="rId70" xr:uid="{6ABA96EE-B4B8-4156-A573-C01458B93F3A}"/>
-    <hyperlink ref="C56" r:id="rId71" display="https://www.adobe.com/jp/products/photoshop.html" xr:uid="{EC66647F-0CF9-4B78-AB74-D843AED9AF8D}"/>
-    <hyperlink ref="C58" r:id="rId72" xr:uid="{ED4BA47F-DB74-45E0-9435-C49FBD96A82C}"/>
-    <hyperlink ref="C2" r:id="rId73" xr:uid="{ECF3E151-433F-4F53-82A2-3F17C3DFE826}"/>
-    <hyperlink ref="C69" r:id="rId74" xr:uid="{E46BCDED-F13C-40C0-84B4-135490605C17}"/>
-    <hyperlink ref="C11" r:id="rId75" xr:uid="{8BB09B49-E3A2-49C5-BC57-2C2A965174F9}"/>
-    <hyperlink ref="C18" r:id="rId76" display="https://www.digitalvolcano.co.uk/dcdownload_versions.html" xr:uid="{4C95B15E-8A37-4208-8CE1-341D7CADB1A1}"/>
-    <hyperlink ref="C47" r:id="rId77" xr:uid="{2402CC55-6F32-4807-8B2D-C2FEB50FBA47}"/>
-    <hyperlink ref="C75" r:id="rId78" xr:uid="{E6D24209-8144-49CD-BA34-B44A6F8E31B5}"/>
-    <hyperlink ref="C39" r:id="rId79" xr:uid="{C4BD4C2D-22F8-420F-8ACC-6A571C34011D}"/>
-    <hyperlink ref="C45" r:id="rId80" xr:uid="{54329105-54CE-4A38-A119-79525956293D}"/>
-    <hyperlink ref="C68" r:id="rId81" xr:uid="{A0BA9827-B49E-4EA7-B5BF-C7D68410CE9D}"/>
-    <hyperlink ref="C64" r:id="rId82" xr:uid="{420C3D43-3941-4F12-A058-728726575143}"/>
-    <hyperlink ref="C44" r:id="rId83" xr:uid="{5A3AD4B4-4B28-4584-970E-1B0CC9253DBF}"/>
+    <hyperlink ref="C4" r:id="rId7" xr:uid="{E5A94E77-4CA6-4A88-86DB-3CA3ED63918E}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{B216D457-FEDD-416C-8759-33F4AEE41A2F}"/>
+    <hyperlink ref="C6" r:id="rId9" xr:uid="{D149D0DC-E797-4782-A907-F6877DC21F49}"/>
+    <hyperlink ref="C49" r:id="rId10" xr:uid="{17824680-FFF6-4704-B5CF-C58717D2D8E3}"/>
+    <hyperlink ref="C39" r:id="rId11" xr:uid="{2A80F6E7-19EC-4143-8C8F-92E3277B406D}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{3EB98344-8E72-45D0-95B4-EFAFFDC883C9}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{C74ED420-9F55-41D7-82C0-8061C7D337D1}"/>
+    <hyperlink ref="C8" r:id="rId14" xr:uid="{C1C3E948-8242-4483-9E44-746E47E8C750}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{7AD216EC-7611-4EA2-8A6A-6C7993302AFB}"/>
+    <hyperlink ref="C24" r:id="rId16" xr:uid="{52BE21B7-361B-48E0-81F3-644146ACFF3F}"/>
+    <hyperlink ref="C27" r:id="rId17" xr:uid="{CF46B7B9-B75D-46C9-83F7-BAAD575A5AA4}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{4F20E7EC-A98A-46A7-B6BF-A558F7064423}"/>
+    <hyperlink ref="C30" r:id="rId19" xr:uid="{B114FCC5-14AF-42F6-92C4-7F0E16122536}"/>
+    <hyperlink ref="C28" r:id="rId20" xr:uid="{B21F9EAD-EE98-4F05-83AD-39A1442CF9FE}"/>
+    <hyperlink ref="C40" r:id="rId21" xr:uid="{81F37CA5-D504-4FFC-B149-647ED2939258}"/>
+    <hyperlink ref="C72" r:id="rId22" xr:uid="{87BC7322-B642-4523-B67F-507222F52B62}"/>
+    <hyperlink ref="C71" r:id="rId23" xr:uid="{F045B122-9BFA-4F6F-9F9B-FF3CC2A36D1B}"/>
+    <hyperlink ref="C73" r:id="rId24" xr:uid="{10F3C95D-D017-48C0-B393-1F819124D4B2}"/>
+    <hyperlink ref="C64" r:id="rId25" xr:uid="{344B870A-05DF-4171-BBA2-F5676D88A8D3}"/>
+    <hyperlink ref="C54" r:id="rId26" xr:uid="{7A8EDE4F-3EF6-4DC6-B2CD-6826D9C6EDA2}"/>
+    <hyperlink ref="C52" r:id="rId27" xr:uid="{D1156D6A-B67B-443E-A324-AC5E24D58D88}"/>
+    <hyperlink ref="C51" r:id="rId28" xr:uid="{05128F34-C680-408C-8D22-BDBF9B77A1F3}"/>
+    <hyperlink ref="C56" r:id="rId29" xr:uid="{7B7104F1-31E6-4DF2-84E4-2E17027BE68F}"/>
+    <hyperlink ref="C58" r:id="rId30" xr:uid="{AF15EB3A-1167-4DA5-A83C-34CA3B19D482}"/>
+    <hyperlink ref="C78" r:id="rId31" xr:uid="{35CF107E-9F79-4FF5-A24B-233FFBD63654}"/>
+    <hyperlink ref="C60" r:id="rId32" xr:uid="{CCF22E83-8195-4D83-AC2D-1BF97D19062B}"/>
+    <hyperlink ref="C47" r:id="rId33" xr:uid="{B9F778F9-69DC-4C02-887B-257AD617AD89}"/>
+    <hyperlink ref="C45" r:id="rId34" xr:uid="{65157777-77E3-405E-A6C1-3F698F40861B}"/>
+    <hyperlink ref="C21" r:id="rId35" xr:uid="{509C60A3-4FF2-4F50-919E-FB79C732884B}"/>
+    <hyperlink ref="C26" r:id="rId36" xr:uid="{9F509FDC-02B2-4527-A728-C855C54B46C1}"/>
+    <hyperlink ref="C25" r:id="rId37" xr:uid="{E902244A-ADBE-4A39-90A5-EA65FF1791C4}"/>
+    <hyperlink ref="C48" r:id="rId38" xr:uid="{AF65258D-2756-4EC1-8710-5CFA92DC6679}"/>
+    <hyperlink ref="C69" r:id="rId39" xr:uid="{2E4379D3-3952-482A-8D8C-76022EF1D561}"/>
+    <hyperlink ref="C66" r:id="rId40" xr:uid="{0AAFE1B3-CAFD-41AA-A776-3B55644FBBD9}"/>
+    <hyperlink ref="C65" r:id="rId41" xr:uid="{DEA28E6C-155E-4B9E-8946-00697704A059}"/>
+    <hyperlink ref="C62" r:id="rId42" xr:uid="{7C852368-6444-46F3-8610-F6F20B85E2E0}"/>
+    <hyperlink ref="C59" r:id="rId43" xr:uid="{C6D42E8E-B559-44E5-86BD-D72D4D1437B3}"/>
+    <hyperlink ref="C70" r:id="rId44" xr:uid="{8B688F93-0C38-4C55-85EE-3E43F56475AD}"/>
+    <hyperlink ref="C75" r:id="rId45" xr:uid="{27BC8034-1A41-4D44-83E9-74BB2175F77D}"/>
+    <hyperlink ref="C76" r:id="rId46" xr:uid="{303A90B0-1FD3-4BF9-80CA-A5B948327D43}"/>
+    <hyperlink ref="C77" r:id="rId47" xr:uid="{A7876584-8188-41B7-9B54-8D32FB1C47FE}"/>
+    <hyperlink ref="C81" r:id="rId48" xr:uid="{5DAA545F-6A0B-4A91-8C0F-DFCD98799839}"/>
+    <hyperlink ref="C84" r:id="rId49" xr:uid="{0F405C1B-78B2-4E9C-B847-B2F9E8FD8886}"/>
+    <hyperlink ref="C85" r:id="rId50" xr:uid="{117D55F0-C09A-4F19-A0E8-C91027451BA5}"/>
+    <hyperlink ref="C86" r:id="rId51" xr:uid="{BEB0F265-C2BB-45C7-8027-61EB33DC017F}"/>
+    <hyperlink ref="C87" r:id="rId52" xr:uid="{7E56694E-DAE6-458F-8254-69E3CB4EA9F7}"/>
+    <hyperlink ref="C83" r:id="rId53" xr:uid="{8C92A812-19F1-49FE-8E72-058B032BA782}"/>
+    <hyperlink ref="C61" r:id="rId54" xr:uid="{73C26C64-39A0-4B41-AE53-3CB1ED198E0D}"/>
+    <hyperlink ref="C79" r:id="rId55" xr:uid="{38C785CB-4B49-4CE9-9F7A-AFAC20F407B9}"/>
+    <hyperlink ref="C82" r:id="rId56" xr:uid="{FCC504D1-E86F-4C45-8083-8E6907E8542F}"/>
+    <hyperlink ref="C80" r:id="rId57" xr:uid="{AB809B0B-3E69-4B6B-9527-766A6F4F1C65}"/>
+    <hyperlink ref="C22" r:id="rId58" xr:uid="{18A54E1E-AE6F-4571-B7CA-F8ABA2C71993}"/>
+    <hyperlink ref="C23" r:id="rId59" xr:uid="{B85AE25B-A070-4783-ACC6-C2966B287F35}"/>
+    <hyperlink ref="C29" r:id="rId60" xr:uid="{EE6886B0-BC6E-4E7D-A00F-8E106297826F}"/>
+    <hyperlink ref="C36" r:id="rId61" xr:uid="{D3A2E833-E203-4177-B5F8-445DB632BCF7}"/>
+    <hyperlink ref="C42" r:id="rId62" xr:uid="{B7D3DEA2-E0A3-405B-8742-A83F9FD16ABE}"/>
+    <hyperlink ref="C41" r:id="rId63" xr:uid="{3A19474C-1D03-473E-BFCF-71A071F31867}"/>
+    <hyperlink ref="C10" r:id="rId64" location="ct" xr:uid="{644FCC7C-8F77-43B2-931D-5867CF03E9C6}"/>
+    <hyperlink ref="C15" r:id="rId65" xr:uid="{A56F47EB-316E-4553-BDEC-29D70A52C2DA}"/>
+    <hyperlink ref="C14" r:id="rId66" location="ppxdockshow" xr:uid="{FD7D728E-C6B4-4F3E-B4DB-18FF9D47DA2C}"/>
+    <hyperlink ref="C35" r:id="rId67" location="ppxaux" xr:uid="{EDBEB8EB-37F7-4758-AA9B-C5E01B5E8DD7}"/>
+    <hyperlink ref="C33" r:id="rId68" xr:uid="{6ABA96EE-B4B8-4156-A573-C01458B93F3A}"/>
+    <hyperlink ref="C55" r:id="rId69" display="https://www.adobe.com/jp/products/photoshop.html" xr:uid="{EC66647F-0CF9-4B78-AB74-D843AED9AF8D}"/>
+    <hyperlink ref="C57" r:id="rId70" xr:uid="{ED4BA47F-DB74-45E0-9435-C49FBD96A82C}"/>
+    <hyperlink ref="C2" r:id="rId71" xr:uid="{ECF3E151-433F-4F53-82A2-3F17C3DFE826}"/>
+    <hyperlink ref="C68" r:id="rId72" xr:uid="{E46BCDED-F13C-40C0-84B4-135490605C17}"/>
+    <hyperlink ref="C9" r:id="rId73" xr:uid="{8BB09B49-E3A2-49C5-BC57-2C2A965174F9}"/>
+    <hyperlink ref="C16" r:id="rId74" display="https://www.digitalvolcano.co.uk/dcdownload_versions.html" xr:uid="{4C95B15E-8A37-4208-8CE1-341D7CADB1A1}"/>
+    <hyperlink ref="C46" r:id="rId75" xr:uid="{2402CC55-6F32-4807-8B2D-C2FEB50FBA47}"/>
+    <hyperlink ref="C74" r:id="rId76" xr:uid="{E6D24209-8144-49CD-BA34-B44A6F8E31B5}"/>
+    <hyperlink ref="C37" r:id="rId77" xr:uid="{C4BD4C2D-22F8-420F-8ACC-6A571C34011D}"/>
+    <hyperlink ref="C44" r:id="rId78" xr:uid="{54329105-54CE-4A38-A119-79525956293D}"/>
+    <hyperlink ref="C67" r:id="rId79" xr:uid="{A0BA9827-B49E-4EA7-B5BF-C7D68410CE9D}"/>
+    <hyperlink ref="C63" r:id="rId80" xr:uid="{420C3D43-3941-4F12-A058-728726575143}"/>
+    <hyperlink ref="C43" r:id="rId81" xr:uid="{5A3AD4B4-4B28-4584-970E-1B0CC9253DBF}"/>
+    <hyperlink ref="C38" r:id="rId82" xr:uid="{51370FCE-C895-48E8-9166-D0270B445932}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId84"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId83"/>
 </worksheet>
 </file>
 
@@ -11641,57 +11613,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1396</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
   </sheetData>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\~EXTMP00\ppx_cust\key検討用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa13264.25635.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E3DDA5-4AAE-479D-99E9-C5306CEEC552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD129F-21B9-42C6-A82A-FA08582CDEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1428">
   <si>
     <t>[BackSpace]</t>
   </si>
@@ -2620,9 +2620,6 @@
     <t>autohotkey</t>
   </si>
   <si>
-    <t>browserie</t>
-  </si>
-  <si>
     <t>calmemo</t>
   </si>
   <si>
@@ -2704,9 +2701,6 @@
     <t>magick</t>
   </si>
   <si>
-    <t>monolith</t>
-  </si>
-  <si>
     <t>mp3tag</t>
   </si>
   <si>
@@ -2746,9 +2740,6 @@
     <t>pic2pdf</t>
   </si>
   <si>
-    <t>popcalc</t>
-  </si>
-  <si>
     <t>rapidee</t>
   </si>
   <si>
@@ -2807,9 +2798,6 @@
   </si>
   <si>
     <t>wiztree</t>
-  </si>
-  <si>
-    <t>wkhtmltopdf</t>
   </si>
   <si>
     <t>xdoc2txt</t>
@@ -2989,13 +2977,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HTML→PDF変換</t>
-    <rPh sb="8" eb="10">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイル比較</t>
     <rPh sb="4" eb="6">
       <t>ヒカク</t>
@@ -3301,17 +3282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://github.com/Y2Z/monolith</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WebページをHTMLファイルに保存</t>
-    <rPh sb="16" eb="18">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ISOファイルへのドライブの割り当て</t>
     <rPh sb="14" eb="15">
       <t>ワ</t>
@@ -3451,20 +3421,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://www.vector.co.jp/soft/win95/personal/se050827.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ぽっぷあっぷ電卓（仮称）</t>
-    <rPh sb="6" eb="8">
-      <t>デンタク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.rapidee.com/ja/about</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3537,10 +3493,6 @@
   </si>
   <si>
     <t>https://forest.watch.impress.co.jp/library/software/wiztree/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://wkhtmltopdf.org</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5374,21 +5326,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>splauncher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://softkomono.chips.jp/SbFolder.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル・フォルダ階層型メニューランチャ</t>
-    <rPh sb="9" eb="12">
-      <t>カイソウガタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5666,10 +5603,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Windowtabs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://github.com/fire-eggs/DarkThumbs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5705,24 +5638,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://github.com/leafOfTree/WindowTabs
-https://github.com/standard-software/WindowTabs/tree/master/exe/WindowTabs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウィンドウをタブでまとめる(日本語化可)</t>
-    <rPh sb="14" eb="17">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クイックアクセス(Quick Access)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5996,17 +5911,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://github.com/chansey97/mintty-standalone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mintty-standalone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターミナルエミュレータminttyの最小セット</t>
-    <rPh sb="18" eb="20">
-      <t>サイショウ</t>
+    <t>browserie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emeditor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://jp.emeditor.com/</t>
+  </si>
+  <si>
+    <t>高速なエディタ</t>
+    <rPh sb="0" eb="2">
+      <t>コウソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6510,7 +6428,7 @@
         <v>639</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>638</v>
@@ -6519,7 +6437,7 @@
         <v>639</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>638</v>
@@ -6528,7 +6446,7 @@
         <v>639</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>638</v>
@@ -6584,16 +6502,16 @@
         <v>521</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1387</v>
+        <v>1374</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
@@ -6602,44 +6520,44 @@
         <v>608</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6650,60 +6568,60 @@
         <v>569</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6711,10 +6629,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
@@ -6723,7 +6641,7 @@
         <v>554</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
@@ -6732,7 +6650,7 @@
         <v>557</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
@@ -6741,14 +6659,14 @@
         <v>556</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
@@ -6757,21 +6675,21 @@
         <v>577</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6782,7 +6700,7 @@
         <v>516</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
@@ -6791,49 +6709,49 @@
         <v>610</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6842,56 +6760,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6902,7 +6820,7 @@
         <v>515</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
@@ -6911,49 +6829,49 @@
         <v>555</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6964,7 +6882,7 @@
         <v>507</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
@@ -6973,7 +6891,7 @@
         <v>593</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
@@ -6982,42 +6900,42 @@
         <v>582</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -7028,56 +6946,56 @@
         <v>509</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7088,56 +7006,56 @@
         <v>510</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7145,59 +7063,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1424</v>
+        <v>1408</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7208,21 +7126,21 @@
         <v>504</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
@@ -7231,35 +7149,35 @@
         <v>642</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
@@ -7270,25 +7188,25 @@
         <v>488</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
@@ -7297,37 +7215,37 @@
         <v>624</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7338,16 +7256,16 @@
         <v>489</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1418</v>
+        <v>1402</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
@@ -7356,7 +7274,7 @@
         <v>545</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
@@ -7365,37 +7283,37 @@
         <v>625</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7406,25 +7324,25 @@
         <v>490</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
@@ -7433,35 +7351,35 @@
         <v>626</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7472,16 +7390,16 @@
         <v>491</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1419</v>
+        <v>1403</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
@@ -7490,7 +7408,7 @@
         <v>546</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
@@ -7499,37 +7417,37 @@
         <v>627</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7537,10 +7455,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
@@ -7549,7 +7467,7 @@
         <v>620</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
@@ -7558,42 +7476,42 @@
         <v>632</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7604,7 +7522,7 @@
         <v>505</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
@@ -7613,7 +7531,7 @@
         <v>621</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
@@ -7622,42 +7540,42 @@
         <v>633</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7665,10 +7583,10 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
@@ -7677,7 +7595,7 @@
         <v>609</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
@@ -7686,14 +7604,14 @@
         <v>583</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
@@ -7702,28 +7620,28 @@
         <v>573</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7731,10 +7649,10 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
@@ -7743,7 +7661,7 @@
         <v>526</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
@@ -7752,42 +7670,42 @@
         <v>527</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7798,7 +7716,7 @@
         <v>643</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
@@ -7807,7 +7725,7 @@
         <v>523</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
@@ -7816,7 +7734,7 @@
         <v>528</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
@@ -7825,7 +7743,7 @@
         <v>602</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
@@ -7834,30 +7752,30 @@
         <v>604</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="Y21" s="9" t="s">
         <v>372</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7868,7 +7786,7 @@
         <v>460</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
@@ -7877,7 +7795,7 @@
         <v>548</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
@@ -7886,16 +7804,16 @@
         <v>529</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
@@ -7904,7 +7822,7 @@
         <v>611</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
@@ -7913,7 +7831,7 @@
         <v>547</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
@@ -7922,14 +7840,14 @@
         <v>613</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7940,7 +7858,7 @@
         <v>634</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
@@ -7949,7 +7867,7 @@
         <v>635</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
@@ -7958,7 +7876,7 @@
         <v>592</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
@@ -7967,7 +7885,7 @@
         <v>537</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
@@ -7976,28 +7894,28 @@
         <v>549</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -8008,7 +7926,7 @@
         <v>629</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
@@ -8017,7 +7935,7 @@
         <v>630</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
@@ -8026,7 +7944,7 @@
         <v>600</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
@@ -8035,37 +7953,37 @@
         <v>538</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -8076,7 +7994,7 @@
         <v>461</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
@@ -8085,49 +8003,49 @@
         <v>601</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8138,16 +8056,16 @@
         <v>462</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
@@ -8156,7 +8074,7 @@
         <v>588</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
@@ -8165,7 +8083,7 @@
         <v>539</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
@@ -8174,28 +8092,28 @@
         <v>612</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8206,7 +8124,7 @@
         <v>463</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
@@ -8215,7 +8133,7 @@
         <v>517</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
@@ -8224,7 +8142,7 @@
         <v>530</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
@@ -8233,7 +8151,7 @@
         <v>540</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
@@ -8242,28 +8160,28 @@
         <v>576</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8274,16 +8192,16 @@
         <v>464</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
@@ -8292,42 +8210,42 @@
         <v>589</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8338,7 +8256,7 @@
         <v>465</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
@@ -8347,7 +8265,7 @@
         <v>518</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
@@ -8356,42 +8274,42 @@
         <v>590</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8402,7 +8320,7 @@
         <v>466</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
@@ -8411,7 +8329,7 @@
         <v>587</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
@@ -8420,7 +8338,7 @@
         <v>591</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
@@ -8429,7 +8347,7 @@
         <v>585</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
@@ -8438,28 +8356,28 @@
         <v>503</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8470,7 +8388,7 @@
         <v>644</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
@@ -8479,7 +8397,7 @@
         <v>524</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
@@ -8488,7 +8406,7 @@
         <v>594</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
@@ -8497,7 +8415,7 @@
         <v>603</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
@@ -8506,28 +8424,28 @@
         <v>605</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8538,7 +8456,7 @@
         <v>467</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
@@ -8547,7 +8465,7 @@
         <v>525</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
@@ -8556,42 +8474,42 @@
         <v>522</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8602,7 +8520,7 @@
         <v>637</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
@@ -8611,14 +8529,14 @@
         <v>578</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
@@ -8627,35 +8545,35 @@
         <v>541</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8666,7 +8584,7 @@
         <v>535</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
@@ -8675,7 +8593,7 @@
         <v>606</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
@@ -8684,44 +8602,44 @@
         <v>570</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1411</v>
+        <v>1395</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1209</v>
+        <v>1199</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8729,10 +8647,10 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1398</v>
+        <v>1382</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
@@ -8741,23 +8659,23 @@
         <v>468</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
@@ -8766,28 +8684,28 @@
         <v>550</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8798,7 +8716,7 @@
         <v>469</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
@@ -8807,51 +8725,51 @@
         <v>584</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8862,7 +8780,7 @@
         <v>628</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
@@ -8871,35 +8789,35 @@
         <v>631</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
@@ -8908,14 +8826,14 @@
         <v>614</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8926,7 +8844,7 @@
         <v>534</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
@@ -8935,7 +8853,7 @@
         <v>558</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
@@ -8944,7 +8862,7 @@
         <v>571</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
@@ -8953,35 +8871,35 @@
         <v>544</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -8992,7 +8910,7 @@
         <v>470</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
@@ -9001,49 +8919,49 @@
         <v>641</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -9051,19 +8969,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1323</v>
+        <v>1313</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1420</v>
+        <v>1404</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
@@ -9072,7 +8990,7 @@
         <v>531</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
@@ -9081,7 +8999,7 @@
         <v>607</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
@@ -9090,28 +9008,28 @@
         <v>551</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9122,7 +9040,7 @@
         <v>471</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
@@ -9131,7 +9049,7 @@
         <v>519</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
@@ -9140,7 +9058,7 @@
         <v>572</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
@@ -9149,7 +9067,7 @@
         <v>542</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
@@ -9158,28 +9076,28 @@
         <v>552</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9190,7 +9108,7 @@
         <v>595</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
@@ -9199,7 +9117,7 @@
         <v>596</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
@@ -9208,14 +9126,14 @@
         <v>532</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
@@ -9224,28 +9142,28 @@
         <v>553</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9253,63 +9171,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1417</v>
+        <v>1401</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9320,7 +9238,7 @@
         <v>472</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
@@ -9329,7 +9247,7 @@
         <v>598</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
@@ -9338,7 +9256,7 @@
         <v>533</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
@@ -9347,35 +9265,35 @@
         <v>543</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>562</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>563</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="AC44" s="1" t="s">
         <v>564</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9386,7 +9304,7 @@
         <v>498</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
@@ -9395,7 +9313,7 @@
         <v>623</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
@@ -9404,42 +9322,42 @@
         <v>565</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9450,7 +9368,7 @@
         <v>499</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
@@ -9459,49 +9377,49 @@
         <v>559</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9512,56 +9430,56 @@
         <v>500</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9572,7 +9490,7 @@
         <v>501</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
@@ -9581,7 +9499,7 @@
         <v>610</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
@@ -9590,42 +9508,42 @@
         <v>572</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9636,14 +9554,14 @@
         <v>502</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
@@ -9652,42 +9570,42 @@
         <v>615</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9695,28 +9613,28 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1427</v>
+        <v>1411</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
@@ -9725,35 +9643,35 @@
         <v>618</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9764,7 +9682,7 @@
         <v>597</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
@@ -9773,7 +9691,7 @@
         <v>574</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
@@ -9782,42 +9700,42 @@
         <v>575</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9825,10 +9743,10 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
@@ -9837,7 +9755,7 @@
         <v>560</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
@@ -9846,42 +9764,42 @@
         <v>567</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
@@ -9889,63 +9807,63 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1439</v>
+        <v>1423</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1438</v>
+        <v>1422</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>1437</v>
+        <v>1421</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
@@ -9956,7 +9874,7 @@
         <v>599</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
@@ -9965,7 +9883,7 @@
         <v>568</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
@@ -9974,42 +9892,42 @@
         <v>566</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -10020,7 +9938,7 @@
         <v>508</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
@@ -10029,7 +9947,7 @@
         <v>561</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
@@ -10038,42 +9956,42 @@
         <v>536</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -10081,63 +9999,63 @@
         <v>64</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1435</v>
+        <v>1419</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>1428</v>
+        <v>1412</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1436</v>
+        <v>1420</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1319</v>
+        <v>1309</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>579</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1320</v>
+        <v>1310</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>580</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1321</v>
+        <v>1311</v>
       </c>
       <c r="AC56" s="1" t="s">
         <v>581</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1322</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10148,7 +10066,7 @@
         <v>506</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
@@ -10157,7 +10075,7 @@
         <v>520</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10168,7 +10086,7 @@
         <v>480</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10179,7 +10097,7 @@
         <v>481</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10190,11 +10108,11 @@
         <v>482</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10205,7 +10123,7 @@
         <v>483</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10216,11 +10134,11 @@
         <v>484</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10231,7 +10149,7 @@
         <v>485</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10242,7 +10160,7 @@
         <v>486</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -10250,10 +10168,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1425</v>
+        <v>1409</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10261,10 +10179,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1426</v>
+        <v>1410</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10273,7 +10191,7 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -10282,7 +10200,7 @@
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10293,7 +10211,7 @@
         <v>514</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10302,7 +10220,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10313,7 +10231,7 @@
         <v>495</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -10321,10 +10239,10 @@
         <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1430</v>
+        <v>1414</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -10335,7 +10253,7 @@
         <v>492</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10346,7 +10264,7 @@
         <v>493</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10357,7 +10275,7 @@
         <v>496</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -10368,7 +10286,7 @@
         <v>512</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10379,7 +10297,7 @@
         <v>622</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10388,7 +10306,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10399,7 +10317,7 @@
         <v>619</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10410,7 +10328,7 @@
         <v>513</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10418,10 +10336,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1431</v>
+        <v>1415</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10429,10 +10347,10 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1432</v>
+        <v>1416</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -10440,10 +10358,10 @@
         <v>616</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1433</v>
+        <v>1417</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -10451,10 +10369,10 @@
         <v>617</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1434</v>
+        <v>1418</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10463,7 +10381,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10474,7 +10392,7 @@
         <v>497</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -10485,7 +10403,7 @@
         <v>586</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -10494,7 +10412,7 @@
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -10505,7 +10423,7 @@
         <v>477</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -10516,7 +10434,7 @@
         <v>478</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -10527,7 +10445,7 @@
         <v>636</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -10539,7 +10457,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB10E0A-3253-4DCD-9B39-542B45E6B4EC}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10552,24 +10470,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -10577,10 +10495,10 @@
         <v>645</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -10588,714 +10506,714 @@
         <v>646</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>647</v>
+        <v>1424</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>1379</v>
+        <v>1366</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1380</v>
+        <v>1367</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>1360</v>
+        <v>1347</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1361</v>
+        <v>1348</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1362</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1364</v>
+        <v>1351</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>1363</v>
+        <v>1350</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1366</v>
+        <v>1353</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>1370</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>657</v>
+        <v>1425</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>740</v>
+        <v>1427</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>782</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>783</v>
+        <v>735</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>741</v>
+        <v>776</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>788</v>
+        <v>736</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>808</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>830</v>
+        <v>781</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>829</v>
+        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>742</v>
+        <v>820</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>796</v>
+        <v>737</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>786</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>736</v>
+        <v>789</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>844</v>
+        <v>738</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>744</v>
+        <v>834</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>747</v>
+      <c r="B31" s="4" t="s">
+        <v>721</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>752</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>1367</v>
+        <v>669</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1368</v>
+        <v>742</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>1369</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>671</v>
+        <v>1354</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>843</v>
+        <v>1355</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>842</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>749</v>
+      <c r="B36" s="4" t="s">
+        <v>831</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>1383</v>
+        <v>673</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1381</v>
+        <v>744</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1382</v>
+        <v>823</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>1441</v>
+        <v>1370</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1442</v>
+        <v>1368</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>1440</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>792</v>
+        <v>826</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>757</v>
+        <v>825</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>678</v>
+        <v>1398</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>835</v>
+        <v>1399</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>834</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>1414</v>
+        <v>1371</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1415</v>
+        <v>1372</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1416</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>1384</v>
+        <v>677</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1385</v>
+        <v>722</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1386</v>
+        <v>797</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>679</v>
+        <v>1359</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>726</v>
+        <v>1360</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>806</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>1372</v>
+        <v>678</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1373</v>
+        <v>723</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>728</v>
+      <c r="B48" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>811</v>
+        <v>755</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>758</v>
+        <v>725</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>750</v>
+        <v>794</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>685</v>
+        <v>1324</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>730</v>
+        <v>1325</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>800</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>1334</v>
+        <v>684</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1335</v>
+        <v>727</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
-        <v>687</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>1330</v>
+        <v>728</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>688</v>
+        <v>1321</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>732</v>
+        <v>1322</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>802</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>1331</v>
+        <v>687</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1332</v>
+        <v>759</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>1333</v>
+        <v>796</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>804</v>
+        <v>688</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>758</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>692</v>
+        <v>1388</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>762</v>
+        <v>1389</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>826</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>693</v>
+        <v>1386</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>1404</v>
+        <v>691</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1405</v>
+        <v>1362</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>1406</v>
+        <v>805</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>1402</v>
+        <v>692</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>766</v>
+        <v>1358</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>694</v>
+        <v>1383</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1375</v>
+        <v>1384</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>814</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1371</v>
+        <v>768</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>1399</v>
+        <v>694</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1400</v>
+        <v>762</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>1401</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>1357</v>
+        <v>695</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1359</v>
+        <v>771</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>1358</v>
+        <v>787</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -11303,10 +11221,10 @@
         <v>696</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -11314,98 +11232,98 @@
         <v>697</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>778</v>
+        <v>1364</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1365</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>794</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>774</v>
+        <v>1352</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>1378</v>
+      <c r="B74" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1376</v>
+        <v>811</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>701</v>
+        <v>1396</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1365</v>
+        <v>754</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>818</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>820</v>
+        <v>749</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>1412</v>
+        <v>703</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1413</v>
+        <v>812</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -11413,10 +11331,10 @@
         <v>704</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -11424,10 +11342,10 @@
         <v>705</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>754</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -11435,10 +11353,10 @@
         <v>706</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>772</v>
+        <v>732</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -11446,10 +11364,10 @@
         <v>707</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -11457,54 +11375,10 @@
         <v>708</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -11512,95 +11386,90 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://web.archive.org/web/20130114222225/http://www.ric.hi-ho.ne.jp/many/many/calmemo.html" xr:uid="{68E3BDAE-D6B6-472A-A56D-166BD3E8C012}"/>
     <hyperlink ref="C12" r:id="rId2" xr:uid="{65C715F6-3108-4C0B-9FD9-4593AB4664DE}"/>
-    <hyperlink ref="C50" r:id="rId3" xr:uid="{40FFE454-D681-4848-BC93-D2F3EBD83538}"/>
-    <hyperlink ref="C34" r:id="rId4" xr:uid="{721C6694-7D60-45AF-BD8E-510FF19D8D78}"/>
-    <hyperlink ref="C31" r:id="rId5" xr:uid="{CE716F1A-B82F-4B7F-81B7-6FE77AD82F10}"/>
+    <hyperlink ref="C49" r:id="rId3" xr:uid="{40FFE454-D681-4848-BC93-D2F3EBD83538}"/>
+    <hyperlink ref="C35" r:id="rId4" xr:uid="{721C6694-7D60-45AF-BD8E-510FF19D8D78}"/>
+    <hyperlink ref="C32" r:id="rId5" xr:uid="{CE716F1A-B82F-4B7F-81B7-6FE77AD82F10}"/>
     <hyperlink ref="C3" r:id="rId6" xr:uid="{1C314206-C552-4381-A4FB-30146843B016}"/>
     <hyperlink ref="C4" r:id="rId7" xr:uid="{E5A94E77-4CA6-4A88-86DB-3CA3ED63918E}"/>
     <hyperlink ref="C5" r:id="rId8" xr:uid="{B216D457-FEDD-416C-8759-33F4AEE41A2F}"/>
     <hyperlink ref="C6" r:id="rId9" xr:uid="{D149D0DC-E797-4782-A907-F6877DC21F49}"/>
-    <hyperlink ref="C49" r:id="rId10" xr:uid="{17824680-FFF6-4704-B5CF-C58717D2D8E3}"/>
-    <hyperlink ref="C39" r:id="rId11" xr:uid="{2A80F6E7-19EC-4143-8C8F-92E3277B406D}"/>
-    <hyperlink ref="C17" r:id="rId12" xr:uid="{3EB98344-8E72-45D0-95B4-EFAFFDC883C9}"/>
-    <hyperlink ref="C18" r:id="rId13" xr:uid="{C74ED420-9F55-41D7-82C0-8061C7D337D1}"/>
-    <hyperlink ref="C8" r:id="rId14" xr:uid="{C1C3E948-8242-4483-9E44-746E47E8C750}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{7AD216EC-7611-4EA2-8A6A-6C7993302AFB}"/>
-    <hyperlink ref="C24" r:id="rId16" xr:uid="{52BE21B7-361B-48E0-81F3-644146ACFF3F}"/>
-    <hyperlink ref="C27" r:id="rId17" xr:uid="{CF46B7B9-B75D-46C9-83F7-BAAD575A5AA4}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{4F20E7EC-A98A-46A7-B6BF-A558F7064423}"/>
-    <hyperlink ref="C30" r:id="rId19" xr:uid="{B114FCC5-14AF-42F6-92C4-7F0E16122536}"/>
-    <hyperlink ref="C28" r:id="rId20" xr:uid="{B21F9EAD-EE98-4F05-83AD-39A1442CF9FE}"/>
-    <hyperlink ref="C40" r:id="rId21" xr:uid="{81F37CA5-D504-4FFC-B149-647ED2939258}"/>
-    <hyperlink ref="C72" r:id="rId22" xr:uid="{87BC7322-B642-4523-B67F-507222F52B62}"/>
-    <hyperlink ref="C71" r:id="rId23" xr:uid="{F045B122-9BFA-4F6F-9F9B-FF3CC2A36D1B}"/>
-    <hyperlink ref="C73" r:id="rId24" xr:uid="{10F3C95D-D017-48C0-B393-1F819124D4B2}"/>
-    <hyperlink ref="C64" r:id="rId25" xr:uid="{344B870A-05DF-4171-BBA2-F5676D88A8D3}"/>
-    <hyperlink ref="C54" r:id="rId26" xr:uid="{7A8EDE4F-3EF6-4DC6-B2CD-6826D9C6EDA2}"/>
-    <hyperlink ref="C52" r:id="rId27" xr:uid="{D1156D6A-B67B-443E-A324-AC5E24D58D88}"/>
-    <hyperlink ref="C51" r:id="rId28" xr:uid="{05128F34-C680-408C-8D22-BDBF9B77A1F3}"/>
-    <hyperlink ref="C56" r:id="rId29" xr:uid="{7B7104F1-31E6-4DF2-84E4-2E17027BE68F}"/>
-    <hyperlink ref="C58" r:id="rId30" xr:uid="{AF15EB3A-1167-4DA5-A83C-34CA3B19D482}"/>
-    <hyperlink ref="C78" r:id="rId31" xr:uid="{35CF107E-9F79-4FF5-A24B-233FFBD63654}"/>
-    <hyperlink ref="C60" r:id="rId32" xr:uid="{CCF22E83-8195-4D83-AC2D-1BF97D19062B}"/>
-    <hyperlink ref="C47" r:id="rId33" xr:uid="{B9F778F9-69DC-4C02-887B-257AD617AD89}"/>
-    <hyperlink ref="C45" r:id="rId34" xr:uid="{65157777-77E3-405E-A6C1-3F698F40861B}"/>
-    <hyperlink ref="C21" r:id="rId35" xr:uid="{509C60A3-4FF2-4F50-919E-FB79C732884B}"/>
-    <hyperlink ref="C26" r:id="rId36" xr:uid="{9F509FDC-02B2-4527-A728-C855C54B46C1}"/>
-    <hyperlink ref="C25" r:id="rId37" xr:uid="{E902244A-ADBE-4A39-90A5-EA65FF1791C4}"/>
-    <hyperlink ref="C48" r:id="rId38" xr:uid="{AF65258D-2756-4EC1-8710-5CFA92DC6679}"/>
-    <hyperlink ref="C69" r:id="rId39" xr:uid="{2E4379D3-3952-482A-8D8C-76022EF1D561}"/>
-    <hyperlink ref="C66" r:id="rId40" xr:uid="{0AAFE1B3-CAFD-41AA-A776-3B55644FBBD9}"/>
-    <hyperlink ref="C65" r:id="rId41" xr:uid="{DEA28E6C-155E-4B9E-8946-00697704A059}"/>
-    <hyperlink ref="C62" r:id="rId42" xr:uid="{7C852368-6444-46F3-8610-F6F20B85E2E0}"/>
-    <hyperlink ref="C59" r:id="rId43" xr:uid="{C6D42E8E-B559-44E5-86BD-D72D4D1437B3}"/>
-    <hyperlink ref="C70" r:id="rId44" xr:uid="{8B688F93-0C38-4C55-85EE-3E43F56475AD}"/>
-    <hyperlink ref="C75" r:id="rId45" xr:uid="{27BC8034-1A41-4D44-83E9-74BB2175F77D}"/>
-    <hyperlink ref="C76" r:id="rId46" xr:uid="{303A90B0-1FD3-4BF9-80CA-A5B948327D43}"/>
-    <hyperlink ref="C77" r:id="rId47" xr:uid="{A7876584-8188-41B7-9B54-8D32FB1C47FE}"/>
-    <hyperlink ref="C81" r:id="rId48" xr:uid="{5DAA545F-6A0B-4A91-8C0F-DFCD98799839}"/>
-    <hyperlink ref="C84" r:id="rId49" xr:uid="{0F405C1B-78B2-4E9C-B847-B2F9E8FD8886}"/>
-    <hyperlink ref="C85" r:id="rId50" xr:uid="{117D55F0-C09A-4F19-A0E8-C91027451BA5}"/>
-    <hyperlink ref="C86" r:id="rId51" xr:uid="{BEB0F265-C2BB-45C7-8027-61EB33DC017F}"/>
-    <hyperlink ref="C87" r:id="rId52" xr:uid="{7E56694E-DAE6-458F-8254-69E3CB4EA9F7}"/>
-    <hyperlink ref="C83" r:id="rId53" xr:uid="{8C92A812-19F1-49FE-8E72-058B032BA782}"/>
-    <hyperlink ref="C61" r:id="rId54" xr:uid="{73C26C64-39A0-4B41-AE53-3CB1ED198E0D}"/>
-    <hyperlink ref="C79" r:id="rId55" xr:uid="{38C785CB-4B49-4CE9-9F7A-AFAC20F407B9}"/>
-    <hyperlink ref="C82" r:id="rId56" xr:uid="{FCC504D1-E86F-4C45-8083-8E6907E8542F}"/>
-    <hyperlink ref="C80" r:id="rId57" xr:uid="{AB809B0B-3E69-4B6B-9527-766A6F4F1C65}"/>
-    <hyperlink ref="C22" r:id="rId58" xr:uid="{18A54E1E-AE6F-4571-B7CA-F8ABA2C71993}"/>
-    <hyperlink ref="C23" r:id="rId59" xr:uid="{B85AE25B-A070-4783-ACC6-C2966B287F35}"/>
-    <hyperlink ref="C29" r:id="rId60" xr:uid="{EE6886B0-BC6E-4E7D-A00F-8E106297826F}"/>
-    <hyperlink ref="C36" r:id="rId61" xr:uid="{D3A2E833-E203-4177-B5F8-445DB632BCF7}"/>
-    <hyperlink ref="C42" r:id="rId62" xr:uid="{B7D3DEA2-E0A3-405B-8742-A83F9FD16ABE}"/>
-    <hyperlink ref="C41" r:id="rId63" xr:uid="{3A19474C-1D03-473E-BFCF-71A071F31867}"/>
-    <hyperlink ref="C10" r:id="rId64" location="ct" xr:uid="{644FCC7C-8F77-43B2-931D-5867CF03E9C6}"/>
-    <hyperlink ref="C15" r:id="rId65" xr:uid="{A56F47EB-316E-4553-BDEC-29D70A52C2DA}"/>
-    <hyperlink ref="C14" r:id="rId66" location="ppxdockshow" xr:uid="{FD7D728E-C6B4-4F3E-B4DB-18FF9D47DA2C}"/>
-    <hyperlink ref="C35" r:id="rId67" location="ppxaux" xr:uid="{EDBEB8EB-37F7-4758-AA9B-C5E01B5E8DD7}"/>
-    <hyperlink ref="C33" r:id="rId68" xr:uid="{6ABA96EE-B4B8-4156-A573-C01458B93F3A}"/>
-    <hyperlink ref="C55" r:id="rId69" display="https://www.adobe.com/jp/products/photoshop.html" xr:uid="{EC66647F-0CF9-4B78-AB74-D843AED9AF8D}"/>
-    <hyperlink ref="C57" r:id="rId70" xr:uid="{ED4BA47F-DB74-45E0-9435-C49FBD96A82C}"/>
-    <hyperlink ref="C2" r:id="rId71" xr:uid="{ECF3E151-433F-4F53-82A2-3F17C3DFE826}"/>
-    <hyperlink ref="C68" r:id="rId72" xr:uid="{E46BCDED-F13C-40C0-84B4-135490605C17}"/>
-    <hyperlink ref="C9" r:id="rId73" xr:uid="{8BB09B49-E3A2-49C5-BC57-2C2A965174F9}"/>
-    <hyperlink ref="C16" r:id="rId74" display="https://www.digitalvolcano.co.uk/dcdownload_versions.html" xr:uid="{4C95B15E-8A37-4208-8CE1-341D7CADB1A1}"/>
-    <hyperlink ref="C46" r:id="rId75" xr:uid="{2402CC55-6F32-4807-8B2D-C2FEB50FBA47}"/>
-    <hyperlink ref="C74" r:id="rId76" xr:uid="{E6D24209-8144-49CD-BA34-B44A6F8E31B5}"/>
-    <hyperlink ref="C37" r:id="rId77" xr:uid="{C4BD4C2D-22F8-420F-8ACC-6A571C34011D}"/>
-    <hyperlink ref="C44" r:id="rId78" xr:uid="{54329105-54CE-4A38-A119-79525956293D}"/>
-    <hyperlink ref="C67" r:id="rId79" xr:uid="{A0BA9827-B49E-4EA7-B5BF-C7D68410CE9D}"/>
-    <hyperlink ref="C63" r:id="rId80" xr:uid="{420C3D43-3941-4F12-A058-728726575143}"/>
-    <hyperlink ref="C43" r:id="rId81" xr:uid="{5A3AD4B4-4B28-4584-970E-1B0CC9253DBF}"/>
-    <hyperlink ref="C38" r:id="rId82" xr:uid="{51370FCE-C895-48E8-9166-D0270B445932}"/>
+    <hyperlink ref="C48" r:id="rId10" xr:uid="{17824680-FFF6-4704-B5CF-C58717D2D8E3}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{3EB98344-8E72-45D0-95B4-EFAFFDC883C9}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{C74ED420-9F55-41D7-82C0-8061C7D337D1}"/>
+    <hyperlink ref="C8" r:id="rId13" xr:uid="{C1C3E948-8242-4483-9E44-746E47E8C750}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{7AD216EC-7611-4EA2-8A6A-6C7993302AFB}"/>
+    <hyperlink ref="C25" r:id="rId15" xr:uid="{52BE21B7-361B-48E0-81F3-644146ACFF3F}"/>
+    <hyperlink ref="C28" r:id="rId16" xr:uid="{CF46B7B9-B75D-46C9-83F7-BAAD575A5AA4}"/>
+    <hyperlink ref="C21" r:id="rId17" xr:uid="{4F20E7EC-A98A-46A7-B6BF-A558F7064423}"/>
+    <hyperlink ref="C31" r:id="rId18" xr:uid="{B114FCC5-14AF-42F6-92C4-7F0E16122536}"/>
+    <hyperlink ref="C29" r:id="rId19" xr:uid="{B21F9EAD-EE98-4F05-83AD-39A1442CF9FE}"/>
+    <hyperlink ref="C39" r:id="rId20" xr:uid="{81F37CA5-D504-4FFC-B149-647ED2939258}"/>
+    <hyperlink ref="C69" r:id="rId21" xr:uid="{87BC7322-B642-4523-B67F-507222F52B62}"/>
+    <hyperlink ref="C68" r:id="rId22" xr:uid="{F045B122-9BFA-4F6F-9F9B-FF3CC2A36D1B}"/>
+    <hyperlink ref="C70" r:id="rId23" xr:uid="{10F3C95D-D017-48C0-B393-1F819124D4B2}"/>
+    <hyperlink ref="C62" r:id="rId24" xr:uid="{344B870A-05DF-4171-BBA2-F5676D88A8D3}"/>
+    <hyperlink ref="C53" r:id="rId25" xr:uid="{7A8EDE4F-3EF6-4DC6-B2CD-6826D9C6EDA2}"/>
+    <hyperlink ref="C51" r:id="rId26" xr:uid="{D1156D6A-B67B-443E-A324-AC5E24D58D88}"/>
+    <hyperlink ref="C50" r:id="rId27" xr:uid="{05128F34-C680-408C-8D22-BDBF9B77A1F3}"/>
+    <hyperlink ref="C55" r:id="rId28" xr:uid="{7B7104F1-31E6-4DF2-84E4-2E17027BE68F}"/>
+    <hyperlink ref="C75" r:id="rId29" xr:uid="{35CF107E-9F79-4FF5-A24B-233FFBD63654}"/>
+    <hyperlink ref="C58" r:id="rId30" xr:uid="{CCF22E83-8195-4D83-AC2D-1BF97D19062B}"/>
+    <hyperlink ref="C46" r:id="rId31" xr:uid="{B9F778F9-69DC-4C02-887B-257AD617AD89}"/>
+    <hyperlink ref="C44" r:id="rId32" xr:uid="{65157777-77E3-405E-A6C1-3F698F40861B}"/>
+    <hyperlink ref="C22" r:id="rId33" xr:uid="{509C60A3-4FF2-4F50-919E-FB79C732884B}"/>
+    <hyperlink ref="C27" r:id="rId34" xr:uid="{9F509FDC-02B2-4527-A728-C855C54B46C1}"/>
+    <hyperlink ref="C26" r:id="rId35" xr:uid="{E902244A-ADBE-4A39-90A5-EA65FF1791C4}"/>
+    <hyperlink ref="C47" r:id="rId36" xr:uid="{AF65258D-2756-4EC1-8710-5CFA92DC6679}"/>
+    <hyperlink ref="C66" r:id="rId37" xr:uid="{2E4379D3-3952-482A-8D8C-76022EF1D561}"/>
+    <hyperlink ref="C64" r:id="rId38" xr:uid="{0AAFE1B3-CAFD-41AA-A776-3B55644FBBD9}"/>
+    <hyperlink ref="C63" r:id="rId39" xr:uid="{DEA28E6C-155E-4B9E-8946-00697704A059}"/>
+    <hyperlink ref="C60" r:id="rId40" xr:uid="{7C852368-6444-46F3-8610-F6F20B85E2E0}"/>
+    <hyperlink ref="C57" r:id="rId41" xr:uid="{C6D42E8E-B559-44E5-86BD-D72D4D1437B3}"/>
+    <hyperlink ref="C67" r:id="rId42" xr:uid="{8B688F93-0C38-4C55-85EE-3E43F56475AD}"/>
+    <hyperlink ref="C72" r:id="rId43" xr:uid="{27BC8034-1A41-4D44-83E9-74BB2175F77D}"/>
+    <hyperlink ref="C73" r:id="rId44" xr:uid="{303A90B0-1FD3-4BF9-80CA-A5B948327D43}"/>
+    <hyperlink ref="C74" r:id="rId45" xr:uid="{A7876584-8188-41B7-9B54-8D32FB1C47FE}"/>
+    <hyperlink ref="C78" r:id="rId46" xr:uid="{5DAA545F-6A0B-4A91-8C0F-DFCD98799839}"/>
+    <hyperlink ref="C81" r:id="rId47" xr:uid="{0F405C1B-78B2-4E9C-B847-B2F9E8FD8886}"/>
+    <hyperlink ref="C82" r:id="rId48" xr:uid="{BEB0F265-C2BB-45C7-8027-61EB33DC017F}"/>
+    <hyperlink ref="C83" r:id="rId49" xr:uid="{7E56694E-DAE6-458F-8254-69E3CB4EA9F7}"/>
+    <hyperlink ref="C80" r:id="rId50" xr:uid="{8C92A812-19F1-49FE-8E72-058B032BA782}"/>
+    <hyperlink ref="C59" r:id="rId51" xr:uid="{73C26C64-39A0-4B41-AE53-3CB1ED198E0D}"/>
+    <hyperlink ref="C76" r:id="rId52" xr:uid="{38C785CB-4B49-4CE9-9F7A-AFAC20F407B9}"/>
+    <hyperlink ref="C79" r:id="rId53" xr:uid="{FCC504D1-E86F-4C45-8083-8E6907E8542F}"/>
+    <hyperlink ref="C77" r:id="rId54" xr:uid="{AB809B0B-3E69-4B6B-9527-766A6F4F1C65}"/>
+    <hyperlink ref="C23" r:id="rId55" xr:uid="{18A54E1E-AE6F-4571-B7CA-F8ABA2C71993}"/>
+    <hyperlink ref="C24" r:id="rId56" xr:uid="{B85AE25B-A070-4783-ACC6-C2966B287F35}"/>
+    <hyperlink ref="C30" r:id="rId57" xr:uid="{EE6886B0-BC6E-4E7D-A00F-8E106297826F}"/>
+    <hyperlink ref="C37" r:id="rId58" xr:uid="{D3A2E833-E203-4177-B5F8-445DB632BCF7}"/>
+    <hyperlink ref="C41" r:id="rId59" xr:uid="{B7D3DEA2-E0A3-405B-8742-A83F9FD16ABE}"/>
+    <hyperlink ref="C40" r:id="rId60" xr:uid="{3A19474C-1D03-473E-BFCF-71A071F31867}"/>
+    <hyperlink ref="C10" r:id="rId61" location="ct" xr:uid="{644FCC7C-8F77-43B2-931D-5867CF03E9C6}"/>
+    <hyperlink ref="C15" r:id="rId62" xr:uid="{A56F47EB-316E-4553-BDEC-29D70A52C2DA}"/>
+    <hyperlink ref="C14" r:id="rId63" location="ppxdockshow" xr:uid="{FD7D728E-C6B4-4F3E-B4DB-18FF9D47DA2C}"/>
+    <hyperlink ref="C36" r:id="rId64" location="ppxaux" xr:uid="{EDBEB8EB-37F7-4758-AA9B-C5E01B5E8DD7}"/>
+    <hyperlink ref="C34" r:id="rId65" xr:uid="{6ABA96EE-B4B8-4156-A573-C01458B93F3A}"/>
+    <hyperlink ref="C54" r:id="rId66" display="https://www.adobe.com/jp/products/photoshop.html" xr:uid="{EC66647F-0CF9-4B78-AB74-D843AED9AF8D}"/>
+    <hyperlink ref="C56" r:id="rId67" xr:uid="{ED4BA47F-DB74-45E0-9435-C49FBD96A82C}"/>
+    <hyperlink ref="C2" r:id="rId68" xr:uid="{ECF3E151-433F-4F53-82A2-3F17C3DFE826}"/>
+    <hyperlink ref="C9" r:id="rId69" xr:uid="{8BB09B49-E3A2-49C5-BC57-2C2A965174F9}"/>
+    <hyperlink ref="C16" r:id="rId70" display="https://www.digitalvolcano.co.uk/dcdownload_versions.html" xr:uid="{4C95B15E-8A37-4208-8CE1-341D7CADB1A1}"/>
+    <hyperlink ref="C45" r:id="rId71" xr:uid="{2402CC55-6F32-4807-8B2D-C2FEB50FBA47}"/>
+    <hyperlink ref="C71" r:id="rId72" xr:uid="{E6D24209-8144-49CD-BA34-B44A6F8E31B5}"/>
+    <hyperlink ref="C38" r:id="rId73" xr:uid="{C4BD4C2D-22F8-420F-8ACC-6A571C34011D}"/>
+    <hyperlink ref="C43" r:id="rId74" xr:uid="{54329105-54CE-4A38-A119-79525956293D}"/>
+    <hyperlink ref="C65" r:id="rId75" xr:uid="{A0BA9827-B49E-4EA7-B5BF-C7D68410CE9D}"/>
+    <hyperlink ref="C61" r:id="rId76" xr:uid="{420C3D43-3941-4F12-A058-728726575143}"/>
+    <hyperlink ref="C42" r:id="rId77" xr:uid="{5A3AD4B4-4B28-4584-970E-1B0CC9253DBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId83"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId78"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022A9556-99E6-4A68-AB00-A91AB9AD041A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11613,66 +11482,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="22.5" x14ac:dyDescent="0.15">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1396</v>
+        <v>1376</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>1394</v>
+        <v>1379</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1389</v>
+        <v>1378</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1388</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>1393</v>
+      <c r="A4" s="12" t="s">
+        <v>1405</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>1422</v>
+        <v>1407</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://github.com/leafOfTree/WindowTabs" xr:uid="{F8524216-C42E-48ED-AA1B-37306944ACBD}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{072CDE9B-251B-45A4-9C77-2C621E01C0B0}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{BB7A3258-0F04-4372-8BD9-15A0E3DA8E9F}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{9CA7D13B-7178-497D-A79E-13A2F117A79E}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{072CDE9B-251B-45A4-9C77-2C621E01C0B0}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{BB7A3258-0F04-4372-8BD9-15A0E3DA8E9F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{9CA7D13B-7178-497D-A79E-13A2F117A79E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/key検討用/ppxkey.xlsx
+++ b/key検討用/ppxkey.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\AppData\Local\Temp\Rar$DIa13264.25635.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gocho\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD129F-21B9-42C6-A82A-FA08582CDEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0AADBA-5B72-456B-81C9-284B8B1FA493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{8C0AACC9-0205-4C35-9D85-1FC5A8EB1662}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1421">
   <si>
     <t>[BackSpace]</t>
   </si>
@@ -1406,13 +1406,6 @@
     <t>[Ctrl+Alt+Shift+F11]</t>
   </si>
   <si>
-    <t>[ScrollLock]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル削除（ごみ箱へ）([D]elete)</t>
-  </si>
-  <si>
     <t>Grep([G]rep)</t>
   </si>
   <si>
@@ -1434,9 +1427,6 @@
     <t>ネットワークドライブ/デバイスイジェクト([N]etwork and eject)</t>
   </si>
   <si>
-    <t>クイックアクセス([Q]uick access)</t>
-  </si>
-  <si>
     <t>名前変更([R]ename)</t>
   </si>
   <si>
@@ -1446,330 +1436,12 @@
     <t>ファイル検索([W]ildcard search)</t>
   </si>
   <si>
-    <t>アプリケーションランチャ(launcher)</t>
-  </si>
-  <si>
-    <t>[#]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[$}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[%]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[&amp;]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイルの分割</t>
   </si>
   <si>
-    <t>ファイルの結合</t>
-    <rPh sb="5" eb="7">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[+]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Aドライブを表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bドライブを表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cドライブを表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dドライブを表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Eドライブを表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fドライブを表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gドライブを表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[←]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル移動左</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル移動上</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル移動右</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル移動下</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特定の名前を選択</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特定の名前を選択解除</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カイジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[?]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エントリ表示書式変更</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細/画像サムネイル表示切替</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ウィンドウ最小化</t>
   </si>
   <si>
-    <t>キーヘルプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名称変更</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル検索</t>
-    <rPh sb="4" eb="6">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カスタマイザ起動</t>
-    <rPh sb="6" eb="8">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再読み込み</t>
-    <rPh sb="0" eb="2">
-      <t>サイヨ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>拡張Logdisk</t>
-    <rPh sb="0" eb="2">
-      <t>カクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全ファイルマーク</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルをゴミ箱へ</t>
-    <rPh sb="7" eb="8">
-      <t>バコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デスクトップを表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エントリマーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規PPc起動(主に3枚目以降。2枚目まではTABで起動可)</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>マイメ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>マイメ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>窓のスクロール（前1ページ）</t>
-    <rPh sb="8" eb="9">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>窓のスクロール（後1ページ）</t>
-    <rPh sb="8" eb="9">
-      <t>ウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[|]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイコンピュータ表示</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ルートディレクトリへ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反対窓を同じパスにする</t>
-    <rPh sb="0" eb="2">
-      <t>ハンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPcを終了（確認あり）</t>
-    <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムのプロパティを表示</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サブディレクトリ以下のファイルサイズ(filesize[I]nfo)</t>
   </si>
   <si>
@@ -1782,74 +1454,12 @@
     <t>デスクトップを表示(Shell形式)</t>
   </si>
   <si>
-    <t>親ディレクトリへ</t>
-    <rPh sb="0" eb="1">
-      <t>オヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新規PPc窓作成</t>
   </si>
   <si>
-    <t>エクスプローラ互換ファイルコピー([C]opy)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エクスプローラ互換ファイル移動([M]ove)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像サムネイルの次順番を入れ替えて隣同士比較</t>
-    <rPh sb="8" eb="9">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>トナリドウシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像サムネイルの前順番を入れ替えて隣同士比較</t>
-    <rPh sb="8" eb="9">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>トナリドウシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>選択エントリの画像ファイルをPPc壁紙へ</t>
   </si>
   <si>
-    <t>エントリをクリップボードにコピー([C]opy)</t>
-  </si>
-  <si>
     <t>起動中のアプリにエントリ上のファイルをドロップ([D]rop open)</t>
   </si>
   <si>
@@ -1865,42 +1475,6 @@
     <t>PPc窓最小化</t>
   </si>
   <si>
-    <t>ツリー一時表示・フォーカス移動([T]ree view)</t>
-    <rPh sb="3" eb="5">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>書庫作成([P]ack archive)</t>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPc新規窓を管理者権限で起動</t>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>編集メニュー(E)</t>
   </si>
   <si>
@@ -1922,29 +1496,6 @@
     <t>ファイルを開くプログラムの選択</t>
   </si>
   <si>
-    <t>ツールメニュー(T)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>同階層の前のサブディレクトリへ</t>
-  </si>
-  <si>
-    <t>同階層の次のサブディレクトリへ</t>
-  </si>
-  <si>
-    <t>空ディレクトリ削除([D]elete Null Directory)</t>
-  </si>
-  <si>
-    <t>ファイル削除（ごみ箱を使わない）([D]elete)</t>
-    <rPh sb="9" eb="10">
-      <t>バコ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(PPtray)メモ</t>
   </si>
   <si>
@@ -1960,658 +1511,16 @@
     <t>(PPtray)アプリケーションランチャ</t>
   </si>
   <si>
-    <t>拡張子判別実行/書庫ビュー(Arc)/ショートカット先へ(lnk)/ディレクトリサイズ(Dir)</t>
-    <rPh sb="0" eb="3">
-      <t>カクチョウシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンベツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開いている窓以外を終了</t>
   </si>
   <si>
-    <t>ファイルプロパティ表示</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>拡張子判別メニュー</t>
-    <rPh sb="0" eb="3">
-      <t>カクチョウシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツリーメニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドライブ情報</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CPU INFO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タブ付き新規窓(*ppc -combo)</t>
-    <rPh sb="2" eb="3">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[Alt+Shift+Z]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[Ctrl+Alt+Z]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[Ctrl+Alt+Shift+Z]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M_xxx形式のメニューをコンフィグから検索して実行（簡易Ppxfazzy)</t>
-    <rPh sb="5" eb="7">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日毎にフォルダを作って仕分け移動</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シワ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソルと同日変更をマスク</t>
-    <rPh sb="5" eb="7">
-      <t>ドウジツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シェルメニュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起動中のPPc・PPvのID切替</t>
-    <rPh sb="0" eb="3">
-      <t>キドウチュウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規ペイン(*ppc -combo起動時のみ有効）</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>キドウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規タブ(*ppc -combo起動時のみ有効）</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タブを閉じる(*ppc -combo起動時のみ有効）</t>
-    <rPh sb="3" eb="4">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全マーク反転</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハンテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カレントディレクトリ以下の文字列検索</t>
-    <rPh sb="10" eb="12">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[A][B]のエントリを一覧表示</t>
-    <rPh sb="12" eb="14">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連動情報表示</t>
-    <rPh sb="0" eb="2">
-      <t>レンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>連動プロパティ表示</t>
   </si>
   <si>
-    <t>CRC32/MD5/ファイル判別/コメント(c[O]mment)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[Alt+Shift+F12]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[Ctrl+Alt+F12]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[Ctrl+Alt+Shift+F12]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全てのエントリをマーク（ディレクトリを含まない）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全てのエントリをマーク(ディレクトリを含む)(select [A]ll)</t>
-    <rPh sb="19" eb="20">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一括名前変更([R]ename)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パス移動</t>
-    <rPh sb="2" eb="4">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィルタを通してPPVで表示</t>
-    <rPh sb="5" eb="6">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パス変更</t>
-    <rPh sb="2" eb="4">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル移動左←</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル移動下↓</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル移動上↑</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル移動右→</t>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エクスプローラで開く([E]xplorer)</t>
-    <rPh sb="8" eb="9">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マークされたエントリからカーソルのあるエントリまで範囲マーク</t>
   </si>
   <si>
-    <t>一行メモ</t>
-    <rPh sb="0" eb="1">
-      <t>イチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コマンド実行(shell e[X]ecute)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリケーションを一覧から選択して実行</t>
-    <rPh sb="9" eb="11">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リストファイルに保存/リストファイルを開く</t>
-    <rPh sb="8" eb="10">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルリストから選択したファイルを実行</t>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エントリパスを補完リストに登録</t>
-    <rPh sb="7" eb="9">
-      <t>ホカン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Everything起動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスリストから選択して移動([G]o Path)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPxデフォルトファイルコピー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPxデフォルトファイル移動</t>
-    <rPh sb="12" eb="14">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>処理対象を限定してコピー</t>
-    <rPh sb="5" eb="7">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>処理対象を限定して移動</t>
-    <rPh sb="5" eb="7">
-      <t>ゲンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pathstoreにパスを送る/まとめて開く</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPv[A]～[X]で表示(複数ファイルまとめ読込/バイナリ→テキスト表示)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上位ディレクトリを開く</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイムスタンプを別ファイルにコピー</t>
-    <rPh sb="8" eb="9">
-      <t>ベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALLTASKSコントロールパネルを表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リストファイルからエントリを除外</t>
-    <rPh sb="14" eb="16">
-      <t>ジョガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(PPtray)ダイアログにエントリのパスを送る(DialogHandler)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テンポラリファイル削除([D]elete tempfile)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ショートカット作成(make [S]hortcut)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディレクトリの更新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[{]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[}]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>窓サイズをエントリ表示に合わせてフィット</t>
-  </si>
-  <si>
-    <t>マスク解除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>拡大表示</t>
-    <rPh sb="0" eb="2">
-      <t>カクダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>縮小表示</t>
-    <rPh sb="0" eb="2">
-      <t>シュクショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反対ペインに切り替え</t>
-    <rPh sb="0" eb="2">
-      <t>ハンタイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPxヘルプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>窓を左へ動かす</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>窓を上へ動かす</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>窓を右へ動かす</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>窓を下に動かす</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エントリのソート（一時設定）([S]ort file)</t>
-    <rPh sb="9" eb="11">
-      <t>イチジ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルマスク（一時設定）([F]ind File)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルマスク（保持設定）([F]ind File)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エントリのソート（保持設定）([S]ort file)</t>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル位置の下に除去したエントリを挿入(エントリPOP)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル位置のエントリを除去(エントリPUSH)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エディタで新規タブを開いて編集([E]dit)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エディタで新規ウィンドウを開いて編集</t>
-    <rPh sb="5" eb="7">
-      <t>シンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起動中のアプリにエントリ上のファイルをドロップ</t>
-    <rPh sb="0" eb="2">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル比較(c[O]mpare)</t>
-    <rPh sb="4" eb="6">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>動作</t>
-    <rPh sb="0" eb="2">
-      <t>ドウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コマンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部ツールで書庫解凍([U]npack archive)</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>窓が画面外に出てしまったとき、画面内へ窓を移動</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルコピー([C]opy)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル移動([M]ove)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>aria2</t>
@@ -5077,61 +3986,6 @@
     <t>%k"^&amp;\F12"</t>
   </si>
   <si>
-    <t>PPv[A]～[W]で表示(VIX風な複数起動可/バイナリ→テキスト表示)([V]iew file)</t>
-    <rPh sb="17" eb="18">
-      <t>フウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPv[Y]で表示(acdsee風なホイールで前/次ファイル)</t>
-    <rPh sb="16" eb="17">
-      <t>フウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前の独立窓/タブへ</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ドクリツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>マド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次の独立窓/タブへ</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1ページ前へ</t>
-    <rPh sb="4" eb="5">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1ページ次へ</t>
-    <rPh sb="4" eb="5">
-      <t>ツギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バイナリ変換</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.adobe.com/jp/products/photoshop.html
 http://toastytech.com/files/setup.html</t>
     <phoneticPr fontId="1"/>
@@ -5169,96 +4023,6 @@
     <t>https://github.com/hymkor/PathToClip</t>
   </si>
   <si>
-    <t>エントリ表示の並べ替え(上方向）</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ホウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エントリ表示の並べ替え(下方向）</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ホウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>:個人的によく使う機能</t>
-    <rPh sb="1" eb="4">
-      <t>コジンテキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディレクトリメニュー(D)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クイックアクセスメニュー(Q)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツリーメニュー(R)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サブディレクトリへ(Dir)/エクスプローラ互換実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インクリメンタルサーチ（クイック）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更からN日以内のファイルをマスク</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タブ付き新規窓(*ppc -combo)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>:まあまあよく使う機能</t>
-    <rPh sb="7" eb="8">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPc PPv順次切り替え</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>allrename</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5274,59 +4038,6 @@
   </si>
   <si>
     <t>https://beefway.sakura.ne.jp/dl-allrename.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エントリ名の取得</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID別に記憶したディレクトリにジャンプ([.](カレントディレクトリを指すエントリ)でENTER押して記憶)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直近のパス入力履歴に移動。現在のディレクトリが直近のパス入力履歴なら直前のディレクトリに移動</t>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>リレキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索(ワイルドカード・拡張子分離)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在開いている窓・タブ全てから検索</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンサク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5576,13 +4287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ListFileの実体エントリを開く</t>
-    <rPh sb="10" eb="11">
-      <t>タイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://github.com/Meitinger/iFilter4Archives</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5638,10 +4342,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クイックアクセス(Quick Access)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>soyokaze</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5686,30 +4386,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>属性変更（[A]ttribute）</t>
-    <rPh sb="0" eb="2">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(PPtray)PPcアクティブ化</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>このIDのPPc履歴</t>
-    <rPh sb="8" eb="10">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPbで実行(s[H]ell)</t>
-  </si>
-  <si>
     <t>PPbで実行</t>
   </si>
   <si>
@@ -5730,31 +4410,6 @@
   </si>
   <si>
     <t>https://picard.musicbrainz.org/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MIEL風PPc/PPv連動ビュー実行</t>
-    <rPh sb="4" eb="5">
-      <t>フウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル↑＋チッププレビュー表示</t>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カーソル↓＋チッププレビュー表示</t>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チッププレビュー表示</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5773,142 +4428,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全ディレクトリ・ファイルマーク</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後に変更したファイルエントリにジャンプして、本日変更したファイルをハイライト</t>
-    <rPh sb="0" eb="2">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ホンジツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最後にアクセスしたファイルエントリにジャンプ</t>
-  </si>
-  <si>
-    <t>検索(部分一致・拡張子一体)/コメント検索</t>
-    <rPh sb="19" eb="21">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハードリンク作成</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連動パス・表示パス同期</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPxIDを検索して窓選択</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名を短く表示(MC_celSの一時設定に保存)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名を長く表示(MC_celSの一時設定に保存)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名を短く表示(MC_celSの保持設定に保存)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル名を長く表示(MC_celSの保持設定に保存)</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エントリ複製</t>
-    <rPh sb="4" eb="6">
-      <t>フクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディレクトリ複製(複製ファイルをフィルタ)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターミナルを管理者権限で起動</t>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPbで実行</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターミナル起動</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>browserie</t>
@@ -5927,6 +4447,570 @@
       <t>コウソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー</t>
+  </si>
+  <si>
+    <t>動作</t>
+  </si>
+  <si>
+    <t>親ディレクトリへ</t>
+  </si>
+  <si>
+    <t>ListFileの実体エントリを開く</t>
+  </si>
+  <si>
+    <t>上位ディレクトリを開く</t>
+  </si>
+  <si>
+    <t>直近のパス入力履歴に移動。現在のディレクトリが直近のパス入力履歴なら直前のディレクトリに移動</t>
+  </si>
+  <si>
+    <t>起動中のPPc・PPvのID切替</t>
+  </si>
+  <si>
+    <t>PPc PPv順次切り替え</t>
+  </si>
+  <si>
+    <t>サブディレクトリへ(Dir)/エクスプローラ互換実行</t>
+  </si>
+  <si>
+    <t>書庫ビュー(Arc)/ショートカット先へ(lnk)/ディレクトリサイズ(Dir)/拡張子判別実行</t>
+  </si>
+  <si>
+    <t>拡張子判別メニュー</t>
+  </si>
+  <si>
+    <t>ファイルプロパティ表示</t>
+  </si>
+  <si>
+    <t>システムのプロパティを表示</t>
+  </si>
+  <si>
+    <t>ALLTASKSコントロールパネルを表示</t>
+  </si>
+  <si>
+    <t>PPcを終了（確認あり）</t>
+  </si>
+  <si>
+    <t>エントリマーク</t>
+  </si>
+  <si>
+    <t>全てのエントリをマーク（ディレクトリを含まない）</t>
+  </si>
+  <si>
+    <t>窓のスクロール（前1ページ）</t>
+  </si>
+  <si>
+    <t>窓のスクロール（後1ページ）</t>
+  </si>
+  <si>
+    <t>全ディレクトリ・ファイルマーク</t>
+  </si>
+  <si>
+    <t>全ファイルマーク</t>
+  </si>
+  <si>
+    <t>窓が画面外に出てしまったとき、画面内へ窓を移動</t>
+  </si>
+  <si>
+    <t>[←]</t>
+  </si>
+  <si>
+    <t>カーソル移動左</t>
+  </si>
+  <si>
+    <t>1ページ前へ</t>
+  </si>
+  <si>
+    <t>前の独立窓/タブ</t>
+  </si>
+  <si>
+    <t>窓を左へ動かす</t>
+  </si>
+  <si>
+    <t>このIDのppc履歴</t>
+  </si>
+  <si>
+    <t>カーソル移動上</t>
+  </si>
+  <si>
+    <t>カーソルup＋チッププレビュー表示</t>
+  </si>
+  <si>
+    <t>同階層の前のディレクトリへ</t>
+  </si>
+  <si>
+    <t>窓を上へ動かす</t>
+  </si>
+  <si>
+    <t>エントリ表示の並べ替え(上方向）</t>
+  </si>
+  <si>
+    <t>カーソル移動右</t>
+  </si>
+  <si>
+    <t>1ページ次へ</t>
+  </si>
+  <si>
+    <t>次の独立窓/タブ</t>
+  </si>
+  <si>
+    <t>窓を右へ動かす</t>
+  </si>
+  <si>
+    <t>カーソル移動下</t>
+  </si>
+  <si>
+    <t>カーソルdown＋チッププレビュー表示</t>
+  </si>
+  <si>
+    <t>同階層の次のディレクトリへ</t>
+  </si>
+  <si>
+    <t>窓を下に動かす</t>
+  </si>
+  <si>
+    <t>エントリ表示の並べ替え(下方向）</t>
+  </si>
+  <si>
+    <t>ID別に記憶したディレクトリにジャンプ([.](カレントディレクトリを指すエントリ)でENTER押して記憶)</t>
+  </si>
+  <si>
+    <t>拡大表示</t>
+  </si>
+  <si>
+    <t>カーソル位置の下に除去したエントリを挿入(エントリPOP)</t>
+  </si>
+  <si>
+    <t>ファイル削除（ごみ箱へ）</t>
+  </si>
+  <si>
+    <t>縮小表示</t>
+  </si>
+  <si>
+    <t>カーソル位置のエントリを除去(エントリPUSH)</t>
+  </si>
+  <si>
+    <t>属性変更([A]ttribute)</t>
+  </si>
+  <si>
+    <t>タイムスタンプを別ファイルにコピー</t>
+  </si>
+  <si>
+    <t>全てのエントリをマーク(ディレクトリを含む)(select All)</t>
+  </si>
+  <si>
+    <t>全マーク反転</t>
+  </si>
+  <si>
+    <t>バイナリ変換([B]inary)</t>
+  </si>
+  <si>
+    <t>画像サムネイルの前順番を入れ替えて隣同士比較</t>
+  </si>
+  <si>
+    <t>エントリパスを補完リストに登録</t>
+  </si>
+  <si>
+    <t>エントリコピー([C]opy)</t>
+  </si>
+  <si>
+    <t>エクスプローラ互換エントリコピー</t>
+  </si>
+  <si>
+    <t>エントリをクリップボードにコピー</t>
+  </si>
+  <si>
+    <t>高機能なエントリコピー(フィルタ指定/FastCopy)</t>
+  </si>
+  <si>
+    <t>PPc標準のエントリコピー</t>
+  </si>
+  <si>
+    <t>エントリ削除（ごみ箱へ）([D]elete)</t>
+  </si>
+  <si>
+    <t>エントリ削除（ごみ箱を使わない）([D]elete)</t>
+  </si>
+  <si>
+    <t>ディレクトリメニュー(D)</t>
+  </si>
+  <si>
+    <t>リストファイルからエントリを消去(実体は削除しない)</t>
+  </si>
+  <si>
+    <t>空ディレクトリ削除</t>
+  </si>
+  <si>
+    <t>テンポラリファイル削除(Delete tempfile)</t>
+  </si>
+  <si>
+    <t>エディタで新規タブを開いて編集([E]dit)</t>
+  </si>
+  <si>
+    <t>エディタで新規ウィンドウを開いて編集</t>
+  </si>
+  <si>
+    <t>エクスプローラで開く(Explorer)</t>
+  </si>
+  <si>
+    <t>ファイルマスク（一時設定）([F]ind)</t>
+  </si>
+  <si>
+    <t>ファイルマスク（保持設定）([F]ind)</t>
+  </si>
+  <si>
+    <t>Everything起動</t>
+  </si>
+  <si>
+    <t>パスリストから選択して移動([G]o path)</t>
+  </si>
+  <si>
+    <t>PPbで実行(sHell)</t>
+  </si>
+  <si>
+    <t>ダイアログでエントリのパスを開く(DialogHandler)</t>
+  </si>
+  <si>
+    <t>連動情報表示</t>
+  </si>
+  <si>
+    <t>インクリメンタルサーチ（クイック）</t>
+  </si>
+  <si>
+    <t>パス変更</t>
+  </si>
+  <si>
+    <t>パス移動</t>
+  </si>
+  <si>
+    <t>ドライブ変更（非表示含む）</t>
+  </si>
+  <si>
+    <t>エントリ移動([M]ove)</t>
+  </si>
+  <si>
+    <t>エクスプローラ互換ファイル移動</t>
+  </si>
+  <si>
+    <t>一行メモ</t>
+  </si>
+  <si>
+    <t>高機能なエントリ移動(フィルタ指定/FastCopy)</t>
+  </si>
+  <si>
+    <t>PPc標準のエントリ移動</t>
+  </si>
+  <si>
+    <t>画像サムネイルの次順番を入れ替えて隣同士比較</t>
+  </si>
+  <si>
+    <t>ファイル比較(c[O]mpare)</t>
+  </si>
+  <si>
+    <t>CRC32/MD5/ファイル判別/コメント(c[O]mment)</t>
+  </si>
+  <si>
+    <t>書庫に圧縮([P]ack archive)</t>
+  </si>
+  <si>
+    <t>Pathstoreにパスを送る/まとめて開く</t>
+  </si>
+  <si>
+    <t>新規ペイン(*ppc -combo起動時のみ有効）</t>
+  </si>
+  <si>
+    <t>クイックアクセス([Q]uick Access)</t>
+  </si>
+  <si>
+    <t>クイックアクセスメニュー</t>
+  </si>
+  <si>
+    <t>クイックアクセスメニュー(Q)</t>
+  </si>
+  <si>
+    <t>一括名前変更(Rename)</t>
+  </si>
+  <si>
+    <t>ツリーメニュー(R)</t>
+  </si>
+  <si>
+    <t>エントリのソート（一時設定）([S]ort file)</t>
+  </si>
+  <si>
+    <t>エントリのソート（保持設定）([S]ort file)</t>
+  </si>
+  <si>
+    <t>ショートカット作成(make Shortcut)</t>
+  </si>
+  <si>
+    <t>ツリー一時表示・フォーカス移動([T]ree view)</t>
+  </si>
+  <si>
+    <t>ツリーメニュー</t>
+  </si>
+  <si>
+    <t>新規タブ(*ppc -combo起動時のみ有効）</t>
+  </si>
+  <si>
+    <t>ツールメニュー(T)</t>
+  </si>
+  <si>
+    <t>外部ソフトで書庫解凍([U]npack archive)</t>
+  </si>
+  <si>
+    <t>PPv[A]～[W]で表示(VIX風な複数起動可/バイナリrightテキスト表示)(View file)</t>
+  </si>
+  <si>
+    <t>チッププレビュー表示</t>
+  </si>
+  <si>
+    <t>PPv[A]～[X]で表示(複数ファイルまとめ読込/バイナリrightテキスト表示)</t>
+  </si>
+  <si>
+    <t>タブを閉じる(*ppc -combo起動時のみ有効）</t>
+  </si>
+  <si>
+    <t>コマンド実行(shell e[X]ecute)</t>
+  </si>
+  <si>
+    <t>アプリケーションを一覧から選択して実行</t>
+  </si>
+  <si>
+    <t>PPv[Y]で表示(ACDSee風なホイールで前/次ファイル)</t>
+  </si>
+  <si>
+    <t>MIEL風PPc/PPv連動ビュー実行</t>
+  </si>
+  <si>
+    <t>連動パス・表示パス同期</t>
+  </si>
+  <si>
+    <t>アプリケーションランチャ(Applauncher)</t>
+  </si>
+  <si>
+    <t>ファイルリストから選択したファイルを実行</t>
+  </si>
+  <si>
+    <t>[Alt+Shift+Z]</t>
+  </si>
+  <si>
+    <t>[Ctrl+Alt+Z]</t>
+  </si>
+  <si>
+    <t>[Ctrl+Alt+Shift+Z]</t>
+  </si>
+  <si>
+    <t>キーヘルプ</t>
+  </si>
+  <si>
+    <t>ppxヘルプ</t>
+  </si>
+  <si>
+    <t>M_xxx形式のメニューをコンフィグから検索して実行（簡易Ppxfazzy)</t>
+  </si>
+  <si>
+    <t>名称変更</t>
+  </si>
+  <si>
+    <t>ドライブ情報</t>
+  </si>
+  <si>
+    <t>ファイル検索</t>
+  </si>
+  <si>
+    <t>カスタマイザ起動</t>
+  </si>
+  <si>
+    <t>再読み込み</t>
+  </si>
+  <si>
+    <t>ディレクトリの更新</t>
+  </si>
+  <si>
+    <t>検索(ワイルドカード・拡張子分離)</t>
+  </si>
+  <si>
+    <t>検索(部分一致・拡張子一体)/コメント検索</t>
+  </si>
+  <si>
+    <t>現在開いている窓・タブ全てから検索</t>
+  </si>
+  <si>
+    <t>リストファイルに保存/リストファイルを開く</t>
+  </si>
+  <si>
+    <t>カレントディレクトリ以下の文字列検索</t>
+  </si>
+  <si>
+    <t>PPc[A][B]のエントリを一覧表示</t>
+  </si>
+  <si>
+    <t>変更からN日以内のエントリをマスク</t>
+  </si>
+  <si>
+    <t>CPU INFO</t>
+  </si>
+  <si>
+    <t>カーソルと同日変更をマスク</t>
+  </si>
+  <si>
+    <t>ターミナル起動</t>
+  </si>
+  <si>
+    <t>ターミナルを管理者権限で起動</t>
+  </si>
+  <si>
+    <t>エントリ名取得</t>
+  </si>
+  <si>
+    <t>シェルメニュー</t>
+  </si>
+  <si>
+    <t>日毎にフォルダを作って仕分け移動</t>
+  </si>
+  <si>
+    <t>新規PPc起動(主に3枚目以降。2枚目まではTABで起動可)</t>
+  </si>
+  <si>
+    <t>タブ付き新規窓(*ppc -combo)</t>
+  </si>
+  <si>
+    <t>PPc新規窓を管理者権限で起動</t>
+  </si>
+  <si>
+    <t>エントリ複製</t>
+  </si>
+  <si>
+    <t>ハードリンク作成</t>
+  </si>
+  <si>
+    <t>ディレクトリ複製(複製ファイルをフィルタ)</t>
+  </si>
+  <si>
+    <t>[Alt+Shift+F12]</t>
+  </si>
+  <si>
+    <t>[Ctrl+Alt+F12]</t>
+  </si>
+  <si>
+    <t>[Ctrl+Alt+Shift+F12]</t>
+  </si>
+  <si>
+    <t>デスクトップを表示</t>
+  </si>
+  <si>
+    <t>Aドライブを表示</t>
+  </si>
+  <si>
+    <t>Bドライブを表示</t>
+  </si>
+  <si>
+    <t>Cドライブを表示</t>
+  </si>
+  <si>
+    <t>:個人的によく使う機能</t>
+  </si>
+  <si>
+    <t>Dドライブを表示</t>
+  </si>
+  <si>
+    <t>Eドライブを表示</t>
+  </si>
+  <si>
+    <t>:まあまあよく使う機能</t>
+  </si>
+  <si>
+    <t>Fドライブを表示</t>
+  </si>
+  <si>
+    <t>Gドライブを表示</t>
+  </si>
+  <si>
+    <t>最後に変更したファイルエントリにジャンプして、本日変更したエントリをハイライト</t>
+  </si>
+  <si>
+    <t>[ScrollLock]</t>
+  </si>
+  <si>
+    <t>他窓と同じパスにする</t>
+  </si>
+  <si>
+    <t>エントリ表示書式変更</t>
+  </si>
+  <si>
+    <t>PPxIDを検索して窓選択</t>
+  </si>
+  <si>
+    <t>[+]</t>
+  </si>
+  <si>
+    <t>特定の名前をマーク</t>
+  </si>
+  <si>
+    <t>特定の名前をマーク解除</t>
+  </si>
+  <si>
+    <t>詳細/画像サムネイル表示切替</t>
+  </si>
+  <si>
+    <t>[|]</t>
+  </si>
+  <si>
+    <t>マイコンピュータ表示</t>
+  </si>
+  <si>
+    <t>反対ペインに切り替え</t>
+  </si>
+  <si>
+    <t>マスク解除</t>
+  </si>
+  <si>
+    <t>ルートディレクトリへ</t>
+  </si>
+  <si>
+    <t>ファイル名を短く表示(MC_celSの一時設定)</t>
+  </si>
+  <si>
+    <t>]ファイル名を長く表示(MC_celSの一時設定)</t>
+  </si>
+  <si>
+    <t>[{]</t>
+  </si>
+  <si>
+    <t>ファイル名を短く表示(MC_celSの保持設定)</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>ファイル名を長く表示(MC_celSの保持設定)</t>
+  </si>
+  <si>
+    <t>[#]</t>
+  </si>
+  <si>
+    <t>フィルタを通してPPvで表示</t>
+  </si>
+  <si>
+    <t>[$}</t>
+  </si>
+  <si>
+    <t>[%]</t>
+  </si>
+  <si>
+    <t>[&amp;]</t>
+  </si>
+  <si>
+    <t>ファイルの結合</t>
+  </si>
+  <si>
+    <t>[?]</t>
+  </si>
+  <si>
+    <t>起動中のアプリにエントリ上のファイルをドロップ</t>
   </si>
 </sst>
 </file>
@@ -6391,7 +5475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA87CFEE-E1C7-4DFD-A885-7767689DA043}">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6422,76 +5508,76 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>638</v>
+        <v>1233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>639</v>
+        <v>1234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>836</v>
+        <v>689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>638</v>
+        <v>1233</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>639</v>
+        <v>1234</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>836</v>
+        <v>689</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>638</v>
+        <v>1233</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>639</v>
+        <v>1234</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>836</v>
+        <v>689</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>638</v>
+        <v>1233</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>639</v>
+        <v>1234</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>638</v>
+        <v>1233</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>639</v>
+        <v>1234</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>638</v>
+        <v>1233</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>639</v>
+        <v>1234</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>638</v>
+        <v>1233</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>639</v>
+        <v>1234</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>638</v>
+        <v>1233</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>639</v>
+        <v>1234</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
@@ -6499,65 +5585,65 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>521</v>
+        <v>1235</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>837</v>
+        <v>690</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1374</v>
+        <v>1236</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>927</v>
+        <v>780</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>608</v>
+        <v>1237</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>983</v>
+        <v>836</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>190</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>1344</v>
+        <v>1238</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>1038</v>
+        <v>891</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>245</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>1039</v>
+        <v>892</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>300</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1" t="s">
-        <v>1040</v>
+        <v>893</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>353</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1" t="s">
-        <v>1041</v>
+        <v>894</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>406</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>1042</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
@@ -6565,63 +5651,63 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>569</v>
+        <v>1239</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>838</v>
+        <v>691</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1336</v>
+        <v>475</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>928</v>
+        <v>781</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1338</v>
+        <v>1240</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>984</v>
+        <v>837</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>1043</v>
+        <v>896</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>246</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>1044</v>
+        <v>897</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>1045</v>
+        <v>898</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>354</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1" t="s">
-        <v>1046</v>
+        <v>899</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>407</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>1047</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
@@ -6629,67 +5715,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1333</v>
+        <v>1241</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>839</v>
+        <v>692</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>554</v>
+        <v>1242</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>929</v>
+        <v>782</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>137</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>557</v>
+        <v>1243</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>985</v>
+        <v>838</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>192</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>556</v>
+        <v>1244</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1048</v>
+        <v>901</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>247</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1" t="s">
-        <v>1049</v>
+        <v>902</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>302</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>577</v>
+        <v>495</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>1050</v>
+        <v>903</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>355</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1" t="s">
-        <v>1051</v>
+        <v>904</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>408</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>1052</v>
+        <v>905</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
@@ -6697,61 +5783,61 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>516</v>
+        <v>1245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>840</v>
+        <v>693</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>610</v>
+        <v>1246</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>930</v>
+        <v>783</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>138</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>986</v>
+        <v>839</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>193</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>1053</v>
+        <v>906</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>248</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>1054</v>
+        <v>907</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>303</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>1055</v>
+        <v>908</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>356</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1" t="s">
-        <v>1056</v>
+        <v>909</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>409</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1" t="s">
-        <v>1057</v>
+        <v>910</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
@@ -6760,56 +5846,56 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>841</v>
+        <v>694</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>931</v>
+        <v>784</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>987</v>
+        <v>840</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>194</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>1058</v>
+        <v>911</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>249</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1" t="s">
-        <v>1059</v>
+        <v>912</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>304</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1" t="s">
-        <v>1060</v>
+        <v>913</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>357</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1" t="s">
-        <v>1061</v>
+        <v>914</v>
       </c>
       <c r="AC6" s="1" t="s">
         <v>410</v>
       </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>1062</v>
+        <v>915</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
@@ -6817,61 +5903,61 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>515</v>
+        <v>1247</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>842</v>
+        <v>695</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>555</v>
+        <v>494</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>932</v>
+        <v>785</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>140</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>988</v>
+        <v>841</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>195</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>1063</v>
+        <v>916</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>250</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
-        <v>1064</v>
+        <v>917</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>305</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1" t="s">
-        <v>1065</v>
+        <v>918</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>358</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1" t="s">
-        <v>1066</v>
+        <v>919</v>
       </c>
       <c r="AC7" s="1" t="s">
         <v>411</v>
       </c>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>1067</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
@@ -6879,63 +5965,63 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>507</v>
+        <v>1248</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>843</v>
+        <v>696</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>593</v>
+        <v>496</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>933</v>
+        <v>786</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>582</v>
+        <v>1249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>989</v>
+        <v>842</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>196</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>1068</v>
+        <v>921</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>251</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
-        <v>1069</v>
+        <v>922</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1" t="s">
-        <v>1070</v>
+        <v>923</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>359</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1" t="s">
-        <v>1071</v>
+        <v>924</v>
       </c>
       <c r="AC8" s="1" t="s">
         <v>412</v>
       </c>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1" t="s">
-        <v>1072</v>
+        <v>925</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -6943,59 +6029,59 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>509</v>
+        <v>1250</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>844</v>
+        <v>697</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>934</v>
+        <v>787</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>142</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>990</v>
+        <v>843</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>197</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>1073</v>
+        <v>926</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>252</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1" t="s">
-        <v>1074</v>
+        <v>927</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>307</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1" t="s">
-        <v>1075</v>
+        <v>928</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>360</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1" t="s">
-        <v>1076</v>
+        <v>929</v>
       </c>
       <c r="AC9" s="1" t="s">
         <v>413</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1" t="s">
-        <v>1077</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
@@ -7003,59 +6089,59 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>510</v>
+        <v>1251</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>845</v>
+        <v>698</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>935</v>
+        <v>788</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>991</v>
+        <v>844</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>198</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>1078</v>
+        <v>931</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1" t="s">
-        <v>1079</v>
+        <v>932</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>308</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>1080</v>
+        <v>933</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>361</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1" t="s">
-        <v>1081</v>
+        <v>934</v>
       </c>
       <c r="AC10" s="1" t="s">
         <v>414</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>1082</v>
+        <v>935</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
@@ -7063,59 +6149,59 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1408</v>
+        <v>1252</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>846</v>
+        <v>699</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>936</v>
+        <v>789</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>144</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>992</v>
+        <v>845</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>1083</v>
+        <v>936</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>254</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>1084</v>
+        <v>937</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>309</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1" t="s">
-        <v>1085</v>
+        <v>938</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>362</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1" t="s">
-        <v>1086</v>
+        <v>939</v>
       </c>
       <c r="AC11" s="1" t="s">
         <v>415</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1" t="s">
-        <v>1087</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -7123,129 +6209,129 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>504</v>
+        <v>1253</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>847</v>
+        <v>700</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>937</v>
+        <v>790</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>145</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>993</v>
+        <v>846</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>200</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>642</v>
+        <v>1254</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1088</v>
+        <v>941</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>255</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
-        <v>1089</v>
+        <v>942</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>310</v>
       </c>
       <c r="V12" s="1"/>
       <c r="W12" s="1" t="s">
-        <v>1090</v>
+        <v>943</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>363</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1" t="s">
-        <v>1091</v>
+        <v>944</v>
       </c>
       <c r="AC12" s="1" t="s">
         <v>416</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1" t="s">
-        <v>1092</v>
+        <v>945</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>487</v>
+        <v>1255</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>488</v>
+        <v>1256</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>848</v>
+        <v>701</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>1317</v>
+        <v>1257</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>938</v>
+        <v>791</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>146</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>1315</v>
+        <v>1258</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>994</v>
+        <v>847</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>624</v>
+        <v>1259</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1093</v>
+        <v>946</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>256</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>1393</v>
+        <v>1260</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1094</v>
+        <v>947</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="1" t="s">
-        <v>1095</v>
+        <v>948</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>364</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1" t="s">
-        <v>1096</v>
+        <v>949</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>417</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1" t="s">
-        <v>1097</v>
+        <v>950</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
@@ -7253,67 +6339,67 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>489</v>
+        <v>1261</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>849</v>
+        <v>702</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1402</v>
+        <v>1262</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>939</v>
+        <v>792</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>147</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>545</v>
+        <v>1263</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>995</v>
+        <v>848</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>625</v>
+        <v>1264</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1098</v>
+        <v>951</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>257</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>1327</v>
+        <v>1265</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>1099</v>
+        <v>952</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>312</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1" t="s">
-        <v>1100</v>
+        <v>953</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>365</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="s">
-        <v>1101</v>
+        <v>954</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>418</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1" t="s">
-        <v>1102</v>
+        <v>955</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
@@ -7321,65 +6407,65 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>490</v>
+        <v>1266</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>850</v>
+        <v>703</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>1318</v>
+        <v>1267</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>940</v>
+        <v>793</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>1316</v>
+        <v>1268</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>996</v>
+        <v>849</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>203</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>626</v>
+        <v>1269</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1103</v>
+        <v>956</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>258</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1" t="s">
-        <v>1104</v>
+        <v>957</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>313</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1" t="s">
-        <v>1105</v>
+        <v>958</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>366</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="s">
-        <v>1106</v>
+        <v>959</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>419</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1" t="s">
-        <v>1107</v>
+        <v>960</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
@@ -7387,67 +6473,67 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>491</v>
+        <v>1270</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>851</v>
+        <v>704</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1403</v>
+        <v>1271</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>941</v>
+        <v>794</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>149</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>546</v>
+        <v>1272</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>997</v>
+        <v>850</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>204</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>627</v>
+        <v>1273</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1108</v>
+        <v>961</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>259</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>1328</v>
+        <v>1274</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>1109</v>
+        <v>962</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>314</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1" t="s">
-        <v>1110</v>
+        <v>963</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>367</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>1111</v>
+        <v>964</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>420</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1" t="s">
-        <v>1112</v>
+        <v>965</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.15">
@@ -7455,63 +6541,63 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1343</v>
+        <v>1275</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>852</v>
+        <v>705</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>620</v>
+        <v>1276</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>942</v>
+        <v>795</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>632</v>
+        <v>1277</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>998</v>
+        <v>851</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>205</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>1113</v>
+        <v>966</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>260</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="s">
-        <v>1114</v>
+        <v>967</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>315</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1" t="s">
-        <v>1115</v>
+        <v>968</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>368</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1" t="s">
-        <v>1116</v>
+        <v>969</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>421</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>1117</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.15">
@@ -7519,63 +6605,63 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>505</v>
+        <v>1278</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>853</v>
+        <v>706</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>621</v>
+        <v>1279</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>943</v>
+        <v>796</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>633</v>
+        <v>1280</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>999</v>
+        <v>852</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>1118</v>
+        <v>971</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>261</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
-        <v>1119</v>
+        <v>972</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>316</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>1120</v>
+        <v>973</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>369</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1" t="s">
-        <v>1121</v>
+        <v>974</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>422</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>1122</v>
+        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.15">
@@ -7583,65 +6669,65 @@
         <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1391</v>
+        <v>1281</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>854</v>
+        <v>707</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>609</v>
+        <v>1282</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>944</v>
+        <v>797</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>583</v>
+        <v>1283</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1000</v>
+        <v>853</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>207</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>1123</v>
+        <v>976</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>262</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>573</v>
+        <v>1284</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>1124</v>
+        <v>977</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>317</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>1125</v>
+        <v>978</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>370</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="s">
-        <v>1126</v>
+        <v>979</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>423</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>1127</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.15">
@@ -7649,63 +6735,65 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1319</v>
+        <v>1285</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>855</v>
+        <v>708</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>526</v>
+        <v>1286</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>945</v>
+        <v>798</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>527</v>
+        <v>476</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>1001</v>
+        <v>854</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>1287</v>
+      </c>
       <c r="O20" s="1" t="s">
-        <v>1128</v>
+        <v>981</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>263</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
-        <v>1129</v>
+        <v>982</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>318</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>1130</v>
+        <v>983</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>371</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
-        <v>1131</v>
+        <v>984</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>424</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>1132</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.15">
@@ -7713,69 +6801,67 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>643</v>
+        <v>1288</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>856</v>
+        <v>709</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>99</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>523</v>
+        <v>1289</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>946</v>
+        <v>799</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>154</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>528</v>
+        <v>1290</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1002</v>
+        <v>855</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>209</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>602</v>
+        <v>1291</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1133</v>
+        <v>986</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>264</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>604</v>
+        <v>1292</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>1134</v>
+        <v>987</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>319</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="Y21" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="Y21" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="Z21" s="9" t="s">
-        <v>1342</v>
-      </c>
-      <c r="AA21" s="9" t="s">
-        <v>1136</v>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12" t="s">
+        <v>989</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>425</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1" t="s">
-        <v>1137</v>
+        <v>990</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.15">
@@ -7783,71 +6869,71 @@
         <v>29</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>460</v>
+        <v>1293</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>857</v>
+        <v>710</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>548</v>
+        <v>1294</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>947</v>
+        <v>800</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>155</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>1003</v>
+        <v>856</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>1330</v>
+        <v>1295</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>1138</v>
+        <v>991</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>265</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>611</v>
+        <v>1296</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>1139</v>
+        <v>992</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>320</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>547</v>
+        <v>1297</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>1140</v>
+        <v>993</v>
       </c>
       <c r="Y22" s="9" t="s">
         <v>373</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>613</v>
+        <v>1298</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>1141</v>
+        <v>994</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>426</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1" t="s">
-        <v>1142</v>
+        <v>995</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.15">
@@ -7855,67 +6941,67 @@
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>634</v>
+        <v>1299</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>858</v>
+        <v>711</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>635</v>
+        <v>1300</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>948</v>
+        <v>801</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>156</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>592</v>
+        <v>1301</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>1004</v>
+        <v>857</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>211</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>537</v>
+        <v>482</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>1143</v>
+        <v>996</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>266</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>1144</v>
+        <v>997</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>321</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>1145</v>
+        <v>998</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>374</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1" t="s">
-        <v>1146</v>
+        <v>999</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>427</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1" t="s">
-        <v>1147</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.15">
@@ -7923,67 +7009,67 @@
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>629</v>
+        <v>1302</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>859</v>
+        <v>712</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>630</v>
+        <v>1303</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>949</v>
+        <v>802</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>157</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>600</v>
+        <v>1304</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>1005</v>
+        <v>858</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>212</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>538</v>
+        <v>483</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>1148</v>
+        <v>1001</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>267</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>1392</v>
+        <v>1218</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>1149</v>
+        <v>1002</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>322</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="s">
-        <v>1150</v>
+        <v>1003</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>375</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="s">
-        <v>1151</v>
+        <v>1004</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>428</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1" t="s">
-        <v>1152</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.15">
@@ -7991,61 +7077,61 @@
         <v>32</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>860</v>
+        <v>713</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>601</v>
+        <v>1305</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>950</v>
+        <v>803</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>158</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>1006</v>
+        <v>859</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>213</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1" t="s">
-        <v>1153</v>
+        <v>1006</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>268</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1" t="s">
-        <v>1154</v>
+        <v>1007</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>323</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="s">
-        <v>1155</v>
+        <v>1008</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>376</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1" t="s">
-        <v>1156</v>
+        <v>1009</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1" t="s">
-        <v>1157</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.15">
@@ -8053,67 +7139,67 @@
         <v>33</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>861</v>
+        <v>714</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>1394</v>
+        <v>1306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>951</v>
+        <v>804</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>159</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>588</v>
+        <v>1256</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1007</v>
+        <v>860</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>214</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>1158</v>
+        <v>1011</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>612</v>
+        <v>1307</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>1159</v>
+        <v>1012</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>324</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1" t="s">
-        <v>1160</v>
+        <v>1013</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>377</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1" t="s">
-        <v>1161</v>
+        <v>1014</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1" t="s">
-        <v>1162</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.15">
@@ -8121,67 +7207,67 @@
         <v>34</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>862</v>
+        <v>715</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>952</v>
+        <v>805</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>160</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1008</v>
+        <v>861</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>215</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>540</v>
+        <v>485</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>1163</v>
+        <v>1016</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>270</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>576</v>
+        <v>1308</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>1164</v>
+        <v>1017</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>325</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1" t="s">
-        <v>1165</v>
+        <v>1018</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>378</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="s">
-        <v>1166</v>
+        <v>1019</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>431</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1" t="s">
-        <v>1167</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.15">
@@ -8189,63 +7275,63 @@
         <v>35</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>863</v>
+        <v>716</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>106</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1334</v>
+        <v>1309</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>953</v>
+        <v>806</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>589</v>
+        <v>1270</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1009</v>
+        <v>862</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>216</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>1168</v>
+        <v>1021</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1" t="s">
-        <v>1169</v>
+        <v>1022</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>326</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1" t="s">
-        <v>1170</v>
+        <v>1023</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>379</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1" t="s">
-        <v>1171</v>
+        <v>1024</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>432</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1" t="s">
-        <v>1172</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.15">
@@ -8253,63 +7339,63 @@
         <v>36</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>864</v>
+        <v>717</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>954</v>
+        <v>807</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>590</v>
+        <v>1261</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1010</v>
+        <v>863</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>217</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>1173</v>
+        <v>1026</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1" t="s">
-        <v>1174</v>
+        <v>1027</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>327</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1" t="s">
-        <v>1175</v>
+        <v>1028</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>380</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1" t="s">
-        <v>1176</v>
+        <v>1029</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>433</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1" t="s">
-        <v>1177</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.15">
@@ -8317,67 +7403,67 @@
         <v>37</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>865</v>
+        <v>718</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>587</v>
+        <v>1310</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>955</v>
+        <v>808</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>163</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>591</v>
+        <v>1266</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1011</v>
+        <v>864</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>218</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>585</v>
+        <v>1311</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>1178</v>
+        <v>1031</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>273</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>503</v>
+        <v>1312</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>1179</v>
+        <v>1032</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>328</v>
       </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1" t="s">
-        <v>1180</v>
+        <v>1033</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>381</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1" t="s">
-        <v>1181</v>
+        <v>1034</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>434</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1" t="s">
-        <v>1182</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.15">
@@ -8385,67 +7471,67 @@
         <v>38</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>644</v>
+        <v>1313</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>866</v>
+        <v>719</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>109</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>524</v>
+        <v>1314</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>956</v>
+        <v>809</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>164</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>594</v>
+        <v>1315</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1012</v>
+        <v>865</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>603</v>
+        <v>1316</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>1183</v>
+        <v>1036</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>274</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>605</v>
+        <v>1317</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>1184</v>
+        <v>1037</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>329</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1" t="s">
-        <v>1185</v>
+        <v>1038</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>382</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>1186</v>
+        <v>1039</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>435</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1" t="s">
-        <v>1187</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.15">
@@ -8453,63 +7539,63 @@
         <v>39</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>867</v>
+        <v>720</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>525</v>
+        <v>1318</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>957</v>
+        <v>810</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>165</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>522</v>
+        <v>475</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1013</v>
+        <v>866</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>220</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1" t="s">
-        <v>1188</v>
+        <v>1041</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>275</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1" t="s">
-        <v>1189</v>
+        <v>1042</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>330</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1" t="s">
-        <v>1190</v>
+        <v>1043</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>383</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1" t="s">
-        <v>1191</v>
+        <v>1044</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>436</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1" t="s">
-        <v>1192</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.15">
@@ -8517,63 +7603,63 @@
         <v>40</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>637</v>
+        <v>1319</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>868</v>
+        <v>721</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>578</v>
+        <v>1320</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>958</v>
+        <v>811</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>166</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>1014</v>
+        <v>867</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>221</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>541</v>
+        <v>486</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>1193</v>
+        <v>1046</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>276</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>1194</v>
+        <v>1047</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>331</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1" t="s">
-        <v>1195</v>
+        <v>1048</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>384</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1" t="s">
-        <v>1196</v>
+        <v>1049</v>
       </c>
       <c r="AC33" s="1" t="s">
         <v>437</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1" t="s">
-        <v>1197</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.15">
@@ -8581,65 +7667,65 @@
         <v>41</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>535</v>
+        <v>1321</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>869</v>
+        <v>722</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>606</v>
+        <v>1322</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>959</v>
+        <v>812</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>570</v>
+        <v>1323</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1015</v>
+        <v>868</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>1198</v>
+        <v>1051</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>1395</v>
+        <v>1219</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>1199</v>
+        <v>1052</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>332</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1" t="s">
-        <v>1200</v>
+        <v>1053</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>385</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1" t="s">
-        <v>1201</v>
+        <v>1054</v>
       </c>
       <c r="AC34" s="1" t="s">
         <v>438</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1" t="s">
-        <v>1202</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.15">
@@ -8647,65 +7733,65 @@
         <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1382</v>
+        <v>1324</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>870</v>
+        <v>723</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>468</v>
+        <v>1325</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>960</v>
+        <v>813</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>168</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>1016</v>
+        <v>869</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>223</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>1203</v>
+        <v>1056</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>278</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>1204</v>
+        <v>1057</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>333</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="1" t="s">
-        <v>1205</v>
+        <v>1058</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>386</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1" t="s">
-        <v>1206</v>
+        <v>1059</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>439</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1" t="s">
-        <v>1207</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.15">
@@ -8713,63 +7799,63 @@
         <v>43</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>871</v>
+        <v>724</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>584</v>
+        <v>1327</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>961</v>
+        <v>814</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1" t="s">
-        <v>1017</v>
+        <v>870</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>1208</v>
+        <v>1061</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>1209</v>
+        <v>1062</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>334</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1" t="s">
-        <v>1210</v>
+        <v>1063</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>387</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="s">
-        <v>1211</v>
+        <v>1064</v>
       </c>
       <c r="AC36" s="1" t="s">
         <v>440</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1" t="s">
-        <v>1212</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.15">
@@ -8777,63 +7863,63 @@
         <v>44</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>628</v>
+        <v>1329</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>872</v>
+        <v>725</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>631</v>
+        <v>1330</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>962</v>
+        <v>815</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>1018</v>
+        <v>871</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="1" t="s">
-        <v>1213</v>
+        <v>1066</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="R37" s="1"/>
       <c r="S37" s="1" t="s">
-        <v>1214</v>
+        <v>1067</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>335</v>
       </c>
       <c r="V37" s="1"/>
       <c r="W37" s="1" t="s">
-        <v>1215</v>
+        <v>1068</v>
       </c>
       <c r="Y37" s="9" t="s">
         <v>388</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>614</v>
+        <v>1331</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>1216</v>
+        <v>1069</v>
       </c>
       <c r="AC37" s="1" t="s">
         <v>441</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1" t="s">
-        <v>1217</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.15">
@@ -8841,65 +7927,65 @@
         <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>534</v>
+        <v>1332</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>873</v>
+        <v>726</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>558</v>
+        <v>1333</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>963</v>
+        <v>816</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>571</v>
+        <v>1334</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>1019</v>
+        <v>872</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>226</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>544</v>
+        <v>1335</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>1218</v>
+        <v>1071</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>281</v>
       </c>
       <c r="R38" s="1"/>
       <c r="S38" s="1" t="s">
-        <v>1219</v>
+        <v>1072</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>336</v>
       </c>
       <c r="V38" s="1"/>
       <c r="W38" s="1" t="s">
-        <v>1220</v>
+        <v>1073</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>389</v>
       </c>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1" t="s">
-        <v>1221</v>
+        <v>1074</v>
       </c>
       <c r="AC38" s="1" t="s">
         <v>442</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1" t="s">
-        <v>1222</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
@@ -8907,61 +7993,61 @@
         <v>46</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>874</v>
+        <v>727</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>117</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>641</v>
+        <v>1336</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>964</v>
+        <v>817</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>172</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1" t="s">
-        <v>1020</v>
+        <v>873</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>227</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1" t="s">
-        <v>1223</v>
+        <v>1076</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>282</v>
       </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1" t="s">
-        <v>1224</v>
+        <v>1077</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>337</v>
       </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>1225</v>
+        <v>1078</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>390</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1" t="s">
-        <v>1226</v>
+        <v>1079</v>
       </c>
       <c r="AC39" s="1" t="s">
         <v>443</v>
       </c>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1" t="s">
-        <v>1227</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
@@ -8969,67 +8055,67 @@
         <v>47</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1313</v>
+        <v>1337</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>875</v>
+        <v>728</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1404</v>
+        <v>1338</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>965</v>
+        <v>818</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>173</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>531</v>
+        <v>479</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>1021</v>
+        <v>874</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>228</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>607</v>
+        <v>1339</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>1228</v>
+        <v>1081</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>283</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>551</v>
+        <v>491</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>1229</v>
+        <v>1082</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>338</v>
       </c>
       <c r="V40" s="1"/>
       <c r="W40" s="1" t="s">
-        <v>1230</v>
+        <v>1083</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>391</v>
       </c>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1" t="s">
-        <v>1231</v>
+        <v>1084</v>
       </c>
       <c r="AC40" s="1" t="s">
         <v>444</v>
       </c>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1" t="s">
-        <v>1232</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
@@ -9037,67 +8123,67 @@
         <v>48</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>876</v>
+        <v>729</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>966</v>
+        <v>819</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>174</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>572</v>
+        <v>1340</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1022</v>
+        <v>875</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>229</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>542</v>
+        <v>487</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>1233</v>
+        <v>1086</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>284</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>552</v>
+        <v>492</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>1234</v>
+        <v>1087</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>339</v>
       </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1" t="s">
-        <v>1235</v>
+        <v>1088</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>392</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1" t="s">
-        <v>1236</v>
+        <v>1089</v>
       </c>
       <c r="AC41" s="1" t="s">
         <v>445</v>
       </c>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1" t="s">
-        <v>1237</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
@@ -9105,65 +8191,65 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>595</v>
+        <v>1341</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>877</v>
+        <v>730</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>120</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>596</v>
+        <v>1342</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>967</v>
+        <v>820</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>175</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>1023</v>
+        <v>876</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="s">
-        <v>1238</v>
+        <v>1091</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>285</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>553</v>
+        <v>493</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>1239</v>
+        <v>1092</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>340</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1" t="s">
-        <v>1240</v>
+        <v>1093</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>393</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="s">
-        <v>1241</v>
+        <v>1094</v>
       </c>
       <c r="AC42" s="1" t="s">
         <v>446</v>
       </c>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1" t="s">
-        <v>1242</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.15">
@@ -9171,63 +8257,63 @@
         <v>50</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1314</v>
+        <v>1343</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>878</v>
+        <v>731</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>1401</v>
+        <v>1344</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>968</v>
+        <v>821</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1413</v>
+        <v>1345</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>1024</v>
+        <v>877</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>231</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="s">
-        <v>1243</v>
+        <v>1096</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>286</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1" t="s">
-        <v>1244</v>
+        <v>1097</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1" t="s">
-        <v>1245</v>
+        <v>1098</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>394</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1" t="s">
-        <v>1246</v>
+        <v>1099</v>
       </c>
       <c r="AC43" s="1" t="s">
         <v>447</v>
       </c>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1" t="s">
-        <v>1247</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.15">
@@ -9235,65 +8321,65 @@
         <v>51</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>472</v>
+        <v>1346</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>879</v>
+        <v>732</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>122</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>598</v>
+        <v>1347</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>969</v>
+        <v>822</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>177</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>1025</v>
+        <v>878</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>232</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>543</v>
+        <v>488</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>1248</v>
+        <v>1101</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>287</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
-        <v>1249</v>
+        <v>1102</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>562</v>
+        <v>1348</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="1" t="s">
-        <v>1250</v>
+        <v>1103</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>563</v>
+        <v>1349</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1" t="s">
-        <v>1251</v>
+        <v>1104</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>564</v>
+        <v>1350</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1" t="s">
-        <v>1252</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
@@ -9301,63 +8387,63 @@
         <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>498</v>
+        <v>1351</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>880</v>
+        <v>733</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>123</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>623</v>
+        <v>1352</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>970</v>
+        <v>823</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>178</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>565</v>
+        <v>1353</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>1026</v>
+        <v>879</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>233</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>1253</v>
+        <v>1106</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>288</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="1" t="s">
-        <v>1254</v>
+        <v>1107</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>342</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1" t="s">
-        <v>1255</v>
+        <v>1108</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>395</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1" t="s">
-        <v>1256</v>
+        <v>1109</v>
       </c>
       <c r="AC45" s="1" t="s">
         <v>448</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1" t="s">
-        <v>1257</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
@@ -9365,61 +8451,61 @@
         <v>54</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>499</v>
+        <v>1354</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>881</v>
+        <v>734</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>559</v>
+        <v>1355</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>971</v>
+        <v>824</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>1027</v>
+        <v>880</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>234</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>1258</v>
+        <v>1111</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>289</v>
       </c>
       <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
-        <v>1259</v>
+        <v>1112</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>343</v>
       </c>
       <c r="V46" s="1"/>
       <c r="W46" s="1" t="s">
-        <v>1260</v>
+        <v>1113</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>396</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1" t="s">
-        <v>1261</v>
+        <v>1114</v>
       </c>
       <c r="AC46" s="1" t="s">
         <v>449</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1" t="s">
-        <v>1262</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
@@ -9427,59 +8513,59 @@
         <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>500</v>
+        <v>1356</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>882</v>
+        <v>735</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>972</v>
+        <v>825</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>180</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>1028</v>
+        <v>881</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>235</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>1263</v>
+        <v>1116</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>290</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
-        <v>1264</v>
+        <v>1117</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>344</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="1" t="s">
-        <v>1265</v>
+        <v>1118</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>397</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1" t="s">
-        <v>1266</v>
+        <v>1119</v>
       </c>
       <c r="AC47" s="1" t="s">
         <v>450</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1" t="s">
-        <v>1267</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
@@ -9487,63 +8573,63 @@
         <v>56</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>501</v>
+        <v>1357</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>883</v>
+        <v>736</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>610</v>
+        <v>1246</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>973</v>
+        <v>826</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>181</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>572</v>
+        <v>1340</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>1029</v>
+        <v>882</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>236</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>1268</v>
+        <v>1121</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>291</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
-        <v>1269</v>
+        <v>1122</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>345</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="1" t="s">
-        <v>1270</v>
+        <v>1123</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>398</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="s">
-        <v>1271</v>
+        <v>1124</v>
       </c>
       <c r="AC48" s="1" t="s">
         <v>451</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1" t="s">
-        <v>1272</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.15">
@@ -9551,61 +8637,61 @@
         <v>57</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>502</v>
+        <v>1358</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>884</v>
+        <v>737</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>974</v>
+        <v>827</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>182</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>615</v>
+        <v>1359</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>1030</v>
+        <v>883</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>237</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>1273</v>
+        <v>1126</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>292</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1" t="s">
-        <v>1274</v>
+        <v>1127</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>346</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="1" t="s">
-        <v>1275</v>
+        <v>1128</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>399</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="s">
-        <v>1276</v>
+        <v>1129</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>452</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1" t="s">
-        <v>1277</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.15">
@@ -9613,65 +8699,65 @@
         <v>58</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1345</v>
+        <v>1360</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>885</v>
+        <v>738</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>1411</v>
+        <v>1361</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>975</v>
+        <v>828</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>183</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>1031</v>
+        <v>884</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>238</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>618</v>
+        <v>497</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>1278</v>
+        <v>1131</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>293</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1" t="s">
-        <v>1279</v>
+        <v>1132</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>347</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="1" t="s">
-        <v>1280</v>
+        <v>1133</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>400</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1" t="s">
-        <v>1281</v>
+        <v>1134</v>
       </c>
       <c r="AC50" s="1" t="s">
         <v>453</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1" t="s">
-        <v>1282</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.15">
@@ -9679,63 +8765,63 @@
         <v>59</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>597</v>
+        <v>1363</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>886</v>
+        <v>739</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>574</v>
+        <v>1364</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>976</v>
+        <v>829</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>184</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>575</v>
+        <v>1365</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>1032</v>
+        <v>885</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>1283</v>
+        <v>1136</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>294</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1" t="s">
-        <v>1284</v>
+        <v>1137</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>348</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="1" t="s">
-        <v>1285</v>
+        <v>1138</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>401</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1" t="s">
-        <v>1286</v>
+        <v>1139</v>
       </c>
       <c r="AC51" s="1" t="s">
         <v>454</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1" t="s">
-        <v>1287</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.15">
@@ -9743,191 +8829,191 @@
         <v>60</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1335</v>
+        <v>1366</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>887</v>
+        <v>740</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>560</v>
+        <v>1367</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>977</v>
+        <v>830</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>185</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>567</v>
+        <v>1368</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>1033</v>
+        <v>886</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>240</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>1288</v>
+        <v>1141</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>295</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1" t="s">
-        <v>1289</v>
+        <v>1142</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>349</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="1" t="s">
-        <v>1290</v>
+        <v>1143</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>402</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1" t="s">
-        <v>1291</v>
+        <v>1144</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>455</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1" t="s">
-        <v>1292</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>888</v>
+      <c r="B53" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>1422</v>
+        <v>1219</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>978</v>
+        <v>831</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>186</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>1421</v>
+        <v>1370</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>1034</v>
+        <v>887</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>241</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="s">
-        <v>1293</v>
+        <v>1146</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>296</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1" t="s">
-        <v>1294</v>
+        <v>1147</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>350</v>
       </c>
       <c r="V53" s="1"/>
       <c r="W53" s="1" t="s">
-        <v>1295</v>
+        <v>1148</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>403</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="s">
-        <v>1296</v>
+        <v>1149</v>
       </c>
       <c r="AC53" s="1" t="s">
         <v>456</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1" t="s">
-        <v>1297</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>889</v>
+      <c r="B54" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>742</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>568</v>
+        <v>1372</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>979</v>
+        <v>832</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>187</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>566</v>
+        <v>1373</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>1035</v>
+        <v>888</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>242</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="s">
-        <v>1298</v>
+        <v>1151</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>297</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1" t="s">
-        <v>1299</v>
+        <v>1152</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>351</v>
       </c>
       <c r="V54" s="1"/>
       <c r="W54" s="1" t="s">
-        <v>1300</v>
+        <v>1153</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>404</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1" t="s">
-        <v>1301</v>
+        <v>1154</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>457</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1" t="s">
-        <v>1302</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.15">
@@ -9935,63 +9021,63 @@
         <v>63</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>508</v>
+        <v>1374</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>890</v>
+        <v>743</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>561</v>
+        <v>1375</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>980</v>
+        <v>833</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>188</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>536</v>
+        <v>1376</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>1036</v>
+        <v>889</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>243</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="s">
-        <v>1303</v>
+        <v>1156</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>298</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1" t="s">
-        <v>1304</v>
+        <v>1157</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="1" t="s">
-        <v>1305</v>
+        <v>1158</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>405</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1" t="s">
-        <v>1306</v>
+        <v>1159</v>
       </c>
       <c r="AC55" s="1" t="s">
         <v>458</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1" t="s">
-        <v>1307</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.15">
@@ -9999,63 +9085,63 @@
         <v>64</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1419</v>
+        <v>1377</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>891</v>
+        <v>744</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>1412</v>
+        <v>1378</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>981</v>
+        <v>834</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>189</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>1420</v>
+        <v>1379</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1037</v>
+        <v>890</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>244</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="s">
-        <v>1308</v>
+        <v>1161</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>299</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1" t="s">
-        <v>1309</v>
+        <v>1162</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>579</v>
+        <v>1380</v>
       </c>
       <c r="V56" s="1"/>
       <c r="W56" s="1" t="s">
-        <v>1310</v>
+        <v>1163</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>580</v>
+        <v>1381</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1" t="s">
-        <v>1311</v>
+        <v>1164</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>581</v>
+        <v>1382</v>
       </c>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1" t="s">
-        <v>1312</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.15">
@@ -10063,19 +9149,19 @@
         <v>16</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>506</v>
+        <v>1383</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>892</v>
+        <v>745</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>982</v>
+        <v>835</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.15">
@@ -10083,10 +9169,10 @@
         <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>480</v>
+        <v>1384</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>893</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.15">
@@ -10094,10 +9180,10 @@
         <v>18</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>481</v>
+        <v>1385</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>894</v>
+        <v>747</v>
       </c>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.15">
@@ -10105,14 +9191,14 @@
         <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>482</v>
+        <v>1386</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>895</v>
+        <v>748</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" t="s">
-        <v>1329</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.15">
@@ -10120,10 +9206,10 @@
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>483</v>
+        <v>1388</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>896</v>
+        <v>749</v>
       </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.15">
@@ -10131,14 +9217,14 @@
         <v>21</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>484</v>
+        <v>1389</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>897</v>
+        <v>750</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" t="s">
-        <v>1337</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.15">
@@ -10146,10 +9232,10 @@
         <v>22</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>485</v>
+        <v>1391</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>898</v>
+        <v>751</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.15">
@@ -10157,21 +9243,21 @@
         <v>23</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>486</v>
+        <v>1392</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>899</v>
+        <v>752</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>900</v>
+      <c r="B65" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -10179,10 +9265,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1410</v>
+        <v>1228</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>901</v>
+        <v>754</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -10191,16 +9277,16 @@
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>902</v>
+        <v>755</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>459</v>
+        <v>1394</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>903</v>
+        <v>756</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -10208,10 +9294,10 @@
         <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>514</v>
+        <v>1395</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>904</v>
+        <v>757</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -10220,7 +9306,7 @@
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>905</v>
+        <v>758</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -10228,32 +9314,32 @@
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>495</v>
+        <v>1396</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>906</v>
+        <v>759</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>907</v>
+      <c r="B72" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="9" t="s">
-        <v>479</v>
+        <v>1398</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>492</v>
+        <v>1399</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>908</v>
+        <v>761</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -10261,10 +9347,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>493</v>
+        <v>1400</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>909</v>
+        <v>762</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -10272,21 +9358,21 @@
         <v>71</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>496</v>
+        <v>1401</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>910</v>
+        <v>763</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>511</v>
+        <v>1402</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>512</v>
+        <v>1403</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>911</v>
+        <v>764</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -10294,10 +9380,10 @@
         <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>622</v>
+        <v>1404</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>912</v>
+        <v>765</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -10306,7 +9392,7 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>913</v>
+        <v>766</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -10314,10 +9400,10 @@
         <v>52</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>619</v>
+        <v>1405</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>914</v>
+        <v>767</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -10325,10 +9411,10 @@
         <v>75</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>513</v>
+        <v>1406</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>915</v>
+        <v>768</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -10336,10 +9422,10 @@
         <v>74</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>1415</v>
+        <v>1407</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>916</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -10347,32 +9433,32 @@
         <v>76</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>1416</v>
+        <v>1408</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>917</v>
+        <v>770</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
-        <v>616</v>
+        <v>1409</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>918</v>
+        <v>771</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
-        <v>617</v>
+        <v>1411</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>919</v>
+        <v>772</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -10381,7 +9467,7 @@
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>920</v>
+        <v>773</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -10389,63 +9475,63 @@
         <v>78</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>921</v>
+        <v>774</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>473</v>
+        <v>1413</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>586</v>
+        <v>1414</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>922</v>
+        <v>775</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>474</v>
+        <v>1415</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>923</v>
+        <v>776</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="9" t="s">
-        <v>475</v>
+        <v>1416</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>924</v>
+        <v>777</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="9" t="s">
-        <v>476</v>
+        <v>1417</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>478</v>
+        <v>1418</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>925</v>
+        <v>778</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="9" t="s">
-        <v>494</v>
+        <v>1419</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>636</v>
+        <v>1420</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>926</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -10470,915 +9556,915 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>709</v>
+        <v>562</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>711</v>
+        <v>564</v